--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>975113.5887928018</v>
+        <v>974294.8004638589</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1060382.750119602</v>
+        <v>1060382.750119603</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8142301.118515342</v>
+        <v>8142301.118515343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>322.7860360281958</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>114.7465342229398</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -795,10 +795,10 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>128.801431250095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>22.98569063694847</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>242.5156439484329</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>60.45826732827189</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1029,13 +1029,13 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>73.31370764131968</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>134.6751203255735</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>184.5808806410311</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>351.2391879744742</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>30.30583423549609</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>305.6398138632496</v>
       </c>
       <c r="G11" t="n">
         <v>413.3792705362076</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1917755495223</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,28 +1528,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>154.5560866391441</v>
+        <v>32.02219503402095</v>
       </c>
       <c r="I13" t="n">
-        <v>129.5036936876659</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>32.35914453616791</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.91421918945568</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>122.0864300276811</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6264771424196</v>
       </c>
       <c r="G14" t="n">
         <v>413.3792705362076</v>
@@ -1655,13 +1655,13 @@
         <v>29.0441353260982</v>
       </c>
       <c r="S14" t="n">
-        <v>165.189065803936</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>81.82233575171395</v>
+        <v>214.6758728638764</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1917755495223</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>27.10894244377915</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.1281782894276</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.5560866391441</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>129.5036936876659</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>32.35914453616791</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.91421918945568</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>192.2989865320715</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>261.8894044893831</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.3792705362076</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>52.07787120253909</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>154.5560866391441</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.91421918945568</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>208.9803284975833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>224.2590757696937</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2719674799983</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>96.91390370786549</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>35.16602846144354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,22 +2084,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>258.6334740783436</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>231.6686405856567</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.3792705362076</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.3214288653053</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>29.0441353260982</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>165.189065803936</v>
       </c>
       <c r="T20" t="n">
         <v>214.6758728638764</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.1281782894276</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>154.5560866391441</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>54.27052683885623</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>251.6197630097537</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2336,7 +2336,7 @@
         <v>319.7760959178264</v>
       </c>
       <c r="I23" t="n">
-        <v>136.3214288653054</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.04413532609821</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>214.6758728638764</v>
+        <v>59.94619066047233</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>61.83512367745335</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S24" t="n">
         <v>152.567243645161</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>138.4987178550945</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>172.8189059113604</v>
       </c>
       <c r="U25" t="n">
-        <v>102.1463478042681</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>214.6758728638764</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>68.81317476183868</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>203.3782706153758</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S27" t="n">
         <v>152.567243645161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>95.21229323192925</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>208.9803284975833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>192.2989865320712</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>211.1406469141859</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>295.8699599184364</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.3792705362076</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>319.7760959178264</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>29.04413532609821</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>214.6758728638764</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S30" t="n">
         <v>152.567243645161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>28.8759904868624</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>208.9803284975833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>224.2590757696937</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2719674799983</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>96.91390370786466</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,13 +3029,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>413.3792705362076</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>319.7760959178264</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>165.189065803936</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>214.6758728638764</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1917755495223</v>
       </c>
       <c r="V32" t="n">
-        <v>103.4498205917605</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>166.8623679297294</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S33" t="n">
         <v>152.567243645161</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.57979237937217</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1281782894276</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>138.4987178550945</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>165.9449347310103</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2719674799983</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3284,7 +3284,7 @@
         <v>319.7760959178264</v>
       </c>
       <c r="I35" t="n">
-        <v>136.3214288653054</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S35" t="n">
         <v>165.189065803936</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.6758728638764</v>
       </c>
       <c r="U35" t="n">
         <v>251.1917755495223</v>
       </c>
       <c r="V35" t="n">
-        <v>216.5308178885984</v>
+        <v>1.042002146010627</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S36" t="n">
         <v>152.567243645161</v>
@@ -3421,31 +3421,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>41.02316163323481</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.1281782894276</v>
       </c>
       <c r="H37" t="n">
         <v>154.5560866391441</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>129.5036936876659</v>
       </c>
       <c r="J37" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>76.80351530998504</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>224.2590757696937</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>319.7760959178264</v>
+        <v>56.54143126057419</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>29.04413532609821</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S38" t="n">
         <v>165.189065803936</v>
@@ -3557,13 +3557,13 @@
         <v>214.6758728638764</v>
       </c>
       <c r="U38" t="n">
-        <v>21.23834230770947</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S39" t="n">
         <v>152.567243645161</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.7331919173649</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.91421918945569</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>224.2590757696937</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2719674799983</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>124.360641547575</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>260.1694522594581</v>
       </c>
       <c r="G41" t="n">
-        <v>413.3792705362076</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>29.04413532609821</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.6758728638764</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1917755495223</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>315.5413811479901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S42" t="n">
         <v>152.567243645161</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>131.7366744411104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.1281782894276</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,19 +3952,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2719674799983</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>274.9719687584636</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3980,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>17.47458880544369</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3995,7 +3995,7 @@
         <v>319.7760959178264</v>
       </c>
       <c r="I44" t="n">
-        <v>136.3214288653054</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>29.04413532609821</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>251.1917755495223</v>
       </c>
       <c r="V44" t="n">
-        <v>263.0835300124002</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>36.26053330139664</v>
+        <v>36.26053330139663</v>
       </c>
       <c r="S45" t="n">
         <v>152.567243645161</v>
@@ -4144,19 +4144,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.1281782894276</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>154.5560866391441</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>129.5036936876659</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.35914453616792</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,25 +4177,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.91421918945569</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>138.4987178550945</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.04418723525336</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.7646337947218</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.4179758042681</v>
+        <v>1335.58524627281</v>
       </c>
       <c r="C2" t="n">
-        <v>533.4554588638564</v>
+        <v>966.622729332398</v>
       </c>
       <c r="D2" t="n">
-        <v>533.4554588638564</v>
+        <v>966.622729332398</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>580.8344767341537</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>169.8485719445461</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="3">
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0454376285412</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0454376285412</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0454376285412</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>184.0454376285412</v>
+        <v>550.7989714776633</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>403.9090239797529</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>234.9092237180853</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>77.16085115061543</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.9067899221776</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>471.9067899221776</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>471.9067899221776</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>471.9067899221776</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1248.645961962111</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>858.5066299862995</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4653,16 +4653,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4680,7 +4680,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>580.2158906240413</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>433.3259431261309</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>264.3261428644633</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>53.94298182036445</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E8" t="n">
-        <v>53.94298182036445</v>
+        <v>819.715945170047</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>408.7300403804394</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,13 +4884,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E10" t="n">
         <v>709.5665374816297</v>
@@ -4954,10 +4954,10 @@
         <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>709.5665374816297</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1759.588482192899</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="C11" t="n">
-        <v>1759.588482192899</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="D11" t="n">
-        <v>1728.97652841967</v>
+        <v>1626.717708340416</v>
       </c>
       <c r="E11" t="n">
-        <v>1343.188275821426</v>
+        <v>1240.929455742172</v>
       </c>
       <c r="F11" t="n">
         <v>932.2023710318184</v>
@@ -5042,22 +5042,22 @@
         <v>203.7325223070143</v>
       </c>
       <c r="K11" t="n">
-        <v>548.973018811472</v>
+        <v>467.3170785304531</v>
       </c>
       <c r="L11" t="n">
-        <v>1029.551010520453</v>
+        <v>947.8950702394344</v>
       </c>
       <c r="M11" t="n">
-        <v>1580.893169235316</v>
+        <v>1499.237228954297</v>
       </c>
       <c r="N11" t="n">
-        <v>2126.524622942853</v>
+        <v>2044.868682661834</v>
       </c>
       <c r="O11" t="n">
-        <v>2596.561294561806</v>
+        <v>2137.913174830669</v>
       </c>
       <c r="P11" t="n">
-        <v>2697.149091018222</v>
+        <v>2501.404216467176</v>
       </c>
       <c r="Q11" t="n">
         <v>2697.149091018222</v>
@@ -5072,19 +5072,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.420024806584</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2112.357137463013</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>1759.588482192899</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X11" t="n">
-        <v>1759.588482192899</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y11" t="n">
-        <v>1759.588482192899</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1007.045619411273</v>
+        <v>978.6314923029162</v>
       </c>
       <c r="C12" t="n">
-        <v>832.592590130146</v>
+        <v>804.1784630217892</v>
       </c>
       <c r="D12" t="n">
-        <v>683.6581804688948</v>
+        <v>655.2440533605379</v>
       </c>
       <c r="E12" t="n">
-        <v>524.4207254634393</v>
+        <v>496.0065983550825</v>
       </c>
       <c r="F12" t="n">
-        <v>377.8861674903243</v>
+        <v>349.4720403819675</v>
       </c>
       <c r="G12" t="n">
-        <v>240.1948830459708</v>
+        <v>211.7807559376139</v>
       </c>
       <c r="H12" t="n">
-        <v>136.8655247457177</v>
+        <v>108.4513976373609</v>
       </c>
       <c r="I12" t="n">
-        <v>82.35710892872126</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>82.35710892872126</v>
+        <v>149.463226290128</v>
       </c>
       <c r="K12" t="n">
-        <v>372.2372640830505</v>
+        <v>177.5227968020044</v>
       </c>
       <c r="L12" t="n">
-        <v>823.4213024079231</v>
+        <v>628.7068351268771</v>
       </c>
       <c r="M12" t="n">
-        <v>1401.911015797101</v>
+        <v>1207.196548516055</v>
       </c>
       <c r="N12" t="n">
-        <v>1828.784440907393</v>
+        <v>1816.704176656236</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.949165424019</v>
+        <v>2307.868901172862</v>
       </c>
       <c r="P12" t="n">
-        <v>2697.149091018222</v>
+        <v>2668.734963909866</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2668.734963909866</v>
       </c>
       <c r="R12" t="n">
-        <v>2660.52228970368</v>
+        <v>2632.108162595323</v>
       </c>
       <c r="S12" t="n">
-        <v>2506.413962789376</v>
+        <v>2477.999835681019</v>
       </c>
       <c r="T12" t="n">
-        <v>2308.417447771894</v>
+        <v>2280.003320663538</v>
       </c>
       <c r="U12" t="n">
-        <v>2080.262220361772</v>
+        <v>2051.848093253415</v>
       </c>
       <c r="V12" t="n">
-        <v>1845.110112130029</v>
+        <v>1816.695985021672</v>
       </c>
       <c r="W12" t="n">
-        <v>1590.872755401828</v>
+        <v>1562.458628293471</v>
       </c>
       <c r="X12" t="n">
-        <v>1383.021255196295</v>
+        <v>1354.607128087938</v>
       </c>
       <c r="Y12" t="n">
-        <v>1175.260956431341</v>
+        <v>1146.846829322984</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>520.4480049374445</v>
+        <v>403.1379098801806</v>
       </c>
       <c r="C13" t="n">
-        <v>520.4480049374445</v>
+        <v>234.2017269522737</v>
       </c>
       <c r="D13" t="n">
-        <v>520.4480049374445</v>
+        <v>234.2017269522737</v>
       </c>
       <c r="E13" t="n">
-        <v>520.4480049374445</v>
+        <v>86.28863336988056</v>
       </c>
       <c r="F13" t="n">
-        <v>373.5580574395341</v>
+        <v>86.28863336988056</v>
       </c>
       <c r="G13" t="n">
-        <v>373.5580574395341</v>
+        <v>86.28863336988056</v>
       </c>
       <c r="H13" t="n">
-        <v>217.4407982080754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>86.62898640235224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5218,31 +5218,31 @@
         <v>878.6149772295976</v>
       </c>
       <c r="Q13" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="R13" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="S13" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="T13" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="U13" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="V13" t="n">
-        <v>864.5602103715615</v>
+        <v>623.9304890237107</v>
       </c>
       <c r="W13" t="n">
-        <v>741.2405840809746</v>
+        <v>623.9304890237107</v>
       </c>
       <c r="X13" t="n">
-        <v>741.2405840809746</v>
+        <v>623.9304890237107</v>
       </c>
       <c r="Y13" t="n">
-        <v>520.4480049374445</v>
+        <v>403.1379098801806</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2087.242227026421</v>
+        <v>1479.575470944371</v>
       </c>
       <c r="C14" t="n">
-        <v>2087.242227026421</v>
+        <v>1110.612954003959</v>
       </c>
       <c r="D14" t="n">
-        <v>1728.97652841967</v>
+        <v>1110.612954003959</v>
       </c>
       <c r="E14" t="n">
-        <v>1343.188275821426</v>
+        <v>1110.612954003959</v>
       </c>
       <c r="F14" t="n">
         <v>932.2023710318184</v>
@@ -5276,25 +5276,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>53.94298182036445</v>
+        <v>203.7325223070143</v>
       </c>
       <c r="K14" t="n">
-        <v>286.0697736313817</v>
+        <v>228.0690603660188</v>
       </c>
       <c r="L14" t="n">
-        <v>766.647765340363</v>
+        <v>708.6470520750001</v>
       </c>
       <c r="M14" t="n">
-        <v>1317.989924055226</v>
+        <v>1259.989210789863</v>
       </c>
       <c r="N14" t="n">
-        <v>1863.621377762763</v>
+        <v>1805.6206644974</v>
       </c>
       <c r="O14" t="n">
-        <v>2333.658049381716</v>
+        <v>2275.657336116353</v>
       </c>
       <c r="P14" t="n">
-        <v>2697.149091018222</v>
+        <v>2501.404216467176</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
@@ -5303,25 +5303,25 @@
         <v>2667.81158058782</v>
       </c>
       <c r="S14" t="n">
-        <v>2500.953938361622</v>
+        <v>2667.81158058782</v>
       </c>
       <c r="T14" t="n">
-        <v>2418.305114369992</v>
+        <v>2450.967264563702</v>
       </c>
       <c r="U14" t="n">
-        <v>2418.305114369992</v>
+        <v>2197.238198352064</v>
       </c>
       <c r="V14" t="n">
-        <v>2087.242227026421</v>
+        <v>1866.175311008493</v>
       </c>
       <c r="W14" t="n">
-        <v>2087.242227026421</v>
+        <v>1866.175311008493</v>
       </c>
       <c r="X14" t="n">
-        <v>2087.242227026421</v>
+        <v>1866.175311008493</v>
       </c>
       <c r="Y14" t="n">
-        <v>2087.242227026421</v>
+        <v>1866.175311008493</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1007.045619411273</v>
+        <v>978.6314923029162</v>
       </c>
       <c r="C15" t="n">
-        <v>832.592590130146</v>
+        <v>804.1784630217892</v>
       </c>
       <c r="D15" t="n">
-        <v>683.6581804688948</v>
+        <v>655.2440533605379</v>
       </c>
       <c r="E15" t="n">
-        <v>524.4207254634393</v>
+        <v>496.0065983550825</v>
       </c>
       <c r="F15" t="n">
-        <v>377.8861674903243</v>
+        <v>349.4720403819675</v>
       </c>
       <c r="G15" t="n">
-        <v>240.1948830459708</v>
+        <v>211.7807559376139</v>
       </c>
       <c r="H15" t="n">
-        <v>136.8655247457177</v>
+        <v>108.4513976373609</v>
       </c>
       <c r="I15" t="n">
-        <v>82.35710892872126</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>177.8773533984848</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>467.757508552814</v>
+        <v>328.8704841697959</v>
       </c>
       <c r="L15" t="n">
-        <v>640.7870993780332</v>
+        <v>412.922580644244</v>
       </c>
       <c r="M15" t="n">
-        <v>1219.276812767211</v>
+        <v>991.412294033422</v>
       </c>
       <c r="N15" t="n">
-        <v>1828.784440907393</v>
+        <v>1600.919922173603</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.949165424019</v>
+        <v>2092.084646690229</v>
       </c>
       <c r="P15" t="n">
-        <v>2697.149091018222</v>
+        <v>2469.284572284433</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2668.734963909866</v>
       </c>
       <c r="R15" t="n">
-        <v>2660.52228970368</v>
+        <v>2632.108162595323</v>
       </c>
       <c r="S15" t="n">
-        <v>2506.413962789376</v>
+        <v>2477.999835681019</v>
       </c>
       <c r="T15" t="n">
-        <v>2308.417447771894</v>
+        <v>2280.003320663538</v>
       </c>
       <c r="U15" t="n">
-        <v>2080.262220361772</v>
+        <v>2051.848093253415</v>
       </c>
       <c r="V15" t="n">
-        <v>1845.110112130029</v>
+        <v>1816.695985021672</v>
       </c>
       <c r="W15" t="n">
-        <v>1590.872755401828</v>
+        <v>1562.458628293471</v>
       </c>
       <c r="X15" t="n">
-        <v>1383.021255196295</v>
+        <v>1354.607128087938</v>
       </c>
       <c r="Y15" t="n">
-        <v>1175.260956431341</v>
+        <v>1146.846829322984</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>864.5602103715615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>837.1774402263301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>837.1774402263301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>689.264346643937</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>542.3743991460266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>373.5580574395341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>217.4407982080754</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>86.62898640235224</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5455,31 +5455,31 @@
         <v>878.6149772295976</v>
       </c>
       <c r="Q16" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="R16" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="S16" t="n">
-        <v>864.5602103715615</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="T16" t="n">
-        <v>864.5602103715615</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="U16" t="n">
-        <v>864.5602103715615</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="V16" t="n">
-        <v>864.5602103715615</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W16" t="n">
-        <v>864.5602103715615</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X16" t="n">
-        <v>864.5602103715615</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y16" t="n">
-        <v>864.5602103715615</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1891.072408547887</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C17" t="n">
-        <v>1626.537656538409</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>1268.271957931658</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>882.483705333414</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>471.4978005438065</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5516,19 +5516,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K17" t="n">
-        <v>399.1834783248221</v>
+        <v>286.0697736313817</v>
       </c>
       <c r="L17" t="n">
-        <v>879.7614700338033</v>
+        <v>766.647765340363</v>
       </c>
       <c r="M17" t="n">
-        <v>1431.103628748666</v>
+        <v>1317.989924055226</v>
       </c>
       <c r="N17" t="n">
-        <v>1976.735082456203</v>
+        <v>1863.621377762763</v>
       </c>
       <c r="O17" t="n">
-        <v>2446.771754075156</v>
+        <v>2333.658049381716</v>
       </c>
       <c r="P17" t="n">
         <v>2697.149091018222</v>
@@ -5543,22 +5543,22 @@
         <v>2667.81158058782</v>
       </c>
       <c r="T17" t="n">
-        <v>2667.81158058782</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U17" t="n">
-        <v>2667.81158058782</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V17" t="n">
-        <v>2667.81158058782</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W17" t="n">
-        <v>2667.81158058782</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X17" t="n">
-        <v>2667.81158058782</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y17" t="n">
-        <v>2277.672248612008</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8231369746936</v>
+        <v>328.8704841697959</v>
       </c>
       <c r="L18" t="n">
-        <v>795.0071752995664</v>
+        <v>412.922580644244</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.496888688744</v>
+        <v>991.412294033422</v>
       </c>
       <c r="N18" t="n">
-        <v>1983.004516828926</v>
+        <v>1600.919922173603</v>
       </c>
       <c r="O18" t="n">
-        <v>2474.169241345552</v>
+        <v>2092.084646690229</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.091025986218</v>
+        <v>2469.284572284433</v>
       </c>
       <c r="Q18" t="n">
         <v>2668.734963909866</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>357.9733346342163</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>357.9733346342163</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>357.9733346342163</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>210.0602410518232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>210.0602410518232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>210.0602410518232</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5692,31 +5692,31 @@
         <v>878.6149772295976</v>
       </c>
       <c r="Q19" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="R19" t="n">
-        <v>864.5602103715615</v>
+        <v>878.6149772295976</v>
       </c>
       <c r="S19" t="n">
-        <v>864.5602103715615</v>
+        <v>667.5237363229478</v>
       </c>
       <c r="T19" t="n">
-        <v>864.5602103715615</v>
+        <v>440.9994173636612</v>
       </c>
       <c r="U19" t="n">
-        <v>864.5602103715615</v>
+        <v>151.8358138485114</v>
       </c>
       <c r="V19" t="n">
-        <v>864.5602103715615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>575.143040334601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>575.143040334601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>539.621799464456</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>831.2100108773011</v>
+        <v>1083.829211057317</v>
       </c>
       <c r="C20" t="n">
-        <v>462.2474939368894</v>
+        <v>714.8666941169049</v>
       </c>
       <c r="D20" t="n">
-        <v>201.0015605244211</v>
+        <v>714.8666941169049</v>
       </c>
       <c r="E20" t="n">
-        <v>201.0015605244211</v>
+        <v>714.8666941169049</v>
       </c>
       <c r="F20" t="n">
-        <v>201.0015605244211</v>
+        <v>480.8579662526052</v>
       </c>
       <c r="G20" t="n">
-        <v>201.0015605244211</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="H20" t="n">
-        <v>201.0015605244211</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="I20" t="n">
         <v>63.30314752916316</v>
@@ -5753,16 +5753,16 @@
         <v>213.0926880158131</v>
       </c>
       <c r="K20" t="n">
-        <v>558.3331845202711</v>
+        <v>558.3331845202709</v>
       </c>
       <c r="L20" t="n">
         <v>1038.911176229252</v>
       </c>
       <c r="M20" t="n">
-        <v>1590.253334944116</v>
+        <v>1590.253334944115</v>
       </c>
       <c r="N20" t="n">
-        <v>2135.884788651652</v>
+        <v>2135.884788651651</v>
       </c>
       <c r="O20" t="n">
         <v>2605.921460270605</v>
@@ -5774,28 +5774,28 @@
         <v>3165.157376458158</v>
       </c>
       <c r="R20" t="n">
-        <v>3135.819866027756</v>
+        <v>3165.157376458158</v>
       </c>
       <c r="S20" t="n">
-        <v>3135.819866027756</v>
+        <v>2998.29973423196</v>
       </c>
       <c r="T20" t="n">
-        <v>2918.975550003638</v>
+        <v>2781.455418207842</v>
       </c>
       <c r="U20" t="n">
-        <v>2665.246483791999</v>
+        <v>2527.726351996203</v>
       </c>
       <c r="V20" t="n">
-        <v>2334.183596448428</v>
+        <v>2196.663464652632</v>
       </c>
       <c r="W20" t="n">
-        <v>1981.414941178314</v>
+        <v>1843.894809382518</v>
       </c>
       <c r="X20" t="n">
-        <v>1607.949182917235</v>
+        <v>1470.429051121438</v>
       </c>
       <c r="Y20" t="n">
-        <v>1217.809850941423</v>
+        <v>1470.429051121438</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>221.1409216464127</v>
       </c>
       <c r="H21" t="n">
-        <v>117.8115633461596</v>
+        <v>117.8115633461595</v>
       </c>
       <c r="I21" t="n">
         <v>63.30314752916316</v>
@@ -5832,16 +5832,16 @@
         <v>158.8233919989267</v>
       </c>
       <c r="K21" t="n">
-        <v>448.7035471532559</v>
+        <v>361.0224041121326</v>
       </c>
       <c r="L21" t="n">
-        <v>883.3307594655433</v>
+        <v>812.2064424370053</v>
       </c>
       <c r="M21" t="n">
-        <v>1000.772459742221</v>
+        <v>1390.696155826183</v>
       </c>
       <c r="N21" t="n">
-        <v>1610.280087882403</v>
+        <v>2000.203783966365</v>
       </c>
       <c r="O21" t="n">
         <v>2101.444812399029</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>887.9751429383963</v>
+        <v>379.1292779549805</v>
       </c>
       <c r="C22" t="n">
-        <v>887.9751429383963</v>
+        <v>210.1930950270735</v>
       </c>
       <c r="D22" t="n">
-        <v>737.8585035260605</v>
+        <v>210.1930950270735</v>
       </c>
       <c r="E22" t="n">
-        <v>589.9454099436674</v>
+        <v>210.1930950270735</v>
       </c>
       <c r="F22" t="n">
-        <v>443.055462445757</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="G22" t="n">
-        <v>274.2391207392645</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="H22" t="n">
-        <v>118.1218615078058</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="I22" t="n">
         <v>63.30314752916316</v>
@@ -5941,19 +5941,19 @@
         <v>887.9751429383963</v>
       </c>
       <c r="U22" t="n">
-        <v>887.9751429383963</v>
+        <v>633.8137661608673</v>
       </c>
       <c r="V22" t="n">
-        <v>887.9751429383963</v>
+        <v>379.1292779549805</v>
       </c>
       <c r="W22" t="n">
-        <v>887.9751429383963</v>
+        <v>379.1292779549805</v>
       </c>
       <c r="X22" t="n">
-        <v>887.9751429383963</v>
+        <v>379.1292779549805</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.9751429383963</v>
+        <v>379.1292779549805</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2079.776657077387</v>
+        <v>2327.866496680373</v>
       </c>
       <c r="C23" t="n">
-        <v>1710.814140136975</v>
+        <v>1958.903979739961</v>
       </c>
       <c r="D23" t="n">
-        <v>1352.548441530225</v>
+        <v>1600.638281133211</v>
       </c>
       <c r="E23" t="n">
-        <v>1352.548441530225</v>
+        <v>1214.850028534967</v>
       </c>
       <c r="F23" t="n">
-        <v>941.5625367406171</v>
+        <v>803.8641237453592</v>
       </c>
       <c r="G23" t="n">
-        <v>524.0077180171751</v>
+        <v>386.3093050219171</v>
       </c>
       <c r="H23" t="n">
-        <v>201.0015605244211</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="I23" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="J23" t="n">
-        <v>213.0926880158129</v>
+        <v>213.092688015813</v>
       </c>
       <c r="K23" t="n">
         <v>558.3331845202706</v>
@@ -6002,37 +6002,37 @@
         <v>2135.884788651651</v>
       </c>
       <c r="O23" t="n">
-        <v>2605.921460270604</v>
+        <v>2605.921460270605</v>
       </c>
       <c r="P23" t="n">
-        <v>2969.412501907111</v>
+        <v>2969.412501907112</v>
       </c>
       <c r="Q23" t="n">
-        <v>3165.157376458157</v>
+        <v>3165.157376458158</v>
       </c>
       <c r="R23" t="n">
-        <v>3135.819866027755</v>
+        <v>3165.157376458158</v>
       </c>
       <c r="S23" t="n">
-        <v>3135.819866027755</v>
+        <v>3165.157376458158</v>
       </c>
       <c r="T23" t="n">
-        <v>2918.975550003637</v>
+        <v>3104.605668720307</v>
       </c>
       <c r="U23" t="n">
-        <v>2918.975550003637</v>
+        <v>3104.605668720307</v>
       </c>
       <c r="V23" t="n">
-        <v>2918.975550003637</v>
+        <v>3104.605668720307</v>
       </c>
       <c r="W23" t="n">
-        <v>2856.515829117321</v>
+        <v>3104.605668720307</v>
       </c>
       <c r="X23" t="n">
-        <v>2856.515829117321</v>
+        <v>3104.605668720307</v>
       </c>
       <c r="Y23" t="n">
-        <v>2466.376497141509</v>
+        <v>2714.466336744495</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>117.8115633461595</v>
       </c>
       <c r="I24" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="J24" t="n">
-        <v>63.30314752916315</v>
+        <v>142.4895291417266</v>
       </c>
       <c r="K24" t="n">
-        <v>170.5490996536032</v>
+        <v>170.549099653603</v>
       </c>
       <c r="L24" t="n">
-        <v>621.7331379784758</v>
+        <v>621.7331379784757</v>
       </c>
       <c r="M24" t="n">
         <v>1200.222851367654</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.3559698694058</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="C25" t="n">
-        <v>213.4197869414989</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="D25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="E25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="F25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="G25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="H25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="I25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="J25" t="n">
-        <v>63.30314752916315</v>
+        <v>63.30314752916316</v>
       </c>
       <c r="K25" t="n">
-        <v>140.4957295815061</v>
+        <v>140.4957295815062</v>
       </c>
       <c r="L25" t="n">
         <v>294.8020927356433</v>
@@ -6157,40 +6157,40 @@
         <v>467.8856404276082</v>
       </c>
       <c r="N25" t="n">
-        <v>642.2882646380622</v>
+        <v>642.2882646380623</v>
       </c>
       <c r="O25" t="n">
-        <v>787.3610204646334</v>
+        <v>787.3610204646336</v>
       </c>
       <c r="P25" t="n">
-        <v>887.9751429383959</v>
+        <v>887.9751429383963</v>
       </c>
       <c r="Q25" t="n">
-        <v>887.9751429383959</v>
+        <v>887.9751429383963</v>
       </c>
       <c r="R25" t="n">
-        <v>887.9751429383959</v>
+        <v>748.0774481352705</v>
       </c>
       <c r="S25" t="n">
-        <v>887.9751429383959</v>
+        <v>748.0774481352705</v>
       </c>
       <c r="T25" t="n">
-        <v>887.9751429383959</v>
+        <v>573.5128967096539</v>
       </c>
       <c r="U25" t="n">
-        <v>784.7970138431756</v>
+        <v>573.5128967096539</v>
       </c>
       <c r="V25" t="n">
-        <v>784.7970138431756</v>
+        <v>573.5128967096539</v>
       </c>
       <c r="W25" t="n">
-        <v>784.7970138431756</v>
+        <v>284.0957266726933</v>
       </c>
       <c r="X25" t="n">
-        <v>784.7970138431756</v>
+        <v>284.0957266726933</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.0044346996455</v>
+        <v>63.30314752916316</v>
       </c>
     </row>
     <row r="26">
@@ -6218,31 +6218,31 @@
         <v>385.7294248768486</v>
       </c>
       <c r="H26" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="I26" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J26" t="n">
-        <v>212.5128078707445</v>
+        <v>184.0986807623873</v>
       </c>
       <c r="K26" t="n">
-        <v>557.7533043752021</v>
+        <v>529.3391772668449</v>
       </c>
       <c r="L26" t="n">
-        <v>1038.331296084183</v>
+        <v>1009.917168975826</v>
       </c>
       <c r="M26" t="n">
-        <v>1589.673454799046</v>
+        <v>1561.259327690689</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.304908506583</v>
+        <v>2106.890781398226</v>
       </c>
       <c r="O26" t="n">
-        <v>2605.341580125536</v>
+        <v>2576.927453017179</v>
       </c>
       <c r="P26" t="n">
-        <v>2968.832621762043</v>
+        <v>2940.418494653686</v>
       </c>
       <c r="Q26" t="n">
         <v>3136.163369204732</v>
@@ -6254,16 +6254,16 @@
         <v>3136.163369204732</v>
       </c>
       <c r="T26" t="n">
-        <v>2919.319053180614</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="U26" t="n">
-        <v>2919.319053180614</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="V26" t="n">
-        <v>2919.319053180614</v>
+        <v>3066.655111869541</v>
       </c>
       <c r="W26" t="n">
-        <v>2919.319053180614</v>
+        <v>2713.886456599427</v>
       </c>
       <c r="X26" t="n">
         <v>2713.886456599427</v>
@@ -6291,37 +6291,37 @@
         <v>504.7868839188127</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2523259456977</v>
+        <v>358.2523259456976</v>
       </c>
       <c r="G27" t="n">
-        <v>220.5610415013442</v>
+        <v>220.5610415013441</v>
       </c>
       <c r="H27" t="n">
         <v>117.231683201091</v>
       </c>
       <c r="I27" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J27" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K27" t="n">
-        <v>169.969219508534</v>
+        <v>352.6034225384238</v>
       </c>
       <c r="L27" t="n">
-        <v>621.1532578334067</v>
+        <v>803.7874608632965</v>
       </c>
       <c r="M27" t="n">
-        <v>1199.642971222584</v>
+        <v>1382.277174252474</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.150599362766</v>
+        <v>1991.784802392656</v>
       </c>
       <c r="O27" t="n">
-        <v>2300.315323879392</v>
+        <v>2482.949526909282</v>
       </c>
       <c r="P27" t="n">
-        <v>2677.515249473596</v>
+        <v>2544.871311549948</v>
       </c>
       <c r="Q27" t="n">
         <v>2677.515249473596</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="C28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="D28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="E28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="F28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="G28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="H28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="I28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J28" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K28" t="n">
         <v>139.9158494364376</v>
@@ -6394,40 +6394,40 @@
         <v>467.3057602825397</v>
       </c>
       <c r="N28" t="n">
-        <v>641.7083844929937</v>
+        <v>641.7083844929938</v>
       </c>
       <c r="O28" t="n">
-        <v>786.7811403195649</v>
+        <v>786.7811403195651</v>
       </c>
       <c r="P28" t="n">
-        <v>887.3952627933274</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="Q28" t="n">
-        <v>887.3952627933274</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="R28" t="n">
-        <v>887.3952627933274</v>
+        <v>791.2212292257225</v>
       </c>
       <c r="S28" t="n">
-        <v>887.3952627933274</v>
+        <v>580.1299883190726</v>
       </c>
       <c r="T28" t="n">
-        <v>887.3952627933274</v>
+        <v>580.1299883190726</v>
       </c>
       <c r="U28" t="n">
-        <v>887.3952627933274</v>
+        <v>580.1299883190726</v>
       </c>
       <c r="V28" t="n">
-        <v>887.3952627933274</v>
+        <v>580.1299883190726</v>
       </c>
       <c r="W28" t="n">
-        <v>693.1538622558818</v>
+        <v>290.712818282112</v>
       </c>
       <c r="X28" t="n">
-        <v>465.1643113578644</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.3717322143343</v>
+        <v>62.72326738409463</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1055.945069835514</v>
+        <v>2019.789623697726</v>
       </c>
       <c r="C29" t="n">
-        <v>686.9825528951021</v>
+        <v>1650.827106757314</v>
       </c>
       <c r="D29" t="n">
-        <v>473.7091721737022</v>
+        <v>1650.827106757314</v>
       </c>
       <c r="E29" t="n">
-        <v>473.7091721737022</v>
+        <v>1351.968561385156</v>
       </c>
       <c r="F29" t="n">
-        <v>62.72326738409465</v>
+        <v>940.9826565955485</v>
       </c>
       <c r="G29" t="n">
-        <v>62.72326738409465</v>
+        <v>523.4278378721065</v>
       </c>
       <c r="H29" t="n">
-        <v>62.72326738409465</v>
+        <v>200.4216803793526</v>
       </c>
       <c r="I29" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J29" t="n">
         <v>212.5128078707445</v>
@@ -6473,10 +6473,10 @@
         <v>1589.673454799046</v>
       </c>
       <c r="N29" t="n">
-        <v>2106.890781398226</v>
+        <v>2135.304908506583</v>
       </c>
       <c r="O29" t="n">
-        <v>2576.927453017179</v>
+        <v>2605.341580125536</v>
       </c>
       <c r="P29" t="n">
         <v>2940.418494653686</v>
@@ -6485,28 +6485,28 @@
         <v>3136.163369204732</v>
       </c>
       <c r="R29" t="n">
-        <v>3106.82585877433</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="S29" t="n">
-        <v>3106.82585877433</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="T29" t="n">
-        <v>2889.981542750212</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="U29" t="n">
-        <v>2889.981542750212</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="V29" t="n">
-        <v>2558.918655406641</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="W29" t="n">
-        <v>2206.150000136527</v>
+        <v>2783.394713934617</v>
       </c>
       <c r="X29" t="n">
-        <v>1832.684241875447</v>
+        <v>2409.928955673538</v>
       </c>
       <c r="Y29" t="n">
-        <v>1442.544909899636</v>
+        <v>2019.789623697726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.7868839188127</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2523259456977</v>
+        <v>358.2523259456976</v>
       </c>
       <c r="G30" t="n">
-        <v>220.5610415013442</v>
+        <v>220.5610415013441</v>
       </c>
       <c r="H30" t="n">
         <v>117.231683201091</v>
       </c>
       <c r="I30" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J30" t="n">
-        <v>158.2435118538582</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K30" t="n">
-        <v>337.6507697335261</v>
+        <v>285.7969688366391</v>
       </c>
       <c r="L30" t="n">
-        <v>421.7028662079742</v>
+        <v>736.9810071615118</v>
       </c>
       <c r="M30" t="n">
-        <v>1000.192579597152</v>
+        <v>1315.47072055069</v>
       </c>
       <c r="N30" t="n">
-        <v>1609.700207737333</v>
+        <v>1924.978348690871</v>
       </c>
       <c r="O30" t="n">
-        <v>2100.86493225396</v>
+        <v>2416.143073207497</v>
       </c>
       <c r="P30" t="n">
         <v>2478.064857848163</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2954.514904374492</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="C31" t="n">
-        <v>2785.578721446585</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="D31" t="n">
-        <v>2635.46208203425</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="E31" t="n">
-        <v>2487.548988451857</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="F31" t="n">
-        <v>2340.659040953946</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="G31" t="n">
-        <v>2340.659040953946</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="H31" t="n">
         <v>2311.491373795499</v>
@@ -6625,7 +6625,7 @@
         <v>2388.683955847842</v>
       </c>
       <c r="L31" t="n">
-        <v>2542.99031900198</v>
+        <v>2542.990319001979</v>
       </c>
       <c r="M31" t="n">
         <v>2716.073866693944</v>
@@ -6634,7 +6634,7 @@
         <v>2890.476490904398</v>
       </c>
       <c r="O31" t="n">
-        <v>3035.54924673097</v>
+        <v>3035.549246730969</v>
       </c>
       <c r="P31" t="n">
         <v>3136.163369204732</v>
@@ -6646,25 +6646,25 @@
         <v>3136.163369204732</v>
       </c>
       <c r="S31" t="n">
-        <v>3136.163369204732</v>
+        <v>2925.072128298082</v>
       </c>
       <c r="T31" t="n">
-        <v>3136.163369204732</v>
+        <v>2698.547809338795</v>
       </c>
       <c r="U31" t="n">
-        <v>3136.163369204732</v>
+        <v>2409.384205823645</v>
       </c>
       <c r="V31" t="n">
-        <v>3136.163369204732</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="W31" t="n">
-        <v>3136.163369204732</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="X31" t="n">
-        <v>3136.163369204732</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="Y31" t="n">
-        <v>3136.163369204732</v>
+        <v>2311.491373795499</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6674,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>891.2639908971443</v>
+        <v>2327.286616535305</v>
       </c>
       <c r="C32" t="n">
-        <v>891.2639908971443</v>
+        <v>1958.324099594893</v>
       </c>
       <c r="D32" t="n">
-        <v>891.2639908971443</v>
+        <v>1600.058400988142</v>
       </c>
       <c r="E32" t="n">
-        <v>891.2639908971443</v>
+        <v>1214.270148389898</v>
       </c>
       <c r="F32" t="n">
-        <v>480.2780861075367</v>
+        <v>803.2842436002907</v>
       </c>
       <c r="G32" t="n">
-        <v>62.72326738409465</v>
+        <v>385.7294248768486</v>
       </c>
       <c r="H32" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="I32" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J32" t="n">
-        <v>212.5128078707445</v>
+        <v>184.0986807623873</v>
       </c>
       <c r="K32" t="n">
-        <v>557.7533043752021</v>
+        <v>529.3391772668449</v>
       </c>
       <c r="L32" t="n">
-        <v>1038.331296084183</v>
+        <v>1009.917168975826</v>
       </c>
       <c r="M32" t="n">
-        <v>1589.673454799046</v>
+        <v>1561.259327690689</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.304908506583</v>
+        <v>2106.890781398226</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.341580125536</v>
+        <v>2576.927453017179</v>
       </c>
       <c r="P32" t="n">
-        <v>2968.832621762043</v>
+        <v>2940.418494653686</v>
       </c>
       <c r="Q32" t="n">
         <v>3136.163369204732</v>
@@ -6725,25 +6725,25 @@
         <v>3136.163369204732</v>
       </c>
       <c r="S32" t="n">
-        <v>2969.305726978534</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="T32" t="n">
-        <v>2752.461410954416</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="U32" t="n">
-        <v>2498.732344742778</v>
+        <v>2882.434302993093</v>
       </c>
       <c r="V32" t="n">
-        <v>2394.237576468272</v>
+        <v>2882.434302993093</v>
       </c>
       <c r="W32" t="n">
-        <v>2041.468921198158</v>
+        <v>2882.434302993093</v>
       </c>
       <c r="X32" t="n">
-        <v>1668.003162937078</v>
+        <v>2882.434302993093</v>
       </c>
       <c r="Y32" t="n">
-        <v>1277.863830961266</v>
+        <v>2713.886456599427</v>
       </c>
     </row>
     <row r="33">
@@ -6765,34 +6765,34 @@
         <v>504.7868839188127</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2523259456977</v>
+        <v>358.2523259456976</v>
       </c>
       <c r="G33" t="n">
-        <v>220.5610415013442</v>
+        <v>220.5610415013441</v>
       </c>
       <c r="H33" t="n">
         <v>117.231683201091</v>
       </c>
       <c r="I33" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J33" t="n">
-        <v>155.1876233288904</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K33" t="n">
-        <v>445.0677784832196</v>
+        <v>352.6034225384238</v>
       </c>
       <c r="L33" t="n">
-        <v>896.2518168080923</v>
+        <v>436.655519012872</v>
       </c>
       <c r="M33" t="n">
-        <v>1474.74153019727</v>
+        <v>1015.14523240205</v>
       </c>
       <c r="N33" t="n">
-        <v>1609.700207737333</v>
+        <v>1624.652860542231</v>
       </c>
       <c r="O33" t="n">
-        <v>2100.86493225396</v>
+        <v>2115.817585058858</v>
       </c>
       <c r="P33" t="n">
         <v>2478.064857848163</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>845.3954725111333</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="C34" t="n">
-        <v>676.4592895832265</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="D34" t="n">
-        <v>526.3426501708907</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="E34" t="n">
-        <v>378.4295565884975</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="F34" t="n">
-        <v>231.5396090905872</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="G34" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="H34" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="I34" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="J34" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="K34" t="n">
-        <v>139.9158494364376</v>
+        <v>2388.683955847842</v>
       </c>
       <c r="L34" t="n">
-        <v>294.2222125905748</v>
+        <v>2542.990319001979</v>
       </c>
       <c r="M34" t="n">
-        <v>467.3057602825397</v>
+        <v>2716.073866693944</v>
       </c>
       <c r="N34" t="n">
-        <v>641.7083844929937</v>
+        <v>2890.476490904398</v>
       </c>
       <c r="O34" t="n">
-        <v>786.7811403195649</v>
+        <v>3035.549246730969</v>
       </c>
       <c r="P34" t="n">
-        <v>887.3952627933274</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="Q34" t="n">
-        <v>887.3952627933274</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="R34" t="n">
-        <v>887.3952627933274</v>
+        <v>2996.265674401606</v>
       </c>
       <c r="S34" t="n">
-        <v>887.3952627933274</v>
+        <v>2828.644528208666</v>
       </c>
       <c r="T34" t="n">
-        <v>887.3952627933274</v>
+        <v>2828.644528208666</v>
       </c>
       <c r="U34" t="n">
-        <v>887.3952627933274</v>
+        <v>2539.480924693516</v>
       </c>
       <c r="V34" t="n">
-        <v>887.3952627933274</v>
+        <v>2539.480924693516</v>
       </c>
       <c r="W34" t="n">
-        <v>887.3952627933274</v>
+        <v>2539.480924693516</v>
       </c>
       <c r="X34" t="n">
-        <v>887.3952627933274</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="Y34" t="n">
-        <v>887.3952627933274</v>
+        <v>2311.491373795499</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2106.719330923812</v>
+        <v>1351.968561385156</v>
       </c>
       <c r="C35" t="n">
-        <v>1737.7568139834</v>
+        <v>1351.968561385156</v>
       </c>
       <c r="D35" t="n">
-        <v>1737.7568139834</v>
+        <v>1351.968561385156</v>
       </c>
       <c r="E35" t="n">
         <v>1351.968561385156</v>
       </c>
       <c r="F35" t="n">
-        <v>940.9826565955486</v>
+        <v>940.9826565955485</v>
       </c>
       <c r="G35" t="n">
-        <v>523.4278378721066</v>
+        <v>523.4278378721065</v>
       </c>
       <c r="H35" t="n">
         <v>200.4216803793526</v>
       </c>
       <c r="I35" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J35" t="n">
-        <v>212.5128078707445</v>
+        <v>184.0986807623873</v>
       </c>
       <c r="K35" t="n">
-        <v>557.7533043752021</v>
+        <v>529.3391772668449</v>
       </c>
       <c r="L35" t="n">
-        <v>1038.331296084183</v>
+        <v>1009.917168975826</v>
       </c>
       <c r="M35" t="n">
-        <v>1589.673454799046</v>
+        <v>1561.259327690689</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.304908506583</v>
+        <v>2106.890781398226</v>
       </c>
       <c r="O35" t="n">
         <v>2576.927453017179</v>
@@ -6959,28 +6959,28 @@
         <v>3136.163369204732</v>
       </c>
       <c r="R35" t="n">
-        <v>3136.163369204732</v>
+        <v>3106.825858774329</v>
       </c>
       <c r="S35" t="n">
-        <v>2969.305726978534</v>
+        <v>2939.968216548131</v>
       </c>
       <c r="T35" t="n">
-        <v>2969.305726978534</v>
+        <v>2723.123900524014</v>
       </c>
       <c r="U35" t="n">
-        <v>2715.576660766895</v>
+        <v>2469.394834312375</v>
       </c>
       <c r="V35" t="n">
-        <v>2496.858662899624</v>
+        <v>2468.342306892162</v>
       </c>
       <c r="W35" t="n">
-        <v>2496.858662899624</v>
+        <v>2115.573651622048</v>
       </c>
       <c r="X35" t="n">
-        <v>2496.858662899624</v>
+        <v>1742.107893360968</v>
       </c>
       <c r="Y35" t="n">
-        <v>2106.719330923812</v>
+        <v>1351.968561385156</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1446.059897597783</v>
+        <v>987.4117778666465</v>
       </c>
       <c r="C36" t="n">
-        <v>1271.606868316656</v>
+        <v>812.9587485855195</v>
       </c>
       <c r="D36" t="n">
-        <v>1122.672458655404</v>
+        <v>664.0243389242682</v>
       </c>
       <c r="E36" t="n">
-        <v>963.4350036499488</v>
+        <v>504.7868839188127</v>
       </c>
       <c r="F36" t="n">
-        <v>816.9004456768338</v>
+        <v>358.2523259456976</v>
       </c>
       <c r="G36" t="n">
-        <v>679.2091612324803</v>
+        <v>220.5610415013441</v>
       </c>
       <c r="H36" t="n">
-        <v>575.8798029322271</v>
+        <v>117.231683201091</v>
       </c>
       <c r="I36" t="n">
-        <v>521.3713871152307</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J36" t="n">
-        <v>521.3713871152307</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K36" t="n">
-        <v>811.2515422695599</v>
+        <v>352.6034225384238</v>
       </c>
       <c r="L36" t="n">
-        <v>895.3036387440079</v>
+        <v>803.7874608632965</v>
       </c>
       <c r="M36" t="n">
-        <v>1473.793352133186</v>
+        <v>1382.277174252474</v>
       </c>
       <c r="N36" t="n">
-        <v>2083.300980273367</v>
+        <v>1609.700207737333</v>
       </c>
       <c r="O36" t="n">
-        <v>2574.465704789993</v>
+        <v>2100.86493225396</v>
       </c>
       <c r="P36" t="n">
-        <v>2951.665630384196</v>
+        <v>2478.064857848163</v>
       </c>
       <c r="Q36" t="n">
-        <v>3136.163369204732</v>
+        <v>2677.515249473596</v>
       </c>
       <c r="R36" t="n">
-        <v>3099.53656789019</v>
+        <v>2640.888448159053</v>
       </c>
       <c r="S36" t="n">
-        <v>2945.428240975886</v>
+        <v>2486.780121244749</v>
       </c>
       <c r="T36" t="n">
-        <v>2747.431725958404</v>
+        <v>2288.783606227268</v>
       </c>
       <c r="U36" t="n">
-        <v>2519.276498548282</v>
+        <v>2060.628378817145</v>
       </c>
       <c r="V36" t="n">
-        <v>2284.124390316539</v>
+        <v>1825.476270585403</v>
       </c>
       <c r="W36" t="n">
-        <v>2029.887033588338</v>
+        <v>1571.238913857201</v>
       </c>
       <c r="X36" t="n">
-        <v>1822.035533382805</v>
+        <v>1363.387413651668</v>
       </c>
       <c r="Y36" t="n">
-        <v>1614.275234617851</v>
+        <v>1155.627114886714</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>401.6431706098768</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="C37" t="n">
-        <v>401.6431706098768</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="D37" t="n">
-        <v>251.5265311975411</v>
+        <v>845.9577257900603</v>
       </c>
       <c r="E37" t="n">
-        <v>251.5265311975411</v>
+        <v>698.0446322076672</v>
       </c>
       <c r="F37" t="n">
-        <v>251.5265311975411</v>
+        <v>551.1546847097568</v>
       </c>
       <c r="G37" t="n">
-        <v>251.5265311975411</v>
+        <v>382.3383430032643</v>
       </c>
       <c r="H37" t="n">
-        <v>95.40927196608244</v>
+        <v>226.2210837718056</v>
       </c>
       <c r="I37" t="n">
-        <v>95.40927196608244</v>
+        <v>95.40927196608243</v>
       </c>
       <c r="J37" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K37" t="n">
         <v>139.9158494364376</v>
@@ -7105,40 +7105,40 @@
         <v>467.3057602825397</v>
       </c>
       <c r="N37" t="n">
-        <v>641.7083844929937</v>
+        <v>641.7083844929938</v>
       </c>
       <c r="O37" t="n">
-        <v>786.7811403195649</v>
+        <v>786.7811403195651</v>
       </c>
       <c r="P37" t="n">
-        <v>887.3952627933274</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="Q37" t="n">
-        <v>887.3952627933274</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="R37" t="n">
-        <v>809.8159543994032</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="S37" t="n">
-        <v>809.8159543994032</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="T37" t="n">
-        <v>583.2916354401166</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="U37" t="n">
-        <v>583.2916354401166</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="V37" t="n">
-        <v>583.2916354401166</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="W37" t="n">
-        <v>583.2916354401166</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="X37" t="n">
-        <v>583.2916354401166</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.2916354401166</v>
+        <v>887.3952627933278</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1551.466099205112</v>
+        <v>889.0874276093155</v>
       </c>
       <c r="C38" t="n">
-        <v>1182.503582264701</v>
+        <v>889.0874276093155</v>
       </c>
       <c r="D38" t="n">
-        <v>1182.503582264701</v>
+        <v>530.821729002565</v>
       </c>
       <c r="E38" t="n">
-        <v>796.7153296664562</v>
+        <v>530.821729002565</v>
       </c>
       <c r="F38" t="n">
-        <v>385.7294248768486</v>
+        <v>119.8358242129574</v>
       </c>
       <c r="G38" t="n">
-        <v>385.7294248768486</v>
+        <v>119.8358242129574</v>
       </c>
       <c r="H38" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="I38" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J38" t="n">
-        <v>184.0986807623879</v>
+        <v>212.5128078707445</v>
       </c>
       <c r="K38" t="n">
-        <v>529.3391772668455</v>
+        <v>557.7533043752021</v>
       </c>
       <c r="L38" t="n">
-        <v>1009.917168975827</v>
+        <v>1009.917168975826</v>
       </c>
       <c r="M38" t="n">
-        <v>1561.25932769069</v>
+        <v>1561.259327690689</v>
       </c>
       <c r="N38" t="n">
         <v>2106.890781398226</v>
@@ -7196,28 +7196,28 @@
         <v>3136.163369204732</v>
       </c>
       <c r="R38" t="n">
-        <v>3106.82585877433</v>
+        <v>3106.825858774329</v>
       </c>
       <c r="S38" t="n">
-        <v>2939.968216548132</v>
+        <v>2939.968216548131</v>
       </c>
       <c r="T38" t="n">
         <v>2723.123900524014</v>
       </c>
       <c r="U38" t="n">
-        <v>2701.671029506126</v>
+        <v>2723.123900524014</v>
       </c>
       <c r="V38" t="n">
-        <v>2701.671029506126</v>
+        <v>2392.061013180443</v>
       </c>
       <c r="W38" t="n">
-        <v>2701.671029506126</v>
+        <v>2039.292357910329</v>
       </c>
       <c r="X38" t="n">
-        <v>2328.205271245046</v>
+        <v>1665.826599649249</v>
       </c>
       <c r="Y38" t="n">
-        <v>1938.065939269234</v>
+        <v>1275.687267673437</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.7868839188127</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2523259456977</v>
+        <v>358.2523259456976</v>
       </c>
       <c r="G39" t="n">
-        <v>220.5610415013442</v>
+        <v>220.5610415013441</v>
       </c>
       <c r="H39" t="n">
         <v>117.231683201091</v>
       </c>
       <c r="I39" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J39" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K39" t="n">
-        <v>352.6034225384238</v>
+        <v>90.78283789597104</v>
       </c>
       <c r="L39" t="n">
-        <v>803.7874608632965</v>
+        <v>421.7028662079741</v>
       </c>
       <c r="M39" t="n">
-        <v>1382.277174252474</v>
+        <v>1000.192579597152</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.150599362766</v>
+        <v>1609.700207737333</v>
       </c>
       <c r="O39" t="n">
-        <v>2300.315323879392</v>
+        <v>2100.86493225396</v>
       </c>
       <c r="P39" t="n">
-        <v>2677.515249473596</v>
+        <v>2478.064857848163</v>
       </c>
       <c r="Q39" t="n">
         <v>2677.515249473596</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>231.6594503120016</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="C40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="D40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="E40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="F40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="G40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="H40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="I40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="J40" t="n">
-        <v>62.72326738409465</v>
+        <v>2311.491373795499</v>
       </c>
       <c r="K40" t="n">
-        <v>139.9158494364376</v>
+        <v>2388.683955847842</v>
       </c>
       <c r="L40" t="n">
-        <v>294.2222125905748</v>
+        <v>2542.990319001979</v>
       </c>
       <c r="M40" t="n">
-        <v>467.3057602825397</v>
+        <v>2716.073866693944</v>
       </c>
       <c r="N40" t="n">
-        <v>641.7083844929937</v>
+        <v>2890.476490904398</v>
       </c>
       <c r="O40" t="n">
-        <v>786.7811403195649</v>
+        <v>3035.549246730969</v>
       </c>
       <c r="P40" t="n">
-        <v>887.3952627933274</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="Q40" t="n">
-        <v>873.3404959352914</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="R40" t="n">
-        <v>873.3404959352914</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="S40" t="n">
-        <v>873.3404959352914</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="T40" t="n">
-        <v>646.8161769760048</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="U40" t="n">
-        <v>357.652573460855</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="V40" t="n">
-        <v>357.652573460855</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="W40" t="n">
-        <v>357.652573460855</v>
+        <v>2846.746199167771</v>
       </c>
       <c r="X40" t="n">
-        <v>357.652573460855</v>
+        <v>2618.756648269754</v>
       </c>
       <c r="Y40" t="n">
-        <v>357.652573460855</v>
+        <v>2493.139838625739</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1260.226507837556</v>
+        <v>1438.537162054206</v>
       </c>
       <c r="C41" t="n">
-        <v>891.2639908971443</v>
+        <v>1069.574645113795</v>
       </c>
       <c r="D41" t="n">
-        <v>891.2639908971443</v>
+        <v>711.3089465070441</v>
       </c>
       <c r="E41" t="n">
-        <v>891.2639908971443</v>
+        <v>325.5206939087998</v>
       </c>
       <c r="F41" t="n">
-        <v>480.2780861075367</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="G41" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="H41" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="I41" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J41" t="n">
         <v>212.5128078707445</v>
@@ -7415,10 +7415,10 @@
         <v>557.7533043752021</v>
       </c>
       <c r="L41" t="n">
-        <v>1038.331296084183</v>
+        <v>1009.917168975826</v>
       </c>
       <c r="M41" t="n">
-        <v>1589.673454799046</v>
+        <v>1561.259327690689</v>
       </c>
       <c r="N41" t="n">
         <v>2106.890781398226</v>
@@ -7433,28 +7433,28 @@
         <v>3136.163369204732</v>
       </c>
       <c r="R41" t="n">
-        <v>3106.82585877433</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="S41" t="n">
-        <v>3106.82585877433</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="T41" t="n">
-        <v>2889.981542750212</v>
+        <v>3136.163369204732</v>
       </c>
       <c r="U41" t="n">
-        <v>2636.252476538573</v>
+        <v>2882.434302993093</v>
       </c>
       <c r="V41" t="n">
-        <v>2305.189589195003</v>
+        <v>2551.371415649522</v>
       </c>
       <c r="W41" t="n">
-        <v>1952.420933924888</v>
+        <v>2198.602760379408</v>
       </c>
       <c r="X41" t="n">
-        <v>1578.955175663809</v>
+        <v>1825.137002118328</v>
       </c>
       <c r="Y41" t="n">
-        <v>1260.226507837556</v>
+        <v>1825.137002118328</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7476,37 @@
         <v>504.7868839188127</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2523259456977</v>
+        <v>358.2523259456976</v>
       </c>
       <c r="G42" t="n">
-        <v>220.5610415013442</v>
+        <v>220.5610415013441</v>
       </c>
       <c r="H42" t="n">
         <v>117.231683201091</v>
       </c>
       <c r="I42" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J42" t="n">
-        <v>62.72326738409465</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K42" t="n">
-        <v>352.6034225384238</v>
+        <v>169.9692195085339</v>
       </c>
       <c r="L42" t="n">
-        <v>803.7874608632965</v>
+        <v>621.1532578334065</v>
       </c>
       <c r="M42" t="n">
-        <v>1382.277174252474</v>
+        <v>1199.642971222584</v>
       </c>
       <c r="N42" t="n">
-        <v>1609.700207737333</v>
+        <v>1809.150599362766</v>
       </c>
       <c r="O42" t="n">
-        <v>2100.86493225396</v>
+        <v>2300.315323879392</v>
       </c>
       <c r="P42" t="n">
-        <v>2478.064857848163</v>
+        <v>2677.515249473596</v>
       </c>
       <c r="Q42" t="n">
         <v>2677.515249473596</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2630.424354914328</v>
+        <v>195.7906153044081</v>
       </c>
       <c r="C43" t="n">
-        <v>2630.424354914328</v>
+        <v>195.7906153044081</v>
       </c>
       <c r="D43" t="n">
-        <v>2480.307715501992</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="E43" t="n">
-        <v>2480.307715501992</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="F43" t="n">
-        <v>2480.307715501992</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="G43" t="n">
-        <v>2311.491373795499</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="H43" t="n">
-        <v>2311.491373795499</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="I43" t="n">
-        <v>2311.491373795499</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="J43" t="n">
-        <v>2311.491373795499</v>
+        <v>62.72326738409463</v>
       </c>
       <c r="K43" t="n">
-        <v>2388.683955847842</v>
+        <v>139.9158494364376</v>
       </c>
       <c r="L43" t="n">
-        <v>2542.99031900198</v>
+        <v>294.2222125905748</v>
       </c>
       <c r="M43" t="n">
-        <v>2716.073866693944</v>
+        <v>467.3057602825397</v>
       </c>
       <c r="N43" t="n">
-        <v>2890.476490904398</v>
+        <v>641.7083844929938</v>
       </c>
       <c r="O43" t="n">
-        <v>3035.54924673097</v>
+        <v>786.7811403195651</v>
       </c>
       <c r="P43" t="n">
-        <v>3136.163369204732</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="Q43" t="n">
-        <v>3136.163369204732</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="R43" t="n">
-        <v>3136.163369204732</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="S43" t="n">
-        <v>3136.163369204732</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="T43" t="n">
-        <v>3136.163369204732</v>
+        <v>887.3952627933278</v>
       </c>
       <c r="U43" t="n">
-        <v>3136.163369204732</v>
+        <v>598.231659278178</v>
       </c>
       <c r="V43" t="n">
-        <v>3136.163369204732</v>
+        <v>598.231659278178</v>
       </c>
       <c r="W43" t="n">
-        <v>2858.413905812345</v>
+        <v>598.231659278178</v>
       </c>
       <c r="X43" t="n">
-        <v>2630.424354914328</v>
+        <v>598.231659278178</v>
       </c>
       <c r="Y43" t="n">
-        <v>2630.424354914328</v>
+        <v>377.4390801346478</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1342.608395676358</v>
+        <v>1608.349335082822</v>
       </c>
       <c r="C44" t="n">
-        <v>1342.608395676358</v>
+        <v>1608.349335082822</v>
       </c>
       <c r="D44" t="n">
-        <v>1342.608395676358</v>
+        <v>1590.698235279344</v>
       </c>
       <c r="E44" t="n">
-        <v>1342.608395676358</v>
+        <v>1204.9099826811</v>
       </c>
       <c r="F44" t="n">
-        <v>931.6224908867499</v>
+        <v>793.9240778914919</v>
       </c>
       <c r="G44" t="n">
-        <v>514.0676721633079</v>
+        <v>376.3692591680499</v>
       </c>
       <c r="H44" t="n">
-        <v>191.0615146705539</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="I44" t="n">
         <v>53.36310167529594</v>
       </c>
       <c r="J44" t="n">
-        <v>203.1526421619458</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="K44" t="n">
-        <v>548.3931386664035</v>
+        <v>398.6035981797535</v>
       </c>
       <c r="L44" t="n">
-        <v>1028.971130375385</v>
+        <v>879.1815898887348</v>
       </c>
       <c r="M44" t="n">
-        <v>1470.243221700872</v>
+        <v>1430.523748603598</v>
       </c>
       <c r="N44" t="n">
-        <v>2015.874675408409</v>
+        <v>1976.155202311134</v>
       </c>
       <c r="O44" t="n">
-        <v>2108.919167577244</v>
+        <v>2446.191873930087</v>
       </c>
       <c r="P44" t="n">
-        <v>2472.410209213751</v>
+        <v>2668.155083764797</v>
       </c>
       <c r="Q44" t="n">
         <v>2668.155083764797</v>
@@ -7682,16 +7682,16 @@
         <v>2385.088507122756</v>
       </c>
       <c r="V44" t="n">
-        <v>2119.347567716291</v>
+        <v>2385.088507122756</v>
       </c>
       <c r="W44" t="n">
-        <v>2119.347567716291</v>
+        <v>2385.088507122756</v>
       </c>
       <c r="X44" t="n">
-        <v>2119.347567716291</v>
+        <v>2385.088507122756</v>
       </c>
       <c r="Y44" t="n">
-        <v>1729.208235740479</v>
+        <v>1994.949175146944</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>53.36310167529594</v>
       </c>
       <c r="K45" t="n">
-        <v>81.42267218717234</v>
+        <v>276.4368031278403</v>
       </c>
       <c r="L45" t="n">
-        <v>532.606710512045</v>
+        <v>727.620841452713</v>
       </c>
       <c r="M45" t="n">
-        <v>1111.096423901223</v>
+        <v>1306.110554841891</v>
       </c>
       <c r="N45" t="n">
-        <v>1720.604052041404</v>
+        <v>1915.618182982072</v>
       </c>
       <c r="O45" t="n">
-        <v>2211.76877655803</v>
+        <v>2406.782907498698</v>
       </c>
       <c r="P45" t="n">
-        <v>2588.968702152234</v>
+        <v>2468.704692139364</v>
       </c>
       <c r="Q45" t="n">
         <v>2668.155083764797</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="C46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="D46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="E46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="F46" t="n">
-        <v>2331.914505681226</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="G46" t="n">
-        <v>2163.098163974734</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="H46" t="n">
-        <v>2006.980904743275</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="I46" t="n">
-        <v>1876.169092937552</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="J46" t="n">
-        <v>1843.483088355564</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="K46" t="n">
-        <v>1920.675670407907</v>
+        <v>130.555683727639</v>
       </c>
       <c r="L46" t="n">
-        <v>2074.982033562044</v>
+        <v>284.8620468817761</v>
       </c>
       <c r="M46" t="n">
-        <v>2248.065581254009</v>
+        <v>457.945594573741</v>
       </c>
       <c r="N46" t="n">
-        <v>2422.468205464463</v>
+        <v>632.3482187841951</v>
       </c>
       <c r="O46" t="n">
-        <v>2567.540961291034</v>
+        <v>777.4209746107664</v>
       </c>
       <c r="P46" t="n">
-        <v>2668.155083764797</v>
+        <v>878.0350970845291</v>
       </c>
       <c r="Q46" t="n">
-        <v>2654.100316906761</v>
+        <v>878.0350970845291</v>
       </c>
       <c r="R46" t="n">
-        <v>2514.202622103635</v>
+        <v>878.0350970845291</v>
       </c>
       <c r="S46" t="n">
-        <v>2514.202622103635</v>
+        <v>878.0350970845291</v>
       </c>
       <c r="T46" t="n">
-        <v>2478.804453179137</v>
+        <v>878.0350970845291</v>
       </c>
       <c r="U46" t="n">
-        <v>2478.804453179137</v>
+        <v>597.4647599181434</v>
       </c>
       <c r="V46" t="n">
-        <v>2478.804453179137</v>
+        <v>342.7802717122565</v>
       </c>
       <c r="W46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="X46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
       <c r="Y46" t="n">
-        <v>2478.804453179137</v>
+        <v>53.36310167529594</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>241.6646648125598</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8702,13 +8702,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>56.23987465623964</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.59289515379777</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.60593991640528</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>294.8633813840689</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>301.9639172690275</v>
       </c>
       <c r="Q12" t="n">
         <v>8.612245689957831</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>17.79404902394256</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>209.8891452040532</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8942,10 +8942,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>182.6631917212973</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.59289515379777</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>249.3615473106616</v>
       </c>
       <c r="L15" t="n">
-        <v>89.87625691997079</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.612245689957831</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,7 +9164,7 @@
         <v>17.79404902394256</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>209.8891452040532</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>207.5424408043709</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>14.59289515379777</v>
@@ -9243,10 +9243,10 @@
         <v>29.60593991640528</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>249.3615473106616</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.59602137041</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,19 +9480,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>175.8984258599288</v>
       </c>
       <c r="L21" t="n">
-        <v>354.1162786240801</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>29.60593991640529</v>
+        <v>109.5921839694997</v>
       </c>
       <c r="K24" t="n">
-        <v>79.98624405309461</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>140.3954766787836</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>183.6138521666152</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>29.60593991640529</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K27" t="n">
-        <v>79.98624405309391</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.612245689957831</v>
+        <v>142.59602137041</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10121,13 +10121,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>408.6457859186945</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>293.0975696781923</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K30" t="n">
-        <v>152.8764518866581</v>
+        <v>196.9839706471395</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>140.3954766787836</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.6138521666152</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>123.0042792545829</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>303.3590789380197</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>140.3954766787836</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>352.0990427694557</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>29.60593991640529</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>93.39833933817752</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.9735980339333</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>140.3954766787842</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>388.9600760571604</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>29.60593991640529</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>249.3615473106616</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>294.8633813840692</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.612245689957831</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,13 +11063,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>388.9600760571604</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>408.6457859186945</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>29.60593991640529</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>79.98624405309374</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11148,7 +11148,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>93.39833933817775</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>8.612245689957831</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>17.79404902394256</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,19 +11303,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>338.3316472409382</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>178.8413023110812</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>14.59289515379777</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>29.60593991640529</v>
+        <v>29.60593991640528</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>196.9839706471394</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.59848974305163</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22553,19 +22553,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>59.144334044066</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>299.0376357978552</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>16.61961677283622</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>111.9799311553898</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,13 +22747,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22784,25 +22784,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>309.2728333501972</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>82.85718120047547</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22999,7 +22999,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>117.4625229982545</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23024,16 +23024,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>170.1021609796518</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>62.54498204632074</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23075,13 +23075,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,7 +23185,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23221,10 +23221,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.74592769735781</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>324.3772073851869</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>101.2362318784619</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>214.6758728638764</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1917755495223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,28 +23416,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.1281782894276</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>122.5338916051232</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>129.5036936876659</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R13" t="n">
         <v>138.4987178550945</v>
@@ -23473,10 +23473,10 @@
         <v>286.2719674799983</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>164.43656830891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>230.2495685992918</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>165.189065803936</v>
       </c>
       <c r="T14" t="n">
-        <v>132.8535371121625</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1917755495223</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.1378786548487</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.1281782894276</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>154.5560866391441</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>129.5036936876659</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R16" t="n">
         <v>138.4987178550945</v>
       </c>
       <c r="S16" t="n">
-        <v>208.9803284975833</v>
+        <v>16.68134196551179</v>
       </c>
       <c r="T16" t="n">
         <v>224.2590757696937</v>
@@ -23716,10 +23716,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>103.3834872816245</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.3792705362076</v>
       </c>
       <c r="H17" t="n">
         <v>319.7760959178264</v>
@@ -23783,19 +23783,19 @@
         <v>165.189065803936</v>
       </c>
       <c r="T17" t="n">
-        <v>214.6758728638764</v>
+        <v>162.5980016613373</v>
       </c>
       <c r="U17" t="n">
         <v>251.1917755495223</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>167.1281782894276</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>154.5560866391441</v>
       </c>
       <c r="I19" t="n">
         <v>129.5036936876659</v>
@@ -23932,31 +23932,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R19" t="n">
         <v>138.4987178550945</v>
       </c>
       <c r="S19" t="n">
-        <v>208.9803284975833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>224.2590757696937</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2719674799983</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>155.2237396159625</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.4186248906512</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,22 +23972,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>96.04956754233939</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>175.2074051560547</v>
       </c>
       <c r="G20" t="n">
-        <v>413.3792705362076</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>319.7760959178264</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S20" t="n">
-        <v>165.189065803936</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.1281782894276</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>154.5560866391441</v>
       </c>
       <c r="I22" t="n">
-        <v>75.23316684880965</v>
+        <v>129.5036936876659</v>
       </c>
       <c r="J22" t="n">
         <v>32.35914453616791</v>
@@ -24181,10 +24181,10 @@
         <v>224.2590757696937</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2719674799983</v>
+        <v>34.65220447024464</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24224,7 +24224,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S23" t="n">
         <v>165.189065803936</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>154.7296822034041</v>
       </c>
       <c r="U23" t="n">
         <v>251.1917755495223</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>287.4058450399597</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24385,7 +24385,7 @@
         <v>129.5036936876659</v>
       </c>
       <c r="J25" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,25 +24406,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.91421918945569</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R25" t="n">
-        <v>138.4987178550945</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>208.9803284975833</v>
       </c>
       <c r="T25" t="n">
-        <v>224.2590757696937</v>
+        <v>51.44016985833326</v>
       </c>
       <c r="U25" t="n">
-        <v>184.1256196757301</v>
+        <v>286.2719674799983</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.3214288653054</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>29.04413532609821</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S26" t="n">
         <v>165.189065803936</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.6758728638764</v>
       </c>
       <c r="U26" t="n">
         <v>251.1917755495223</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>258.9390837082962</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>166.3528300630933</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24622,7 +24622,7 @@
         <v>129.5036936876659</v>
       </c>
       <c r="J28" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,13 +24643,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.91421918945569</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R28" t="n">
-        <v>138.4987178550945</v>
+        <v>43.28642462316527</v>
       </c>
       <c r="S28" t="n">
-        <v>208.9803284975833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>224.2590757696937</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>94.22401180451982</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>143.542394706497</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>86.06041015382539</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.3792705362076</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>319.7760959178264</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.3214288653054</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S29" t="n">
         <v>165.189065803936</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>214.6758728638764</v>
       </c>
       <c r="U29" t="n">
         <v>251.1917755495223</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,31 +24835,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.1281782894276</v>
       </c>
       <c r="H31" t="n">
-        <v>125.6800961522817</v>
+        <v>154.5560866391441</v>
       </c>
       <c r="I31" t="n">
         <v>129.5036936876659</v>
       </c>
       <c r="J31" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24880,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.91421918945569</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R31" t="n">
         <v>138.4987178550945</v>
       </c>
       <c r="S31" t="n">
-        <v>208.9803284975833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>224.2590757696937</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2719674799983</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>155.2237396159633</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,13 +24917,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24932,10 +24932,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>319.7760959178264</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>136.3214288653054</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>29.04413532609821</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>165.189065803936</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.6758728638764</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>224.3024378783744</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>219.3755707263242</v>
       </c>
     </row>
     <row r="33">
@@ -25072,22 +25072,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.2521878025651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.1281782894276</v>
       </c>
       <c r="H34" t="n">
         <v>154.5560866391441</v>
@@ -25096,7 +25096,7 @@
         <v>129.5036936876659</v>
       </c>
       <c r="J34" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.91421918945569</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R34" t="n">
-        <v>138.4987178550945</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>208.9803284975833</v>
+        <v>43.03539376657301</v>
       </c>
       <c r="T34" t="n">
         <v>224.2590757696937</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2719674799983</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.04413532609821</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.6758728638764</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>111.2214405815365</v>
+        <v>326.7102563241243</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>107.5923113849775</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.1281782894276</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>129.5036936876659</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25354,16 +25354,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.91421918945569</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R37" t="n">
-        <v>61.69520254510948</v>
+        <v>138.4987178550945</v>
       </c>
       <c r="S37" t="n">
         <v>208.9803284975833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>224.2590757696937</v>
       </c>
       <c r="U37" t="n">
         <v>286.2719674799983</v>
@@ -25391,13 +25391,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25406,10 +25406,10 @@
         <v>413.3792705362076</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>263.2346646572522</v>
       </c>
       <c r="I38" t="n">
-        <v>136.3214288653054</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25445,13 +25445,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>229.9534332418128</v>
+        <v>251.1917755495223</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.09878826457236</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25570,7 @@
         <v>129.5036936876659</v>
       </c>
       <c r="J40" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R40" t="n">
         <v>138.4987178550945</v>
@@ -25600,22 +25600,22 @@
         <v>208.9803284975833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>224.2590757696937</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2719674799983</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>94.22401180451983</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>146.7065934822533</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.3792705362076</v>
       </c>
       <c r="H41" t="n">
         <v>319.7760959178264</v>
       </c>
       <c r="I41" t="n">
-        <v>136.3214288653054</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>29.0441353260982</v>
       </c>
       <c r="S41" t="n">
         <v>165.189065803936</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.6758728638764</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>70.69655750806351</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>16.878798577102</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.1281782894276</v>
       </c>
       <c r="H43" t="n">
         <v>154.5560866391441</v>
@@ -25807,7 +25807,7 @@
         <v>129.5036936876659</v>
       </c>
       <c r="J43" t="n">
-        <v>32.35914453616792</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.91421918945569</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R43" t="n">
         <v>138.4987178550945</v>
@@ -25840,19 +25840,19 @@
         <v>224.2590757696937</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2719674799983</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>11.55102957812738</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25868,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>337.2084528152393</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.3214288653053</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>64.66872845773474</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26032,19 +26032,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.1281782894276</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>154.5560866391441</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>129.5036936876659</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>32.35914453616791</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26065,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>13.91421918945568</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>138.4987178550945</v>
       </c>
       <c r="S46" t="n">
         <v>208.9803284975833</v>
       </c>
       <c r="T46" t="n">
-        <v>189.2148885344403</v>
+        <v>224.2590757696937</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2719674799983</v>
+        <v>8.507333685276478</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755971.630784931</v>
+        <v>755971.6307849309</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>757890.2547585652</v>
+        <v>757890.2547585651</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>804628.9427061956</v>
+        <v>804628.9427061955</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>804628.9427061956</v>
+        <v>804628.9427061955</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>804628.9427061956</v>
+        <v>804628.9427061955</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>804628.9427061958</v>
+        <v>804628.9427061956</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>804628.9427061956</v>
+        <v>804628.9427061955</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>754803.4716521775</v>
+        <v>754803.4716521772</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>318067.8710173336</v>
+      </c>
+      <c r="C2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="D2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="C2" t="n">
-        <v>318067.8710173336</v>
-      </c>
-      <c r="D2" t="n">
-        <v>318067.8710173334</v>
-      </c>
       <c r="E2" t="n">
+        <v>323139.5757862137</v>
+      </c>
+      <c r="F2" t="n">
         <v>323139.5757862138</v>
       </c>
-      <c r="F2" t="n">
-        <v>323139.5757862136</v>
-      </c>
       <c r="G2" t="n">
-        <v>323139.5757862136</v>
+        <v>323139.5757862137</v>
       </c>
       <c r="H2" t="n">
         <v>343018.3943212246</v>
       </c>
       <c r="I2" t="n">
-        <v>343018.3943212247</v>
+        <v>343018.3943212246</v>
       </c>
       <c r="J2" t="n">
-        <v>341786.8635412688</v>
+        <v>341786.8635412687</v>
       </c>
       <c r="K2" t="n">
         <v>341786.8635412687</v>
       </c>
       <c r="L2" t="n">
-        <v>341786.8635412686</v>
+        <v>341786.8635412689</v>
       </c>
       <c r="M2" t="n">
-        <v>341786.8635412687</v>
+        <v>341786.8635412685</v>
       </c>
       <c r="N2" t="n">
-        <v>341786.8635412686</v>
+        <v>341786.8635412688</v>
       </c>
       <c r="O2" t="n">
         <v>341786.8635412687</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80917.74332822353</v>
+        <v>80917.74332822349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>31568.2118715659</v>
+        <v>31568.21187156586</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174526.6921841392</v>
+        <v>174526.6921841391</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62414.36534265017</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="C4" t="n">
-        <v>62414.36534265017</v>
+        <v>62518.47524617216</v>
       </c>
       <c r="D4" t="n">
-        <v>62414.36534265017</v>
+        <v>62518.47524617215</v>
       </c>
       <c r="E4" t="n">
-        <v>53286.45655908906</v>
+        <v>53375.20836776866</v>
       </c>
       <c r="F4" t="n">
-        <v>53286.45655908906</v>
+        <v>53375.20836776867</v>
       </c>
       <c r="G4" t="n">
-        <v>53286.45655908906</v>
+        <v>53375.20836776867</v>
       </c>
       <c r="H4" t="n">
-        <v>59784.43991009454</v>
+        <v>59884.02745196123</v>
       </c>
       <c r="I4" t="n">
-        <v>59784.43991009454</v>
+        <v>59884.02745196122</v>
       </c>
       <c r="J4" t="n">
-        <v>59381.87742931584</v>
+        <v>59480.79367681359</v>
       </c>
       <c r="K4" t="n">
-        <v>59381.87742931583</v>
+        <v>59480.79367681358</v>
       </c>
       <c r="L4" t="n">
-        <v>59381.87742931584</v>
+        <v>59480.79367681358</v>
       </c>
       <c r="M4" t="n">
-        <v>59381.87742931584</v>
+        <v>59480.7936768136</v>
       </c>
       <c r="N4" t="n">
-        <v>59381.87742931584</v>
+        <v>59480.79367681359</v>
       </c>
       <c r="O4" t="n">
-        <v>59381.87742931583</v>
+        <v>59480.79367681359</v>
       </c>
       <c r="P4" t="n">
-        <v>52883.89407831036</v>
+        <v>52971.97459262104</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>51427.14674345581</v>
       </c>
       <c r="H5" t="n">
-        <v>58540.87268214283</v>
+        <v>58540.87268214282</v>
       </c>
       <c r="I5" t="n">
-        <v>58540.87268214281</v>
+        <v>58540.87268214282</v>
       </c>
       <c r="J5" t="n">
-        <v>58100.16377189076</v>
+        <v>58100.16377189075</v>
       </c>
       <c r="K5" t="n">
-        <v>58100.16377189076</v>
+        <v>58100.16377189075</v>
       </c>
       <c r="L5" t="n">
-        <v>58100.16377189076</v>
+        <v>58100.16377189075</v>
       </c>
       <c r="M5" t="n">
-        <v>58100.16377189076</v>
+        <v>58100.16377189075</v>
       </c>
       <c r="N5" t="n">
-        <v>58100.16377189076</v>
+        <v>58100.16377189075</v>
       </c>
       <c r="O5" t="n">
-        <v>58100.16377189076</v>
+        <v>58100.16377189075</v>
       </c>
       <c r="P5" t="n">
         <v>50986.43783320374</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-417173.4516032705</v>
+        <v>-417277.5615067926</v>
       </c>
       <c r="C6" t="n">
-        <v>172794.427611274</v>
+        <v>172690.3177077517</v>
       </c>
       <c r="D6" t="n">
-        <v>172794.4276112738</v>
+        <v>172690.3177077519</v>
       </c>
       <c r="E6" t="n">
-        <v>137508.2291554454</v>
+        <v>137419.4773467658</v>
       </c>
       <c r="F6" t="n">
-        <v>218425.9724836687</v>
+        <v>218337.2206749893</v>
       </c>
       <c r="G6" t="n">
-        <v>218425.9724836687</v>
+        <v>218337.2206749892</v>
       </c>
       <c r="H6" t="n">
-        <v>193124.8698574213</v>
+        <v>193025.2823155547</v>
       </c>
       <c r="I6" t="n">
-        <v>224693.0817289873</v>
+        <v>224593.4941871206</v>
       </c>
       <c r="J6" t="n">
-        <v>49778.13015592298</v>
+        <v>49679.2139084253</v>
       </c>
       <c r="K6" t="n">
-        <v>224304.8223400621</v>
+        <v>224205.9060925643</v>
       </c>
       <c r="L6" t="n">
-        <v>224304.8223400621</v>
+        <v>224205.9060925645</v>
       </c>
       <c r="M6" t="n">
-        <v>224304.8223400622</v>
+        <v>224205.9060925642</v>
       </c>
       <c r="N6" t="n">
-        <v>224304.822340062</v>
+        <v>224205.9060925645</v>
       </c>
       <c r="O6" t="n">
-        <v>224304.8223400622</v>
+        <v>224205.9060925644</v>
       </c>
       <c r="P6" t="n">
-        <v>218037.7130947437</v>
+        <v>217949.632580433</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>478.4624110082033</v>
@@ -26805,28 +26805,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>791.2893441145395</v>
+        <v>791.2893441145394</v>
       </c>
       <c r="I4" t="n">
-        <v>791.2893441145393</v>
+        <v>791.2893441145394</v>
       </c>
       <c r="J4" t="n">
-        <v>784.040842301183</v>
+        <v>784.0408423011829</v>
       </c>
       <c r="K4" t="n">
-        <v>784.040842301183</v>
+        <v>784.0408423011829</v>
       </c>
       <c r="L4" t="n">
-        <v>784.040842301183</v>
+        <v>784.0408423011829</v>
       </c>
       <c r="M4" t="n">
-        <v>784.040842301183</v>
+        <v>784.0408423011829</v>
       </c>
       <c r="N4" t="n">
-        <v>784.040842301183</v>
+        <v>784.0408423011829</v>
       </c>
       <c r="O4" t="n">
-        <v>784.040842301183</v>
+        <v>784.0408423011829</v>
       </c>
       <c r="P4" t="n">
         <v>667.0387709411992</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100.7187467911167</v>
+        <v>100.7187467911166</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>117.0020713599839</v>
+        <v>117.0020713599837</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.0387709411996</v>
+        <v>667.0387709411992</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>117.0020713599839</v>
+        <v>117.0020713599837</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32704,7 +32704,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I23" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J23" t="n">
         <v>163.2518555027437</v>
@@ -32713,19 +32713,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L23" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M23" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N23" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O23" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P23" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q23" t="n">
         <v>207.7127947206517</v>
@@ -32780,13 +32780,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H24" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I24" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J24" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K24" t="n">
         <v>166.1844394914059</v>
@@ -32804,22 +32804,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P24" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q24" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R24" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S24" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T24" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H25" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I25" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J25" t="n">
         <v>61.00003558050486</v>
@@ -32886,16 +32886,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R25" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S25" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T25" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U25" t="n">
         <v>0.04706187649261021</v>
@@ -32941,7 +32941,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I26" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J26" t="n">
         <v>163.2518555027437</v>
@@ -32950,19 +32950,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L26" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M26" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N26" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O26" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P26" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q26" t="n">
         <v>207.7127947206517</v>
@@ -33017,13 +33017,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H27" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I27" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J27" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K27" t="n">
         <v>166.1844394914059</v>
@@ -33041,22 +33041,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P27" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q27" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R27" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S27" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T27" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H28" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I28" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J28" t="n">
         <v>61.00003558050486</v>
@@ -33123,16 +33123,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R28" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S28" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T28" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U28" t="n">
         <v>0.04706187649261021</v>
@@ -33178,7 +33178,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I29" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J29" t="n">
         <v>163.2518555027437</v>
@@ -33187,19 +33187,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L29" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M29" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N29" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O29" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P29" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q29" t="n">
         <v>207.7127947206517</v>
@@ -33254,13 +33254,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H30" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I30" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J30" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K30" t="n">
         <v>166.1844394914059</v>
@@ -33278,22 +33278,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P30" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q30" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R30" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S30" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T30" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H31" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I31" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J31" t="n">
         <v>61.00003558050486</v>
@@ -33360,16 +33360,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R31" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S31" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T31" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U31" t="n">
         <v>0.04706187649261021</v>
@@ -33415,7 +33415,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I32" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J32" t="n">
         <v>163.2518555027437</v>
@@ -33424,19 +33424,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L32" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M32" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N32" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O32" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P32" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q32" t="n">
         <v>207.7127947206517</v>
@@ -33491,13 +33491,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H33" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I33" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J33" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K33" t="n">
         <v>166.1844394914059</v>
@@ -33515,22 +33515,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P33" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q33" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R33" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S33" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T33" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H34" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I34" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J34" t="n">
         <v>61.00003558050486</v>
@@ -33597,16 +33597,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R34" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S34" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T34" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U34" t="n">
         <v>0.04706187649261021</v>
@@ -33652,7 +33652,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I35" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J35" t="n">
         <v>163.2518555027437</v>
@@ -33661,19 +33661,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L35" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M35" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N35" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O35" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P35" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q35" t="n">
         <v>207.7127947206517</v>
@@ -33728,13 +33728,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H36" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I36" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J36" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K36" t="n">
         <v>166.1844394914059</v>
@@ -33752,22 +33752,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P36" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q36" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R36" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S36" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T36" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H37" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I37" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J37" t="n">
         <v>61.00003558050486</v>
@@ -33834,16 +33834,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R37" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S37" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T37" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U37" t="n">
         <v>0.04706187649261021</v>
@@ -33889,7 +33889,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I38" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J38" t="n">
         <v>163.2518555027437</v>
@@ -33898,19 +33898,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L38" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M38" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N38" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O38" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P38" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q38" t="n">
         <v>207.7127947206517</v>
@@ -33965,13 +33965,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H39" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I39" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J39" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K39" t="n">
         <v>166.1844394914059</v>
@@ -33989,22 +33989,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P39" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q39" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R39" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S39" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T39" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H40" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I40" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J40" t="n">
         <v>61.00003558050486</v>
@@ -34071,16 +34071,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R40" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S40" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T40" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U40" t="n">
         <v>0.04706187649261021</v>
@@ -34126,7 +34126,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I41" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J41" t="n">
         <v>163.2518555027437</v>
@@ -34135,19 +34135,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L41" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M41" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N41" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O41" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P41" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q41" t="n">
         <v>207.7127947206517</v>
@@ -34202,13 +34202,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H42" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I42" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J42" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K42" t="n">
         <v>166.1844394914059</v>
@@ -34226,22 +34226,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P42" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q42" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R42" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S42" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T42" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H43" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I43" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J43" t="n">
         <v>61.00003558050486</v>
@@ -34308,16 +34308,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R43" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S43" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T43" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U43" t="n">
         <v>0.04706187649261021</v>
@@ -34363,7 +34363,7 @@
         <v>19.69870619794074</v>
       </c>
       <c r="I44" t="n">
-        <v>74.15446070510055</v>
+        <v>74.15446070510056</v>
       </c>
       <c r="J44" t="n">
         <v>163.2518555027437</v>
@@ -34372,19 +34372,19 @@
         <v>244.6722127207427</v>
       </c>
       <c r="L44" t="n">
-        <v>303.5375152770936</v>
+        <v>303.5375152770937</v>
       </c>
       <c r="M44" t="n">
         <v>337.7439711635947</v>
       </c>
       <c r="N44" t="n">
-        <v>343.2090217174723</v>
+        <v>343.2090217174724</v>
       </c>
       <c r="O44" t="n">
-        <v>324.0825469457624</v>
+        <v>324.0825469457625</v>
       </c>
       <c r="P44" t="n">
-        <v>276.596955903491</v>
+        <v>276.5969559034911</v>
       </c>
       <c r="Q44" t="n">
         <v>207.7127947206517</v>
@@ -34439,13 +34439,13 @@
         <v>1.029145563300664</v>
       </c>
       <c r="H45" t="n">
-        <v>9.939379519245884</v>
+        <v>9.939379519245886</v>
       </c>
       <c r="I45" t="n">
-        <v>35.43330119258864</v>
+        <v>35.43330119258865</v>
       </c>
       <c r="J45" t="n">
-        <v>97.2316867502614</v>
+        <v>97.23168675026142</v>
       </c>
       <c r="K45" t="n">
         <v>166.1844394914059</v>
@@ -34463,22 +34463,22 @@
         <v>244.8599095279434</v>
       </c>
       <c r="P45" t="n">
-        <v>196.5216646271241</v>
+        <v>196.5216646271242</v>
       </c>
       <c r="Q45" t="n">
         <v>131.3695283960637</v>
       </c>
       <c r="R45" t="n">
-        <v>63.89730085124649</v>
+        <v>63.8973008512465</v>
       </c>
       <c r="S45" t="n">
         <v>19.11592745867679</v>
       </c>
       <c r="T45" t="n">
-        <v>4.148178827514515</v>
+        <v>4.148178827514516</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06770694495399106</v>
+        <v>0.06770694495399107</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8628010690311861</v>
+        <v>0.8628010690311863</v>
       </c>
       <c r="H46" t="n">
-        <v>7.67108586829546</v>
+        <v>7.671085868295461</v>
       </c>
       <c r="I46" t="n">
-        <v>25.9467812395924</v>
+        <v>25.94678123959241</v>
       </c>
       <c r="J46" t="n">
         <v>61.00003558050486</v>
@@ -34545,16 +34545,16 @@
         <v>104.3518674762809</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.24782406223869</v>
+        <v>72.24782406223871</v>
       </c>
       <c r="R46" t="n">
-        <v>38.79467352207496</v>
+        <v>38.79467352207497</v>
       </c>
       <c r="S46" t="n">
         <v>15.03626953938894</v>
       </c>
       <c r="T46" t="n">
-        <v>3.686513658587794</v>
+        <v>3.686513658587795</v>
       </c>
       <c r="U46" t="n">
         <v>0.04706187649261021</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,7 +35410,7 @@
         <v>151.3025661481312</v>
       </c>
       <c r="K11" t="n">
-        <v>348.7277742469269</v>
+        <v>266.247026488322</v>
       </c>
       <c r="L11" t="n">
         <v>485.4323148575569</v>
@@ -35422,13 +35422,13 @@
         <v>551.1428825328655</v>
       </c>
       <c r="O11" t="n">
-        <v>474.7845167868211</v>
+        <v>93.98433552407576</v>
       </c>
       <c r="P11" t="n">
-        <v>101.6038348044611</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>197.7220955061069</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>96.48509542400356</v>
       </c>
       <c r="K12" t="n">
-        <v>292.8082375296254</v>
+        <v>28.34300051704687</v>
       </c>
       <c r="L12" t="n">
         <v>455.7414528534068</v>
@@ -35498,13 +35498,13 @@
         <v>584.3330438274525</v>
       </c>
       <c r="N12" t="n">
-        <v>431.1852778891833</v>
+        <v>615.6642708486679</v>
       </c>
       <c r="O12" t="n">
         <v>496.1259843602285</v>
       </c>
       <c r="P12" t="n">
-        <v>381.0100258527311</v>
+        <v>364.5111744818214</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>151.3025661481312</v>
       </c>
       <c r="K14" t="n">
-        <v>234.4715068798154</v>
+        <v>24.58236167576214</v>
       </c>
       <c r="L14" t="n">
         <v>485.4323148575569</v>
@@ -35662,10 +35662,10 @@
         <v>474.7845167868211</v>
       </c>
       <c r="P14" t="n">
-        <v>367.1626683197042</v>
+        <v>228.0271518695188</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>197.7220955061069</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>96.48509542400356</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>292.8082375296254</v>
+        <v>277.7045478277085</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7773644699184</v>
+        <v>84.9011075499476</v>
       </c>
       <c r="M15" t="n">
         <v>584.3330438274525</v>
@@ -35744,7 +35744,7 @@
         <v>381.0100258527311</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>201.4650420458913</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>348.7277742469269</v>
+        <v>234.4715068798154</v>
       </c>
       <c r="L17" t="n">
         <v>485.4323148575569</v>
@@ -35899,7 +35899,7 @@
         <v>474.7845167868211</v>
       </c>
       <c r="P17" t="n">
-        <v>252.9064009525924</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>292.8082375296254</v>
+        <v>277.7045478277085</v>
       </c>
       <c r="L18" t="n">
-        <v>455.7414528534068</v>
+        <v>84.9011075499476</v>
       </c>
       <c r="M18" t="n">
         <v>584.3330438274525</v>
@@ -35978,10 +35978,10 @@
         <v>496.1259843602285</v>
       </c>
       <c r="P18" t="n">
-        <v>62.54725721279391</v>
+        <v>381.0100258527311</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.9837756804521</v>
+        <v>201.4650420458913</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>96.48509542400356</v>
       </c>
       <c r="K21" t="n">
-        <v>292.8082375296254</v>
+        <v>204.2414263769757</v>
       </c>
       <c r="L21" t="n">
-        <v>439.0173861740277</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M21" t="n">
-        <v>118.6279800774525</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N21" t="n">
         <v>615.6642708486679</v>
       </c>
       <c r="O21" t="n">
-        <v>496.1259843602285</v>
+        <v>102.263665083499</v>
       </c>
       <c r="P21" t="n">
         <v>381.0100258527311</v>
@@ -36361,7 +36361,7 @@
         <v>348.7277742469269</v>
       </c>
       <c r="L23" t="n">
-        <v>485.4323148575568</v>
+        <v>485.4323148575569</v>
       </c>
       <c r="M23" t="n">
         <v>556.9112714291545</v>
@@ -36373,7 +36373,7 @@
         <v>474.7845167868211</v>
       </c>
       <c r="P23" t="n">
-        <v>367.1626683197041</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q23" t="n">
         <v>197.7220955061069</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>79.98624405309441</v>
       </c>
       <c r="K24" t="n">
-        <v>108.3292445701415</v>
+        <v>28.34300051704687</v>
       </c>
       <c r="L24" t="n">
-        <v>455.7414528534067</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M24" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N24" t="n">
         <v>615.6642708486679</v>
@@ -36452,7 +36452,7 @@
         <v>496.1259843602285</v>
       </c>
       <c r="P24" t="n">
-        <v>381.010025852731</v>
+        <v>381.0100258527311</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,19 +36516,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L25" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M25" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N25" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O25" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P25" t="n">
         <v>101.6304267411744</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>151.3025661481312</v>
+        <v>122.6014276548411</v>
       </c>
       <c r="K26" t="n">
         <v>348.7277742469269</v>
       </c>
       <c r="L26" t="n">
-        <v>485.4323148575568</v>
+        <v>485.4323148575569</v>
       </c>
       <c r="M26" t="n">
         <v>556.9112714291545</v>
@@ -36610,10 +36610,10 @@
         <v>474.7845167868211</v>
       </c>
       <c r="P26" t="n">
-        <v>367.1626683197041</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.0209570128174</v>
+        <v>197.7220955061069</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>108.3292445701408</v>
+        <v>292.8082375296254</v>
       </c>
       <c r="L27" t="n">
-        <v>455.7414528534067</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M27" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N27" t="n">
         <v>615.6642708486679</v>
@@ -36689,10 +36689,10 @@
         <v>496.1259843602285</v>
       </c>
       <c r="P27" t="n">
-        <v>381.010025852731</v>
+        <v>62.54725721279391</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>133.9837756804521</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,19 +36753,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L28" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M28" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N28" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O28" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P28" t="n">
         <v>101.6304267411744</v>
@@ -36835,19 +36835,19 @@
         <v>348.7277742469269</v>
       </c>
       <c r="L29" t="n">
-        <v>485.4323148575568</v>
+        <v>485.4323148575569</v>
       </c>
       <c r="M29" t="n">
         <v>556.9112714291545</v>
       </c>
       <c r="N29" t="n">
-        <v>522.4417440395758</v>
+        <v>551.1428825328655</v>
       </c>
       <c r="O29" t="n">
         <v>474.7845167868211</v>
       </c>
       <c r="P29" t="n">
-        <v>367.1626683197041</v>
+        <v>338.4615298264138</v>
       </c>
       <c r="Q29" t="n">
         <v>197.7220955061069</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>96.48509542400355</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>181.219452403705</v>
+        <v>225.3269711641863</v>
       </c>
       <c r="L30" t="n">
-        <v>84.90110754994757</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M30" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N30" t="n">
         <v>615.6642708486679</v>
@@ -36926,7 +36926,7 @@
         <v>496.1259843602285</v>
       </c>
       <c r="P30" t="n">
-        <v>381.010025852731</v>
+        <v>62.54725721279391</v>
       </c>
       <c r="Q30" t="n">
         <v>201.4650420458913</v>
@@ -36990,19 +36990,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L31" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M31" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N31" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O31" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P31" t="n">
         <v>101.6304267411744</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>151.3025661481312</v>
+        <v>122.6014276548411</v>
       </c>
       <c r="K32" t="n">
         <v>348.7277742469269</v>
       </c>
       <c r="L32" t="n">
-        <v>485.4323148575568</v>
+        <v>485.4323148575569</v>
       </c>
       <c r="M32" t="n">
         <v>556.9112714291545</v>
@@ -37084,10 +37084,10 @@
         <v>474.7845167868211</v>
       </c>
       <c r="P32" t="n">
-        <v>367.1626683197041</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.0209570128174</v>
+        <v>197.7220955061069</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.39833933817756</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>292.8082375296254</v>
       </c>
       <c r="L33" t="n">
-        <v>455.7414528534067</v>
+        <v>84.9011075499476</v>
       </c>
       <c r="M33" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N33" t="n">
-        <v>136.3218965051143</v>
+        <v>615.6642708486679</v>
       </c>
       <c r="O33" t="n">
         <v>496.1259843602285</v>
       </c>
       <c r="P33" t="n">
-        <v>381.010025852731</v>
+        <v>365.9063361508136</v>
       </c>
       <c r="Q33" t="n">
         <v>201.4650420458913</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L34" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M34" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N34" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O34" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P34" t="n">
         <v>101.6304267411744</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>151.3025661481312</v>
+        <v>122.6014276548411</v>
       </c>
       <c r="K35" t="n">
         <v>348.7277742469269</v>
       </c>
       <c r="L35" t="n">
-        <v>485.4323148575568</v>
+        <v>485.4323148575569</v>
       </c>
       <c r="M35" t="n">
         <v>556.9112714291545</v>
@@ -37318,10 +37318,10 @@
         <v>551.1428825328655</v>
       </c>
       <c r="O35" t="n">
-        <v>446.0833782935314</v>
+        <v>474.7845167868211</v>
       </c>
       <c r="P35" t="n">
-        <v>367.1626683197041</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q35" t="n">
         <v>197.7220955061069</v>
@@ -37388,22 +37388,22 @@
         <v>292.8082375296254</v>
       </c>
       <c r="L36" t="n">
-        <v>84.90110754994757</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M36" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N36" t="n">
-        <v>615.6642708486679</v>
+        <v>229.7202358432918</v>
       </c>
       <c r="O36" t="n">
         <v>496.1259843602285</v>
       </c>
       <c r="P36" t="n">
-        <v>381.010025852731</v>
+        <v>381.0100258527311</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.3613523439755</v>
+        <v>201.4650420458913</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L37" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M37" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N37" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O37" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P37" t="n">
         <v>101.6304267411744</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>122.6014276548416</v>
+        <v>151.3025661481312</v>
       </c>
       <c r="K38" t="n">
         <v>348.7277742469269</v>
       </c>
       <c r="L38" t="n">
-        <v>485.4323148575568</v>
+        <v>456.7311763642668</v>
       </c>
       <c r="M38" t="n">
         <v>556.9112714291545</v>
@@ -37558,7 +37558,7 @@
         <v>474.7845167868211</v>
       </c>
       <c r="P38" t="n">
-        <v>367.1626683197041</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q38" t="n">
         <v>197.7220955061069</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>292.8082375296254</v>
+        <v>28.34300051704687</v>
       </c>
       <c r="L39" t="n">
-        <v>455.7414528534067</v>
+        <v>334.2626548606092</v>
       </c>
       <c r="M39" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N39" t="n">
-        <v>431.1852778891835</v>
+        <v>615.6642708486679</v>
       </c>
       <c r="O39" t="n">
         <v>496.1259843602285</v>
       </c>
       <c r="P39" t="n">
-        <v>381.010025852731</v>
+        <v>381.0100258527311</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>201.4650420458913</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L40" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M40" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N40" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O40" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P40" t="n">
         <v>101.6304267411744</v>
@@ -37783,19 +37783,19 @@
         <v>348.7277742469269</v>
       </c>
       <c r="L41" t="n">
-        <v>485.4323148575568</v>
+        <v>456.7311763642668</v>
       </c>
       <c r="M41" t="n">
         <v>556.9112714291545</v>
       </c>
       <c r="N41" t="n">
-        <v>522.4417440395758</v>
+        <v>551.1428825328655</v>
       </c>
       <c r="O41" t="n">
         <v>474.7845167868211</v>
       </c>
       <c r="P41" t="n">
-        <v>367.1626683197041</v>
+        <v>367.1626683197042</v>
       </c>
       <c r="Q41" t="n">
         <v>197.7220955061069</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>292.8082375296254</v>
+        <v>108.3292445701406</v>
       </c>
       <c r="L42" t="n">
-        <v>455.7414528534067</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M42" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N42" t="n">
-        <v>229.7202358432921</v>
+        <v>615.6642708486679</v>
       </c>
       <c r="O42" t="n">
         <v>496.1259843602285</v>
       </c>
       <c r="P42" t="n">
-        <v>381.010025852731</v>
+        <v>381.0100258527311</v>
       </c>
       <c r="Q42" t="n">
-        <v>201.4650420458913</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L43" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M43" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N43" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O43" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P43" t="n">
         <v>101.6304267411744</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>151.3025661481312</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>348.7277742469269</v>
       </c>
       <c r="L44" t="n">
-        <v>485.4323148575568</v>
+        <v>485.4323148575569</v>
       </c>
       <c r="M44" t="n">
-        <v>445.7293851772601</v>
+        <v>556.9112714291545</v>
       </c>
       <c r="N44" t="n">
         <v>551.1428825328655</v>
       </c>
       <c r="O44" t="n">
-        <v>93.9843355240757</v>
+        <v>474.7845167868211</v>
       </c>
       <c r="P44" t="n">
-        <v>367.1626683197041</v>
+        <v>224.2052624593027</v>
       </c>
       <c r="Q44" t="n">
-        <v>197.7220955061069</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>28.34300051704687</v>
+        <v>225.3269711641862</v>
       </c>
       <c r="L45" t="n">
-        <v>455.7414528534067</v>
+        <v>455.7414528534068</v>
       </c>
       <c r="M45" t="n">
-        <v>584.3330438274523</v>
+        <v>584.3330438274525</v>
       </c>
       <c r="N45" t="n">
         <v>615.6642708486679</v>
@@ -38111,10 +38111,10 @@
         <v>496.1259843602285</v>
       </c>
       <c r="P45" t="n">
-        <v>381.010025852731</v>
+        <v>62.54725721279391</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.9862440530938</v>
+        <v>201.4650420458913</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>77.97230510337675</v>
+        <v>77.97230510337677</v>
       </c>
       <c r="L46" t="n">
-        <v>155.8650132870072</v>
+        <v>155.8650132870073</v>
       </c>
       <c r="M46" t="n">
-        <v>174.83186635552</v>
+        <v>174.8318663555201</v>
       </c>
       <c r="N46" t="n">
         <v>176.1642668792465</v>
       </c>
       <c r="O46" t="n">
-        <v>146.5381371985568</v>
+        <v>146.5381371985569</v>
       </c>
       <c r="P46" t="n">
         <v>101.6304267411744</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1013958.850252986</v>
+        <v>965463.0783258694</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3314032.342450611</v>
+        <v>3301584.065976685</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8701380.847400002</v>
+        <v>6409890.106263976</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8667096.481561285</v>
+        <v>9731460.163993154</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>122.4766428537094</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>362.0234939270724</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>189.5093499452279</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3058281232043</v>
+        <v>251.3021454006706</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>379.3232922704789</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>166.7358045618955</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.0911443141734</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9238589409207</v>
+        <v>90.0439229590574</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>24.6585802751203</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>90.21384961766228</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>167.2529959946494</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>124.6074705972822</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.8378988107489</v>
+        <v>413.8940740630724</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>200.6632194057527</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>308.8225942110253</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>108.7233039225179</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5597593601987</v>
+        <v>136.5898157699679</v>
       </c>
       <c r="H6" t="n">
-        <v>104.665993875829</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>62.41198919508471</v>
+        <v>63.44682611038108</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>51.49609968143133</v>
+        <v>27.43464612893324</v>
       </c>
       <c r="S6" t="n">
-        <v>157.1252136663144</v>
+        <v>157.6834982951399</v>
       </c>
       <c r="T6" t="n">
-        <v>197.0056347432079</v>
+        <v>197.1267831667948</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8898190676188</v>
+        <v>225.8917964629983</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>151.6700424593331</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>135.6904011488205</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>147.7488554315367</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.5655516544858</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>88.34475139919837</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>311.3672352586136</v>
       </c>
       <c r="G8" t="n">
         <v>413.8378988107489</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>57.8534436767536</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>175.6400576100461</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>155.4456406961749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5597593601987</v>
       </c>
       <c r="H9" t="n">
-        <v>40.68079881003035</v>
+        <v>104.665993875829</v>
       </c>
       <c r="I9" t="n">
-        <v>62.41198919508471</v>
+        <v>62.41198919508472</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>51.49609968143133</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157.1252136663144</v>
+        <v>144.6361182819469</v>
       </c>
       <c r="T9" t="n">
         <v>197.0056347432079</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>31.08149117275325</v>
+        <v>46.90389179293926</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.14087046657036</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.7488554315367</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.5655516544858</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.1380819688299</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>62.11031724081786</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>231.488491028369</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>289.5498313341314</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.172803265492</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.59299030330406</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>284.2295502446914</v>
       </c>
       <c r="W14" t="n">
-        <v>128.8989827389832</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>4.800311936799574</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>147.1283960476616</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>278.7874773414214</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>101.617679529132</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>193.7787769293047</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>31.84784312001302</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>221.7031913731391</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>56.08889633518815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.65421622645162</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>252.502160037161</v>
+        <v>75.37827285528043</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>20.1991556951765</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>265.1025898015121</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>303.9459315897139</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>28.35435780800754</v>
       </c>
       <c r="H26" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>237.4850509902619</v>
+        <v>99.22633580452191</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>80.80955923595837</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>218.610313899599</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.6687678342077</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>227.9017882635736</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>346.6608273342765</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
         <v>315.0408840752156</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.6684412661228588</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>225.5650375952957</v>
+        <v>100.9308781458036</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>263.7394182836353</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.45364831454059</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>131.7813703130031</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>206.4537874170351</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>352.9293923433048</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>33.58093968429691</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>79.28604738509141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>104.7842799263185</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>362.2640748783305</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>60.51172283484546</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U43" t="n">
-        <v>75.9875623215512</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.9169039459368</v>
+        <v>321.7501835455639</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>49.26184896533675</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>96.68236899921457</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.0596440419509</v>
+        <v>595.4594274011018</v>
       </c>
       <c r="C2" t="n">
-        <v>154.0596440419509</v>
+        <v>595.4594274011018</v>
       </c>
       <c r="D2" t="n">
-        <v>154.0596440419509</v>
+        <v>595.4594274011018</v>
       </c>
       <c r="E2" t="n">
-        <v>30.34586338163831</v>
+        <v>595.4594274011018</v>
       </c>
       <c r="F2" t="n">
-        <v>30.34586338163831</v>
+        <v>588.5139266518984</v>
       </c>
       <c r="G2" t="n">
-        <v>30.34586338163831</v>
+        <v>222.8336297558656</v>
       </c>
       <c r="H2" t="n">
-        <v>30.34586338163831</v>
+        <v>222.8336297558656</v>
       </c>
       <c r="I2" t="n">
-        <v>30.34586338163831</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="J2" t="n">
-        <v>60.3445422521778</v>
+        <v>65.27673290979499</v>
       </c>
       <c r="K2" t="n">
-        <v>226.0495897715216</v>
+        <v>236.7789248708509</v>
       </c>
       <c r="L2" t="n">
-        <v>483.897981404103</v>
+        <v>501.8191868019532</v>
       </c>
       <c r="M2" t="n">
-        <v>787.4105446344981</v>
+        <v>813.3340914645055</v>
       </c>
       <c r="N2" t="n">
-        <v>1081.202260904764</v>
+        <v>1115.257635417491</v>
       </c>
       <c r="O2" t="n">
-        <v>1313.433809795883</v>
+        <v>1355.167838597918</v>
       </c>
       <c r="P2" t="n">
-        <v>1473.963681000146</v>
+        <v>1522.251263586159</v>
       </c>
       <c r="Q2" t="n">
-        <v>1517.293169081916</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="R2" t="n">
-        <v>1517.293169081916</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="S2" t="n">
-        <v>1517.293169081916</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="T2" t="n">
-        <v>1517.293169081916</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="U2" t="n">
-        <v>1263.448898250396</v>
+        <v>1316.661646720484</v>
       </c>
       <c r="V2" t="n">
-        <v>1263.448898250396</v>
+        <v>985.5987593769136</v>
       </c>
       <c r="W2" t="n">
-        <v>910.6802429802822</v>
+        <v>985.5987593769136</v>
       </c>
       <c r="X2" t="n">
-        <v>537.2144847192023</v>
+        <v>985.5987593769136</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.0596440419509</v>
+        <v>595.4594274011018</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>659.5053153025871</v>
+        <v>660.5694958735538</v>
       </c>
       <c r="C3" t="n">
-        <v>485.0522860214601</v>
+        <v>486.1164665924268</v>
       </c>
       <c r="D3" t="n">
-        <v>336.1178763602088</v>
+        <v>337.1820569311756</v>
       </c>
       <c r="E3" t="n">
-        <v>176.8804213547533</v>
+        <v>177.9446019257201</v>
       </c>
       <c r="F3" t="n">
-        <v>30.34586338163831</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="G3" t="n">
-        <v>30.34586338163831</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="H3" t="n">
-        <v>30.34586338163831</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="I3" t="n">
-        <v>30.34586338163831</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="J3" t="n">
-        <v>54.51949132240436</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="K3" t="n">
-        <v>222.4569149067926</v>
+        <v>31.41004395260505</v>
       </c>
       <c r="L3" t="n">
-        <v>430.1825622322083</v>
+        <v>323.9214766803995</v>
       </c>
       <c r="M3" t="n">
-        <v>805.7126215799824</v>
+        <v>712.6207705938871</v>
       </c>
       <c r="N3" t="n">
-        <v>1181.242680927757</v>
+        <v>1015.556409014429</v>
       </c>
       <c r="O3" t="n">
-        <v>1181.242680927757</v>
+        <v>1332.849548118982</v>
       </c>
       <c r="P3" t="n">
-        <v>1414.239041671698</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="Q3" t="n">
-        <v>1517.293169081916</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="R3" t="n">
-        <v>1517.293169081916</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="S3" t="n">
-        <v>1348.873164473941</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="T3" t="n">
-        <v>1147.770998500028</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="U3" t="n">
-        <v>919.5650803778857</v>
+        <v>1479.548740095851</v>
       </c>
       <c r="V3" t="n">
-        <v>684.4129721461429</v>
+        <v>1244.396631864108</v>
       </c>
       <c r="W3" t="n">
-        <v>659.5053153025871</v>
+        <v>1244.396631864108</v>
       </c>
       <c r="X3" t="n">
-        <v>659.5053153025871</v>
+        <v>1036.545131658576</v>
       </c>
       <c r="Y3" t="n">
-        <v>659.5053153025871</v>
+        <v>828.7848328936218</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="C4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="D4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="E4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="F4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="G4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="H4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="I4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="J4" t="n">
-        <v>30.34586338163831</v>
+        <v>1258.584517862821</v>
       </c>
       <c r="K4" t="n">
-        <v>33.98307182353334</v>
+        <v>1264.596806700785</v>
       </c>
       <c r="L4" t="n">
-        <v>94.16388098508314</v>
+        <v>1327.816901057741</v>
       </c>
       <c r="M4" t="n">
-        <v>168.0052293683661</v>
+        <v>1404.862749540352</v>
       </c>
       <c r="N4" t="n">
-        <v>245.5254119524765</v>
+        <v>1485.511236373837</v>
       </c>
       <c r="O4" t="n">
-        <v>301.111552059545</v>
+        <v>1543.986871785919</v>
       </c>
       <c r="P4" t="n">
-        <v>325.1544154947005</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="Q4" t="n">
-        <v>325.1544154947005</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="R4" t="n">
-        <v>156.211995298085</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="S4" t="n">
-        <v>30.34586338163831</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="T4" t="n">
-        <v>30.34586338163831</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="U4" t="n">
-        <v>30.34586338163831</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="V4" t="n">
-        <v>30.34586338163831</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="W4" t="n">
-        <v>30.34586338163831</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="X4" t="n">
-        <v>30.34586338163831</v>
+        <v>1570.502197630253</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.34586338163831</v>
+        <v>1349.709618486723</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1583.735467291836</v>
+        <v>1624.516980038459</v>
       </c>
       <c r="C5" t="n">
-        <v>1214.772950351425</v>
+        <v>1624.516980038459</v>
       </c>
       <c r="D5" t="n">
-        <v>856.5072517446742</v>
+        <v>1266.251281431709</v>
       </c>
       <c r="E5" t="n">
-        <v>470.71899914643</v>
+        <v>880.4630288334645</v>
       </c>
       <c r="F5" t="n">
-        <v>470.71899914643</v>
+        <v>469.4771240438569</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="J5" t="n">
-        <v>163.9542135250763</v>
+        <v>157.9354694647168</v>
       </c>
       <c r="K5" t="n">
-        <v>451.4388660156269</v>
+        <v>438.3458762300515</v>
       </c>
       <c r="L5" t="n">
-        <v>860.3656261042779</v>
+        <v>838.4964089489744</v>
       </c>
       <c r="M5" t="n">
-        <v>1331.98198392721</v>
+        <v>1300.347522825106</v>
       </c>
       <c r="N5" t="n">
-        <v>1796.597589933626</v>
+        <v>1755.039873028414</v>
       </c>
       <c r="O5" t="n">
-        <v>2190.133293907379</v>
+        <v>2139.205327937697</v>
       </c>
       <c r="P5" t="n">
-        <v>2488.332529571147</v>
+        <v>2429.407272813314</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.045976980643</v>
+        <v>2570.115087896257</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.045976980643</v>
+        <v>2570.115087896257</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2570.115087896257</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.045976980643</v>
+        <v>2570.115087896257</v>
       </c>
       <c r="U5" t="n">
-        <v>2635.045976980643</v>
+        <v>2367.424967284385</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>2367.424967284385</v>
       </c>
       <c r="W5" t="n">
-        <v>2282.277321710529</v>
+        <v>2014.656312014271</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.335307355958</v>
+        <v>2014.656312014271</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.335307355958</v>
+        <v>1624.516980038459</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>923.9336516275462</v>
+        <v>882.6189676994285</v>
       </c>
       <c r="C6" t="n">
-        <v>814.1121325138918</v>
+        <v>708.1659384183015</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1777228526405</v>
+        <v>559.2315287570502</v>
       </c>
       <c r="E6" t="n">
-        <v>505.9402678471849</v>
+        <v>399.9940737515947</v>
       </c>
       <c r="F6" t="n">
-        <v>359.4057098740699</v>
+        <v>253.4595157784796</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4665590051823</v>
+        <v>115.4900048997242</v>
       </c>
       <c r="H6" t="n">
-        <v>115.7433328679813</v>
+        <v>115.4900048997242</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="K6" t="n">
-        <v>240.7342308929948</v>
+        <v>214.1026389063001</v>
       </c>
       <c r="L6" t="n">
-        <v>639.1707171899513</v>
+        <v>606.0783219578007</v>
       </c>
       <c r="M6" t="n">
-        <v>1156.10652530385</v>
+        <v>1115.474677420654</v>
       </c>
       <c r="N6" t="n">
-        <v>1702.431099455476</v>
+        <v>1654.060252043903</v>
       </c>
       <c r="O6" t="n">
-        <v>2135.795673384114</v>
+        <v>2080.345153340358</v>
       </c>
       <c r="P6" t="n">
-        <v>2466.605882380168</v>
+        <v>2405.473300894119</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.045976980643</v>
+        <v>2570.115087896257</v>
       </c>
       <c r="R6" t="n">
-        <v>2583.029714676167</v>
+        <v>2542.403324129657</v>
       </c>
       <c r="S6" t="n">
-        <v>2424.317377639486</v>
+        <v>2383.127063225476</v>
       </c>
       <c r="T6" t="n">
-        <v>2225.321786989781</v>
+        <v>2184.009100430734</v>
       </c>
       <c r="U6" t="n">
-        <v>1997.150252578045</v>
+        <v>1955.835568649927</v>
       </c>
       <c r="V6" t="n">
-        <v>1761.998144346303</v>
+        <v>1720.683460418185</v>
       </c>
       <c r="W6" t="n">
-        <v>1507.760787618101</v>
+        <v>1466.446103689983</v>
       </c>
       <c r="X6" t="n">
-        <v>1299.909287412568</v>
+        <v>1258.59460348445</v>
       </c>
       <c r="Y6" t="n">
-        <v>1092.148988647614</v>
+        <v>1050.834304719496</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="C7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="D7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="E7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="F7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="G7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="H7" t="n">
-        <v>189.7619308010477</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961287</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="K7" t="n">
-        <v>106.2310287563994</v>
+        <v>102.0341043156545</v>
       </c>
       <c r="L7" t="n">
-        <v>230.257573385287</v>
+        <v>222.3518142730068</v>
       </c>
       <c r="M7" t="n">
-        <v>371.4152979862113</v>
+        <v>359.59909272979</v>
       </c>
       <c r="N7" t="n">
-        <v>514.6512238210063</v>
+        <v>499.0175540894747</v>
       </c>
       <c r="O7" t="n">
-        <v>630.9364892213466</v>
+        <v>611.7767731725207</v>
       </c>
       <c r="P7" t="n">
-        <v>706.9179404428211</v>
+        <v>684.7410826262255</v>
       </c>
       <c r="Q7" t="n">
-        <v>706.9179404428211</v>
+        <v>684.7410826262255</v>
       </c>
       <c r="R7" t="n">
-        <v>557.6766723301578</v>
+        <v>684.7410826262255</v>
       </c>
       <c r="S7" t="n">
-        <v>342.9639938912832</v>
+        <v>684.7410826262255</v>
       </c>
       <c r="T7" t="n">
-        <v>342.9639938912832</v>
+        <v>684.7410826262255</v>
       </c>
       <c r="U7" t="n">
-        <v>342.9639938912832</v>
+        <v>595.5039600007726</v>
       </c>
       <c r="V7" t="n">
-        <v>342.9639938912832</v>
+        <v>340.8194717948858</v>
       </c>
       <c r="W7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="X7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
       <c r="Y7" t="n">
-        <v>342.9639938912832</v>
+        <v>51.40230175792514</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2478.030178297638</v>
+        <v>2012.594115414703</v>
       </c>
       <c r="C8" t="n">
-        <v>2109.067661357226</v>
+        <v>2012.594115414703</v>
       </c>
       <c r="D8" t="n">
-        <v>1750.801962750475</v>
+        <v>1654.328416807952</v>
       </c>
       <c r="E8" t="n">
-        <v>1365.013710152231</v>
+        <v>1268.540164209708</v>
       </c>
       <c r="F8" t="n">
         <v>954.0278053626237</v>
@@ -4804,7 +4804,7 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>163.954213525076</v>
+        <v>163.9542135250758</v>
       </c>
       <c r="K8" t="n">
         <v>451.4388660156264</v>
@@ -4813,7 +4813,7 @@
         <v>860.3656261042772</v>
       </c>
       <c r="M8" t="n">
-        <v>1331.98198392721</v>
+        <v>1331.981983927209</v>
       </c>
       <c r="N8" t="n">
         <v>1796.597589933625</v>
@@ -4828,28 +4828,28 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.045976980643</v>
+        <v>2576.608155084932</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.045976980643</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.045976980643</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.045976980643</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.045976980643</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.045976980643</v>
+        <v>2399.193955478825</v>
       </c>
       <c r="Y8" t="n">
-        <v>2478.030178297638</v>
+        <v>2399.193955478825</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>923.9336516275453</v>
+        <v>988.5651617950188</v>
       </c>
       <c r="C9" t="n">
-        <v>749.4806223464183</v>
+        <v>814.1121325138918</v>
       </c>
       <c r="D9" t="n">
-        <v>600.546212685167</v>
+        <v>665.1777228526405</v>
       </c>
       <c r="E9" t="n">
-        <v>441.3087576797115</v>
+        <v>505.9402678471849</v>
       </c>
       <c r="F9" t="n">
-        <v>294.7741997065965</v>
+        <v>359.4057098740699</v>
       </c>
       <c r="G9" t="n">
-        <v>156.8350488377089</v>
+        <v>221.4665590051823</v>
       </c>
       <c r="H9" t="n">
         <v>115.7433328679813</v>
@@ -4895,40 +4895,40 @@
         <v>1291.293194601828</v>
       </c>
       <c r="N9" t="n">
-        <v>1702.431099455475</v>
+        <v>1837.617768753454</v>
       </c>
       <c r="O9" t="n">
-        <v>2135.795673384113</v>
+        <v>2270.982342682092</v>
       </c>
       <c r="P9" t="n">
-        <v>2466.605882380167</v>
+        <v>2601.792551678146</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R9" t="n">
-        <v>2583.029714676166</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.317377639485</v>
+        <v>2488.948887806959</v>
       </c>
       <c r="T9" t="n">
-        <v>2225.32178698978</v>
+        <v>2289.953297157254</v>
       </c>
       <c r="U9" t="n">
-        <v>1997.150252578044</v>
+        <v>2061.781762745518</v>
       </c>
       <c r="V9" t="n">
-        <v>1761.998144346302</v>
+        <v>1826.629654513775</v>
       </c>
       <c r="W9" t="n">
-        <v>1507.7607876181</v>
+        <v>1572.392297785573</v>
       </c>
       <c r="X9" t="n">
-        <v>1299.909287412567</v>
+        <v>1364.540797580041</v>
       </c>
       <c r="Y9" t="n">
-        <v>1092.148988647613</v>
+        <v>1156.780498815087</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="C10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="D10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="E10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="F10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="G10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="H10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="I10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4971,7 +4971,7 @@
         <v>230.257573385287</v>
       </c>
       <c r="M10" t="n">
-        <v>371.4152979862113</v>
+        <v>371.4152979862112</v>
       </c>
       <c r="N10" t="n">
         <v>514.6512238210063</v>
@@ -4983,31 +4983,31 @@
         <v>706.9179404428211</v>
       </c>
       <c r="Q10" t="n">
-        <v>675.4625157291136</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="R10" t="n">
-        <v>526.2212476164502</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="S10" t="n">
-        <v>311.5085691775757</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="T10" t="n">
-        <v>84.09636516865655</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="U10" t="n">
-        <v>84.09636516865655</v>
+        <v>644.1802462601768</v>
       </c>
       <c r="V10" t="n">
-        <v>84.09636516865655</v>
+        <v>389.4957580542899</v>
       </c>
       <c r="W10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="X10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
       <c r="Y10" t="n">
-        <v>84.09636516865655</v>
+        <v>100.0785880173293</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2248.446136916521</v>
+        <v>1483.94050291251</v>
       </c>
       <c r="C11" t="n">
-        <v>1879.483619976109</v>
+        <v>1114.977985972098</v>
       </c>
       <c r="D11" t="n">
-        <v>1521.217921369358</v>
+        <v>756.7122873653476</v>
       </c>
       <c r="E11" t="n">
-        <v>1135.429668771114</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="F11" t="n">
-        <v>724.4437639815067</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G11" t="n">
-        <v>490.6170053669925</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H11" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>644.8079315733946</v>
+        <v>297.1279283498981</v>
       </c>
       <c r="L11" t="n">
-        <v>784.1365874146478</v>
+        <v>849.9411865960973</v>
       </c>
       <c r="M11" t="n">
-        <v>1219.059552207387</v>
+        <v>1481.658997579409</v>
       </c>
       <c r="N11" t="n">
-        <v>1413.39376509937</v>
+        <v>2108.966665639256</v>
       </c>
       <c r="O11" t="n">
-        <v>1960.554969866447</v>
+        <v>2279.135690956215</v>
       </c>
       <c r="P11" t="n">
         <v>2389.870016205742</v>
@@ -5071,22 +5071,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U11" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V11" t="n">
-        <v>2635.045976980643</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.045976980643</v>
+        <v>1874.079834888322</v>
       </c>
       <c r="X11" t="n">
-        <v>2635.045976980643</v>
+        <v>1874.079834888322</v>
       </c>
       <c r="Y11" t="n">
-        <v>2635.045976980643</v>
+        <v>1483.94050291251</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>483.4977100183844</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452694</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K12" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L12" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M12" t="n">
-        <v>1376.655075326359</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N12" t="n">
-        <v>2028.828954629068</v>
+        <v>2136.130580724115</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297828</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R12" t="n">
         <v>2613.934077382829</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>694.168088820343</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C13" t="n">
-        <v>525.2319058924361</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D13" t="n">
-        <v>375.5624076444644</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E13" t="n">
-        <v>375.5624076444644</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F13" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G13" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H13" t="n">
         <v>52.70091953961285</v>
@@ -5223,28 +5223,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>922.1576397183603</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V13" t="n">
-        <v>922.1576397183603</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W13" t="n">
-        <v>922.1576397183603</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X13" t="n">
-        <v>694.168088820343</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y13" t="n">
-        <v>694.168088820343</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1318.690691920173</v>
+        <v>1218.437593867876</v>
       </c>
       <c r="C14" t="n">
-        <v>1318.690691920173</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="D14" t="n">
-        <v>1318.690691920173</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E14" t="n">
-        <v>1318.690691920173</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F14" t="n">
-        <v>907.7047871305651</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G14" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H14" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I14" t="n">
         <v>52.70091953961285</v>
@@ -5293,7 +5293,7 @@
         <v>1968.337061396946</v>
       </c>
       <c r="O14" t="n">
-        <v>2170.746810619753</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P14" t="n">
         <v>2600.061856959047</v>
@@ -5308,22 +5308,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T14" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U14" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V14" t="n">
-        <v>1835.491524649934</v>
+        <v>2347.945421177924</v>
       </c>
       <c r="W14" t="n">
-        <v>1705.290531984294</v>
+        <v>1995.17676590781</v>
       </c>
       <c r="X14" t="n">
-        <v>1705.290531984294</v>
+        <v>1995.17676590781</v>
       </c>
       <c r="Y14" t="n">
-        <v>1705.290531984294</v>
+        <v>1605.037433931998</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D15" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G15" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H15" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L15" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M15" t="n">
-        <v>1265.215628536193</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N15" t="n">
-        <v>1917.389507838902</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O15" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P15" t="n">
-        <v>2575.515144118924</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q15" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R15" t="n">
         <v>2613.934077382829</v>
@@ -5390,7 +5390,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U15" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V15" t="n">
         <v>1804.187096684975</v>
@@ -5402,7 +5402,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J16" t="n">
         <v>52.70091953961285</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>489.0881582831306</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9359818608104</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V16" t="n">
-        <v>195.0871819246492</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1858.306804940709</v>
+        <v>1362.457193970465</v>
       </c>
       <c r="C17" t="n">
-        <v>1489.344288000297</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="D17" t="n">
-        <v>1131.078589393547</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E17" t="n">
-        <v>745.2903367953027</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F17" t="n">
-        <v>334.3044320056951</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
         <v>52.70091953961285</v>
@@ -5515,25 +5515,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K17" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>709.3115823537878</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M17" t="n">
-        <v>1341.029393337099</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N17" t="n">
-        <v>1942.166326942443</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O17" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P17" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W17" t="n">
-        <v>2635.045976980643</v>
+        <v>2126.062284207356</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.045976980643</v>
+        <v>1752.596525946276</v>
       </c>
       <c r="Y17" t="n">
-        <v>2244.906645004831</v>
+        <v>1362.457193970465</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662179</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850909</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238395</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183839</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452689</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
@@ -5624,13 +5624,13 @@
         <v>2464.467288245464</v>
       </c>
       <c r="T18" t="n">
-        <v>2267.477992405552</v>
+        <v>2267.477992405551</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V18" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.187096684974</v>
       </c>
       <c r="W18" t="n">
         <v>1549.949739956773</v>
@@ -5639,7 +5639,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
-        <v>155.3450402761098</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I19" t="n">
         <v>52.70091953961285</v>
@@ -5706,19 +5706,19 @@
         <v>827.0064043113226</v>
       </c>
       <c r="U19" t="n">
-        <v>827.0064043113226</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V19" t="n">
-        <v>827.0064043113226</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W19" t="n">
-        <v>537.5892342743621</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y19" t="n">
-        <v>309.5996833763447</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1031.394306626894</v>
+        <v>1509.138155103873</v>
       </c>
       <c r="C20" t="n">
-        <v>662.4317896864825</v>
+        <v>1140.175638163461</v>
       </c>
       <c r="D20" t="n">
-        <v>662.4317896864825</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="E20" t="n">
-        <v>276.6435370882382</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="F20" t="n">
-        <v>276.6435370882382</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G20" t="n">
-        <v>276.6435370882382</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H20" t="n">
         <v>52.70091953961285</v>
@@ -5752,25 +5752,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K20" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>1030.215540799241</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M20" t="n">
-        <v>1216.914953624649</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N20" t="n">
-        <v>1623.585605852676</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O20" t="n">
-        <v>2170.746810619753</v>
+        <v>2125.816020304062</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959047</v>
+        <v>2555.131066643356</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5785,19 +5785,19 @@
         <v>2478.830939477471</v>
       </c>
       <c r="U20" t="n">
-        <v>2478.830939477471</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V20" t="n">
-        <v>2147.7680521339</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W20" t="n">
-        <v>1794.999396863786</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="X20" t="n">
-        <v>1421.533638602706</v>
+        <v>1541.307693608937</v>
       </c>
       <c r="Y20" t="n">
-        <v>1031.394306626894</v>
+        <v>1541.307693608937</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D21" t="n">
         <v>642.7351650238404</v>
@@ -5822,7 +5822,7 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H21" t="n">
         <v>98.60577654929637</v>
@@ -5831,25 +5831,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K21" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1265.215628536193</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N21" t="n">
-        <v>1917.389507838902</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q21" t="n">
         <v>2635.045976980643</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.9871361687179</v>
+        <v>109.3563703832372</v>
       </c>
       <c r="C22" t="n">
-        <v>870.9871361687179</v>
+        <v>109.3563703832372</v>
       </c>
       <c r="D22" t="n">
-        <v>720.8704967563822</v>
+        <v>109.3563703832372</v>
       </c>
       <c r="E22" t="n">
-        <v>572.9574031739891</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F22" t="n">
-        <v>426.0674556760787</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H22" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I22" t="n">
         <v>52.70091953961285</v>
@@ -5937,25 +5937,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T22" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V22" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W22" t="n">
-        <v>1052.635600998958</v>
+        <v>330.1489495267674</v>
       </c>
       <c r="X22" t="n">
-        <v>1052.635600998958</v>
+        <v>330.1489495267674</v>
       </c>
       <c r="Y22" t="n">
-        <v>1052.635600998958</v>
+        <v>109.3563703832372</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2452.998035652587</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="C23" t="n">
         <v>2084.035518712175</v>
@@ -5989,22 +5989,22 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J23" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K23" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L23" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M23" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N23" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O23" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P23" t="n">
         <v>3454.413795556132</v>
@@ -6016,25 +6016,25 @@
         <v>3699.589756331033</v>
       </c>
       <c r="S23" t="n">
-        <v>3699.589756331033</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T23" t="n">
-        <v>3484.789894598744</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="U23" t="n">
-        <v>3484.789894598744</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="V23" t="n">
-        <v>3484.789894598744</v>
+        <v>3289.683015573012</v>
       </c>
       <c r="W23" t="n">
-        <v>3484.789894598744</v>
+        <v>2936.914360302897</v>
       </c>
       <c r="X23" t="n">
-        <v>3229.737207692521</v>
+        <v>2860.774690752109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2839.597875716709</v>
+        <v>2470.635358776297</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J24" t="n">
-        <v>73.99179512662066</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K24" t="n">
-        <v>141.5996147899777</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L24" t="n">
-        <v>645.9611546560963</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M24" t="n">
-        <v>1286.506504123201</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N24" t="n">
-        <v>1959.712196375984</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O24" t="n">
-        <v>2509.148205128707</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P24" t="n">
-        <v>2617.837832656006</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q24" t="n">
         <v>2656.33685256765</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C25" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D25" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E25" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F25" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G25" t="n">
         <v>73.99179512662066</v>
@@ -6171,28 +6171,28 @@
         <v>1073.926476585965</v>
       </c>
       <c r="R25" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S25" t="n">
-        <v>736.0082305577735</v>
+        <v>866.4861918383708</v>
       </c>
       <c r="T25" t="n">
-        <v>510.3790338701384</v>
+        <v>866.4861918383708</v>
       </c>
       <c r="U25" t="n">
-        <v>242.5986401312373</v>
+        <v>866.4861918383708</v>
       </c>
       <c r="V25" t="n">
-        <v>242.5986401312373</v>
+        <v>611.801703632484</v>
       </c>
       <c r="W25" t="n">
-        <v>242.5986401312373</v>
+        <v>322.3845335955234</v>
       </c>
       <c r="X25" t="n">
-        <v>242.5986401312373</v>
+        <v>94.39498269750601</v>
       </c>
       <c r="Y25" t="n">
-        <v>242.5986401312373</v>
+        <v>94.39498269750601</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2391.051611227038</v>
+        <v>1240.846680926024</v>
       </c>
       <c r="C26" t="n">
-        <v>2084.035518712175</v>
+        <v>871.8841639856125</v>
       </c>
       <c r="D26" t="n">
-        <v>1725.769820105425</v>
+        <v>513.6184653788621</v>
       </c>
       <c r="E26" t="n">
-        <v>1339.98156750718</v>
+        <v>513.6184653788621</v>
       </c>
       <c r="F26" t="n">
-        <v>928.9956627175729</v>
+        <v>102.6325605892545</v>
       </c>
       <c r="G26" t="n">
-        <v>511.9078809540003</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="H26" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J26" t="n">
-        <v>262.631694140357</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K26" t="n">
-        <v>666.0988071604024</v>
+        <v>666.0988071604022</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406602</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389914</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N26" t="n">
         <v>2477.93754444976</v>
@@ -6244,16 +6244,16 @@
         <v>3025.098749216837</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556132</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331033</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S26" t="n">
-        <v>3543.374718827861</v>
+        <v>3543.37471882786</v>
       </c>
       <c r="T26" t="n">
         <v>3328.574857095572</v>
@@ -6265,13 +6265,13 @@
         <v>2743.820266497152</v>
       </c>
       <c r="W26" t="n">
-        <v>2391.051611227038</v>
+        <v>2391.051611227037</v>
       </c>
       <c r="X26" t="n">
-        <v>2391.051611227038</v>
+        <v>2017.585852965958</v>
       </c>
       <c r="Y26" t="n">
-        <v>2391.051611227038</v>
+        <v>1627.446520990146</v>
       </c>
     </row>
     <row r="27">
@@ -6293,7 +6293,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G27" t="n">
         <v>220.8126299914996</v>
@@ -6302,28 +6302,28 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I27" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J27" t="n">
-        <v>89.75387383628832</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K27" t="n">
-        <v>157.3616934996454</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L27" t="n">
-        <v>661.7232333657639</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.268582832869</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N27" t="n">
-        <v>1975.474275085651</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O27" t="n">
-        <v>2524.910283838374</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P27" t="n">
-        <v>2633.599911365673</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q27" t="n">
         <v>2656.33685256765</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>834.042586696812</v>
+        <v>540.6283731259662</v>
       </c>
       <c r="C28" t="n">
-        <v>834.042586696812</v>
+        <v>540.6283731259662</v>
       </c>
       <c r="D28" t="n">
-        <v>834.042586696812</v>
+        <v>390.5117337136304</v>
       </c>
       <c r="E28" t="n">
-        <v>686.1294931144189</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="F28" t="n">
-        <v>539.2395456165085</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G28" t="n">
-        <v>370.6327006118919</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="H28" t="n">
-        <v>216.378057511657</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I28" t="n">
-        <v>91.86638288598327</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J28" t="n">
-        <v>73.99179512662066</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="K28" t="n">
         <v>175.0397247222305</v>
@@ -6411,25 +6411,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S28" t="n">
-        <v>1073.926476585965</v>
+        <v>866.4861918383708</v>
       </c>
       <c r="T28" t="n">
-        <v>1073.926476585965</v>
+        <v>640.8569951507358</v>
       </c>
       <c r="U28" t="n">
-        <v>1073.926476585965</v>
+        <v>640.8569951507358</v>
       </c>
       <c r="V28" t="n">
-        <v>834.042586696812</v>
+        <v>540.6283731259662</v>
       </c>
       <c r="W28" t="n">
-        <v>834.042586696812</v>
+        <v>540.6283731259662</v>
       </c>
       <c r="X28" t="n">
-        <v>834.042586696812</v>
+        <v>540.6283731259662</v>
       </c>
       <c r="Y28" t="n">
-        <v>834.042586696812</v>
+        <v>540.6283731259662</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>878.3806881546666</v>
+        <v>1215.141270289868</v>
       </c>
       <c r="C29" t="n">
-        <v>796.7548707446076</v>
+        <v>1215.141270289868</v>
       </c>
       <c r="D29" t="n">
-        <v>438.4891721378571</v>
+        <v>856.8755716831174</v>
       </c>
       <c r="E29" t="n">
-        <v>52.70091953961286</v>
+        <v>471.0873190848731</v>
       </c>
       <c r="F29" t="n">
-        <v>52.70091953961286</v>
+        <v>471.0873190848731</v>
       </c>
       <c r="G29" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="H29" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="I29" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="J29" t="n">
-        <v>73.93516953299616</v>
+        <v>75.23378731468385</v>
       </c>
       <c r="K29" t="n">
-        <v>156.4983241075885</v>
+        <v>321.6961558056076</v>
       </c>
       <c r="L29" t="n">
-        <v>709.3115823537878</v>
+        <v>874.5094140518069</v>
       </c>
       <c r="M29" t="n">
-        <v>1341.029393337099</v>
+        <v>1061.208826877215</v>
       </c>
       <c r="N29" t="n">
-        <v>1968.337061396946</v>
+        <v>1688.516494937061</v>
       </c>
       <c r="O29" t="n">
-        <v>2279.135690956216</v>
+        <v>2235.677699704138</v>
       </c>
       <c r="P29" t="n">
-        <v>2389.870016205742</v>
+        <v>2664.992746043433</v>
       </c>
       <c r="Q29" t="n">
-        <v>2635.045976980643</v>
+        <v>2699.976866065028</v>
       </c>
       <c r="R29" t="n">
-        <v>2635.045976980643</v>
+        <v>2699.976866065028</v>
       </c>
       <c r="S29" t="n">
-        <v>2635.045976980643</v>
+        <v>2543.761828561856</v>
       </c>
       <c r="T29" t="n">
-        <v>2635.045976980643</v>
+        <v>2543.761828561856</v>
       </c>
       <c r="U29" t="n">
-        <v>2381.354273725794</v>
+        <v>2543.761828561856</v>
       </c>
       <c r="V29" t="n">
-        <v>2381.354273725794</v>
+        <v>2212.698941218285</v>
       </c>
       <c r="W29" t="n">
-        <v>2028.58561845568</v>
+        <v>1991.880442329801</v>
       </c>
       <c r="X29" t="n">
-        <v>1655.1198601946</v>
+        <v>1991.880442329801</v>
       </c>
       <c r="Y29" t="n">
-        <v>1264.980528218788</v>
+        <v>1601.74111035399</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>966.1226039662187</v>
+        <v>967.4212217479063</v>
       </c>
       <c r="C30" t="n">
-        <v>791.6695746850917</v>
+        <v>792.9681924667793</v>
       </c>
       <c r="D30" t="n">
-        <v>642.7351650238404</v>
+        <v>644.0337828055281</v>
       </c>
       <c r="E30" t="n">
-        <v>483.4977100183849</v>
+        <v>484.7963278000726</v>
       </c>
       <c r="F30" t="n">
-        <v>336.9631520452699</v>
+        <v>338.2617698269576</v>
       </c>
       <c r="G30" t="n">
-        <v>199.5217544044918</v>
+        <v>200.8203721861795</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929637</v>
+        <v>99.90439433098408</v>
       </c>
       <c r="I30" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="K30" t="n">
-        <v>120.3087392029699</v>
+        <v>121.6073569846576</v>
       </c>
       <c r="L30" t="n">
-        <v>624.6702790690885</v>
+        <v>438.7158786036414</v>
       </c>
       <c r="M30" t="n">
-        <v>1265.215628536193</v>
+        <v>1079.261228070746</v>
       </c>
       <c r="N30" t="n">
-        <v>1917.389507838902</v>
+        <v>1747.50550242184</v>
       </c>
       <c r="O30" t="n">
-        <v>2466.825516591625</v>
+        <v>2296.941511174563</v>
       </c>
       <c r="P30" t="n">
-        <v>2612.309035778665</v>
+        <v>2405.631138701862</v>
       </c>
       <c r="Q30" t="n">
-        <v>2635.045976980643</v>
+        <v>2636.34459476233</v>
       </c>
       <c r="R30" t="n">
-        <v>2613.934077382829</v>
+        <v>2615.232695164517</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.467288245464</v>
+        <v>2465.765906027152</v>
       </c>
       <c r="T30" t="n">
-        <v>2267.477992405552</v>
+        <v>2268.776610187239</v>
       </c>
       <c r="U30" t="n">
-        <v>2039.339204916718</v>
+        <v>2040.637822698405</v>
       </c>
       <c r="V30" t="n">
-        <v>1804.187096684975</v>
+        <v>1805.485714466663</v>
       </c>
       <c r="W30" t="n">
-        <v>1549.949739956773</v>
+        <v>1551.248357738461</v>
       </c>
       <c r="X30" t="n">
-        <v>1342.09823975124</v>
+        <v>1343.396857532928</v>
       </c>
       <c r="Y30" t="n">
-        <v>1134.337940986287</v>
+        <v>1135.636558767974</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.70091953961286</v>
+        <v>536.7924914603077</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961286</v>
+        <v>367.8563085324008</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961286</v>
+        <v>217.7396691200651</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961286</v>
+        <v>69.82657553767197</v>
       </c>
       <c r="F31" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="G31" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="H31" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="I31" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="J31" t="n">
-        <v>52.70091953961286</v>
+        <v>53.99953732130056</v>
       </c>
       <c r="K31" t="n">
-        <v>153.7488491352227</v>
+        <v>155.0474669169104</v>
       </c>
       <c r="L31" t="n">
-        <v>338.581844036041</v>
+        <v>339.8804618177288</v>
       </c>
       <c r="M31" t="n">
-        <v>543.851444755279</v>
+        <v>545.1500625369667</v>
       </c>
       <c r="N31" t="n">
-        <v>749.6748095913833</v>
+        <v>750.973427373071</v>
       </c>
       <c r="O31" t="n">
-        <v>923.7697049799822</v>
+        <v>925.0683227616698</v>
       </c>
       <c r="P31" t="n">
-        <v>1049.217281578598</v>
+        <v>1050.515899360285</v>
       </c>
       <c r="Q31" t="n">
-        <v>1052.635600998958</v>
+        <v>1053.934218780645</v>
       </c>
       <c r="R31" t="n">
-        <v>1052.635600998958</v>
+        <v>1053.934218780645</v>
       </c>
       <c r="S31" t="n">
-        <v>1052.635600998958</v>
+        <v>1053.934218780645</v>
       </c>
       <c r="T31" t="n">
-        <v>827.0064043113226</v>
+        <v>1053.934218780645</v>
       </c>
       <c r="U31" t="n">
-        <v>596.8025777824604</v>
+        <v>764.782042358325</v>
       </c>
       <c r="V31" t="n">
-        <v>342.1180895765735</v>
+        <v>764.782042358325</v>
       </c>
       <c r="W31" t="n">
-        <v>52.70091953961286</v>
+        <v>764.782042358325</v>
       </c>
       <c r="X31" t="n">
-        <v>52.70091953961286</v>
+        <v>536.7924914603077</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.70091953961286</v>
+        <v>536.7924914603077</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1132.072391409515</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="C32" t="n">
-        <v>1132.072391409515</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="D32" t="n">
-        <v>1132.072391409515</v>
+        <v>1173.80006912892</v>
       </c>
       <c r="E32" t="n">
-        <v>1132.072391409515</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="F32" t="n">
-        <v>721.0864866199079</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G32" t="n">
         <v>370.9240347671034</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J32" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K32" t="n">
-        <v>323.9039731279416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L32" t="n">
-        <v>876.7172313741407</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M32" t="n">
-        <v>1508.435042357452</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.742710417299</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O32" t="n">
-        <v>2305.911735734258</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P32" t="n">
-        <v>2416.646060983785</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6733,19 +6733,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2634.370783782539</v>
       </c>
       <c r="V32" t="n">
-        <v>2635.045976980643</v>
+        <v>2303.307896438968</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.277321710529</v>
+        <v>1950.539241168854</v>
       </c>
       <c r="X32" t="n">
-        <v>1908.811563449449</v>
+        <v>1950.539241168854</v>
       </c>
       <c r="Y32" t="n">
-        <v>1518.672231473637</v>
+        <v>1560.399909193042</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J33" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K33" t="n">
-        <v>120.3087392029699</v>
+        <v>316.2580578546455</v>
       </c>
       <c r="L33" t="n">
-        <v>257.5383372186639</v>
+        <v>453.4876558703395</v>
       </c>
       <c r="M33" t="n">
-        <v>898.0836866857685</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N33" t="n">
-        <v>1550.257565988478</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O33" t="n">
-        <v>2099.693574741201</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P33" t="n">
-        <v>2523.661343222037</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.045976980643</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1635.111295521298</v>
+        <v>522.4523551423747</v>
       </c>
       <c r="C34" t="n">
-        <v>1635.111295521298</v>
+        <v>522.4523551423747</v>
       </c>
       <c r="D34" t="n">
-        <v>1635.111295521298</v>
+        <v>522.4523551423747</v>
       </c>
       <c r="E34" t="n">
-        <v>1635.111295521298</v>
+        <v>522.4523551423747</v>
       </c>
       <c r="F34" t="n">
-        <v>1635.111295521298</v>
+        <v>375.5624076444644</v>
       </c>
       <c r="G34" t="n">
-        <v>1635.111295521298</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K34" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L34" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M34" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N34" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O34" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P34" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>2635.045976980643</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T34" t="n">
-        <v>2635.045976980643</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U34" t="n">
-        <v>2407.202504662162</v>
+        <v>743.2449342859048</v>
       </c>
       <c r="V34" t="n">
-        <v>2152.518016456276</v>
+        <v>743.2449342859048</v>
       </c>
       <c r="W34" t="n">
-        <v>1863.100846419315</v>
+        <v>743.2449342859048</v>
       </c>
       <c r="X34" t="n">
-        <v>1635.111295521298</v>
+        <v>743.2449342859048</v>
       </c>
       <c r="Y34" t="n">
-        <v>1635.111295521298</v>
+        <v>522.4523551423747</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>907.7047871305651</v>
+        <v>1484.841046679629</v>
       </c>
       <c r="C35" t="n">
-        <v>907.7047871305651</v>
+        <v>1115.878529739218</v>
       </c>
       <c r="D35" t="n">
-        <v>907.7047871305651</v>
+        <v>1115.878529739218</v>
       </c>
       <c r="E35" t="n">
-        <v>907.7047871305651</v>
+        <v>730.0902771409733</v>
       </c>
       <c r="F35" t="n">
-        <v>907.7047871305651</v>
+        <v>319.1043723513657</v>
       </c>
       <c r="G35" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J35" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K35" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L35" t="n">
-        <v>1030.215540799241</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M35" t="n">
-        <v>1537.640273297156</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N35" t="n">
-        <v>1731.974486189138</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O35" t="n">
-        <v>2279.135690956216</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2569.94128171343</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T35" t="n">
-        <v>2355.141419981142</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U35" t="n">
-        <v>2355.141419981142</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V35" t="n">
-        <v>2024.078532637571</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W35" t="n">
-        <v>1671.309877367457</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X35" t="n">
-        <v>1297.844119106377</v>
+        <v>2261.580218719563</v>
       </c>
       <c r="Y35" t="n">
-        <v>907.7047871305651</v>
+        <v>1871.440886743751</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J36" t="n">
-        <v>89.49481119935432</v>
+        <v>61.47520867925999</v>
       </c>
       <c r="K36" t="n">
-        <v>157.1026308627114</v>
+        <v>390.9036129850699</v>
       </c>
       <c r="L36" t="n">
-        <v>661.4641707288299</v>
+        <v>528.1332110007638</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.009520195935</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N36" t="n">
-        <v>1954.183399498644</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O36" t="n">
-        <v>2503.619408251367</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P36" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.045976980643</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="C37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E37" t="n">
-        <v>664.8386175274111</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F37" t="n">
-        <v>517.9486700295007</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G37" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H37" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I37" t="n">
-        <v>70.57550729897548</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>919.5231057332979</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T37" t="n">
-        <v>919.5231057332979</v>
+        <v>845.195316251363</v>
       </c>
       <c r="U37" t="n">
-        <v>919.5231057332979</v>
+        <v>556.0431398290427</v>
       </c>
       <c r="V37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="W37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="X37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="Y37" t="n">
-        <v>664.8386175274111</v>
+        <v>347.5039606199163</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1522.211723385327</v>
+        <v>1132.072391409515</v>
       </c>
       <c r="C38" t="n">
-        <v>1153.249206444915</v>
+        <v>763.1098744691033</v>
       </c>
       <c r="D38" t="n">
-        <v>794.983507838165</v>
+        <v>404.8441758623528</v>
       </c>
       <c r="E38" t="n">
-        <v>409.1952552399208</v>
+        <v>404.8441758623528</v>
       </c>
       <c r="F38" t="n">
-        <v>52.70091953961286</v>
+        <v>404.8441758623528</v>
       </c>
       <c r="G38" t="n">
-        <v>52.70091953961286</v>
+        <v>404.8441758623528</v>
       </c>
       <c r="H38" t="n">
-        <v>52.70091953961286</v>
+        <v>86.62106063486226</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J38" t="n">
         <v>73.93516953299616</v>
@@ -7186,13 +7186,13 @@
         <v>1341.029393337099</v>
       </c>
       <c r="N38" t="n">
-        <v>1942.166326942444</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O38" t="n">
         <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7213,13 +7213,13 @@
         <v>2635.045976980643</v>
       </c>
       <c r="W38" t="n">
-        <v>2282.277321710529</v>
+        <v>2282.277321710528</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.811563449449</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="Y38" t="n">
-        <v>1908.811563449449</v>
+        <v>1518.672231473637</v>
       </c>
     </row>
     <row r="39">
@@ -7250,34 +7250,34 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J39" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K39" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L39" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M39" t="n">
-        <v>1265.215628536193</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N39" t="n">
-        <v>1917.389507838902</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O39" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P39" t="n">
-        <v>2575.515144118924</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R39" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S39" t="n">
         <v>2464.467288245464</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1635.111295521298</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="C40" t="n">
-        <v>1635.111295521298</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D40" t="n">
-        <v>1635.111295521298</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E40" t="n">
-        <v>1635.111295521298</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F40" t="n">
-        <v>1635.111295521298</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G40" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H40" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I40" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J40" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K40" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L40" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M40" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N40" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O40" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P40" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q40" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R40" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U40" t="n">
-        <v>2635.045976980643</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V40" t="n">
-        <v>2554.959060430046</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W40" t="n">
-        <v>2265.541890393085</v>
+        <v>402.9562293744692</v>
       </c>
       <c r="X40" t="n">
-        <v>2037.552339495068</v>
+        <v>402.9562293744692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1816.759760351538</v>
+        <v>402.9562293744692</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>739.8865517075151</v>
+        <v>1994.754433661672</v>
       </c>
       <c r="C41" t="n">
-        <v>370.9240347671034</v>
+        <v>1625.79191672126</v>
       </c>
       <c r="D41" t="n">
-        <v>370.9240347671034</v>
+        <v>1267.52621811451</v>
       </c>
       <c r="E41" t="n">
-        <v>370.9240347671034</v>
+        <v>901.6029101566</v>
       </c>
       <c r="F41" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G41" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J41" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L41" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M41" t="n">
-        <v>1341.029393337099</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N41" t="n">
-        <v>1968.337061396946</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O41" t="n">
-        <v>2138.506086713905</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P41" t="n">
-        <v>2567.8211330532</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7441,22 +7441,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T41" t="n">
-        <v>2573.923024622213</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U41" t="n">
-        <v>2573.923024622213</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V41" t="n">
-        <v>2242.860137278642</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W41" t="n">
-        <v>1890.091482008528</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X41" t="n">
-        <v>1516.625723747449</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="Y41" t="n">
-        <v>1126.486391771637</v>
+        <v>2381.354273725794</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J42" t="n">
-        <v>52.70091953961286</v>
+        <v>61.47520867925999</v>
       </c>
       <c r="K42" t="n">
-        <v>382.1293238454227</v>
+        <v>390.9036129850699</v>
       </c>
       <c r="L42" t="n">
-        <v>886.4908637115414</v>
+        <v>528.1332110007638</v>
       </c>
       <c r="M42" t="n">
-        <v>1065.988200066146</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.905258545106</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.045976980643</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>500.4034201934284</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C43" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D43" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E43" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F43" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G43" t="n">
-        <v>331.4672372655215</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H43" t="n">
-        <v>177.2125941652866</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7599,22 +7599,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>1052.635600998958</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U43" t="n">
-        <v>975.8804875428453</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V43" t="n">
-        <v>721.1959993369585</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W43" t="n">
-        <v>721.1959993369585</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="X43" t="n">
-        <v>721.1959993369585</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y43" t="n">
-        <v>500.4034201934284</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1206.733776870418</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="C44" t="n">
-        <v>837.771259930006</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="D44" t="n">
-        <v>837.771259930006</v>
+        <v>1174.475262327024</v>
       </c>
       <c r="E44" t="n">
-        <v>837.771259930006</v>
+        <v>788.6870097287799</v>
       </c>
       <c r="F44" t="n">
-        <v>837.771259930006</v>
+        <v>377.7011049391724</v>
       </c>
       <c r="G44" t="n">
-        <v>420.6834781664334</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H44" t="n">
-        <v>102.4603629389429</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J44" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K44" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L44" t="n">
-        <v>709.3115823537878</v>
+        <v>809.5785249674213</v>
       </c>
       <c r="M44" t="n">
-        <v>1341.029393337099</v>
+        <v>996.277937792829</v>
       </c>
       <c r="N44" t="n">
-        <v>1942.166326942444</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O44" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7675,25 +7675,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T44" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U44" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V44" t="n">
-        <v>1932.968190401612</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W44" t="n">
-        <v>1580.199535131497</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X44" t="n">
-        <v>1206.733776870418</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y44" t="n">
-        <v>1206.733776870418</v>
+        <v>1561.075102391146</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J45" t="n">
         <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>743.329530925984</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M45" t="n">
-        <v>1383.874880393089</v>
+        <v>1645.695465035541</v>
       </c>
       <c r="N45" t="n">
-        <v>1582.531622045753</v>
+        <v>1844.352206688206</v>
       </c>
       <c r="O45" t="n">
-        <v>2131.967630798476</v>
+        <v>2003.864519356967</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.935399279313</v>
+        <v>2427.832287837804</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.70091953961286</v>
+        <v>616.3026479628311</v>
       </c>
       <c r="C46" t="n">
-        <v>52.70091953961286</v>
+        <v>447.3664650349242</v>
       </c>
       <c r="D46" t="n">
-        <v>52.70091953961286</v>
+        <v>297.2498256225884</v>
       </c>
       <c r="E46" t="n">
-        <v>52.70091953961286</v>
+        <v>297.2498256225884</v>
       </c>
       <c r="F46" t="n">
-        <v>52.70091953961286</v>
+        <v>150.3598781246781</v>
       </c>
       <c r="G46" t="n">
-        <v>52.70091953961286</v>
+        <v>150.3598781246781</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J46" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K46" t="n">
         <v>153.7488491352227</v>
@@ -7839,19 +7839,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U46" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V46" t="n">
-        <v>508.7989363707505</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W46" t="n">
-        <v>219.3817663337899</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="X46" t="n">
-        <v>52.70091953961286</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.70091953961286</v>
+        <v>797.9511127930708</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>99.34619872439555</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>90.85420985079944</v>
       </c>
       <c r="L3" t="n">
-        <v>290.5460627419318</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9698727974544</v>
+        <v>461.031353803329</v>
       </c>
       <c r="N3" t="n">
-        <v>441.3913588825877</v>
+        <v>361.6577100708986</v>
       </c>
       <c r="O3" t="n">
-        <v>79.22439254344238</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>102.8381633515218</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>52.78970195316195</v>
+        <v>55.62937354455035</v>
       </c>
       <c r="K6" t="n">
-        <v>201.2143791897466</v>
+        <v>180.4789674023255</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>342.7901831334736</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>73.52509652576938</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>142.0501052952622</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>250.7308605730626</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>193.947094346785</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>458.0981188384286</v>
+        <v>414.5834604977823</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8941,10 +8941,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>32.56638778368435</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.16554713105194</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>410.9118391044057</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>213.8698272853573</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>214.4812518545905</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>45.38463668251659</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384286</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.9212916259269</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>22.1544968078553</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>165.5547615316479</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>142.0501052952627</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10196,22 +10196,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>181.6958824275655</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384287</v>
+        <v>474.330841109525</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>37.16554713105188</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>185.2684807830938</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>197.9286046986622</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.54312379457386</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M35" t="n">
-        <v>323.9649693661689</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>43.39875231298034</v>
+        <v>15.09612350480427</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10834,10 +10834,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>410.9118391044061</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>37.16554713105241</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,25 +11062,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>98.93303561408925</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.56638778368483</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>6.233205181928369</v>
+        <v>15.09612350480427</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>378.0407240669647</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>194.7955419930571</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>410.9118391044061</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.94306717106312</v>
+        <v>186.3401494352142</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>259.4537272185523</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8049277072328</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>334.3766074205886</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>191.2840769512559</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.5985725955124</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>197.6762285886737</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>220.9166871300394</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.914646385574656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22640,13 +22640,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.0771654343882</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6630472765539</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>80.2261895564335</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>83.62066277891583</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.0364028857993</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7676790163485</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>160.2418294657686</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.7352246390705</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>77.57184592947927</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.46368460462747</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>95.51761147764171</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>226.9914879665378</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3068493378303</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>324.4730227344726</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>154.0026954195591</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>57.85344367675359</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>175.6400576100461</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.683518135681</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2284658114856</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>60.90850646744371</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>63.98519506579788</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3339031445446</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.715125164396596</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>46.90389179293925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.14087046657036</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -22995,22 +22995,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.1380819688299</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2831888357319</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>57.85344367675359</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>175.6400576100461</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.683518135681</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2284658114856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>230.7922979598787</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23117,7 +23117,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>63.98519506579866</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3339031445446</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.3851676237297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.6904011488205</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.822400620186</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2831888357319</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>181.4284129175678</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>59.69113738328161</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4426697527203771</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
         <v>123.266557879417</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
         <v>205.3658819001186</v>
@@ -23472,16 +23472,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>43.52270822544347</v>
       </c>
       <c r="W14" t="n">
-        <v>220.3419859784298</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23673,10 +23673,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>247.3373313870284</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>218.1444957233459</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>134.1294266045154</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>21.648878350285</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
         <v>17.69584188176898</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>58.35886639452332</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>350.8859985434676</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>93.33769270207645</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24025,7 +24025,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>90.34506631138103</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>73.26656032811881</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
         <v>17.69584188176898</v>
@@ -24177,10 +24177,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.260654658097</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>117.228940641308</v>
+        <v>294.3528278231886</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>159.6328244867608</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H25" t="n">
         <v>152.7120966692326</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>21.15806485658487</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>61.32696018129366</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>384.5625461379292</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,25 +24606,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>14.65259233356608</v>
+        <v>152.9113075193061</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>284.4633325350492</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>130.630654817814</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>129.7522801887235</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24891,19 +24891,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>58.3588663945234</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>66.25607661166032</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>250.4863449561778</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>123.266557879417</v>
@@ -25125,25 +25125,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>60.69561706280132</v>
+        <v>185.3297765122934</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>149.1774856623015</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>90.19923881359959</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>73.58451158711551</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>45.68385590679287</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94665339840662</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>84.91510120959339</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>152.7120966692326</v>
@@ -25605,19 +25605,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>172.8515959387366</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>181.7387184102725</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>19.66629519393126</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>412.9169039459368</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>152.1401402801205</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,10 +25803,10 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J43" t="n">
         <v>17.69584188176898</v>
@@ -25839,22 +25839,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U43" t="n">
-        <v>210.2730923365458</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>91.16672040037292</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>69.23419192855354</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7120966692326</v>
+        <v>56.02972767001798</v>
       </c>
       <c r="I46" t="n">
         <v>123.266557879417</v>
@@ -26079,16 +26079,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>60.69561706280189</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>554470.6511393692</v>
+        <v>1044951.450420513</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>745365.3880353286</v>
+        <v>1046995.70071835</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745365.3880353286</v>
+        <v>1047128.487110604</v>
       </c>
     </row>
     <row r="5">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>866801.8458033664</v>
+        <v>866801.8458033663</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753467.5376000438</v>
+        <v>760380.2616590732</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753467.5376000438</v>
+        <v>753467.5376000437</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753467.5376000439</v>
+        <v>753467.5376000437</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753467.5376000439</v>
+        <v>753467.5376000437</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226819.1471570211</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="C2" t="n">
-        <v>313264.8863491882</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="D2" t="n">
-        <v>313264.8863491879</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
         <v>326292.3452571629</v>
       </c>
       <c r="F2" t="n">
-        <v>326292.3452571629</v>
+        <v>326292.3452571631</v>
       </c>
       <c r="G2" t="n">
+        <v>326292.3452571628</v>
+      </c>
+      <c r="H2" t="n">
         <v>326292.345257163</v>
-      </c>
-      <c r="H2" t="n">
-        <v>326292.3452571628</v>
       </c>
       <c r="I2" t="n">
         <v>371509.2212626564</v>
       </c>
       <c r="J2" t="n">
-        <v>371509.2212626562</v>
+        <v>371509.2212626564</v>
       </c>
       <c r="K2" t="n">
+        <v>329050.3078864188</v>
+      </c>
+      <c r="L2" t="n">
+        <v>326292.3452571629</v>
+      </c>
+      <c r="M2" t="n">
         <v>326292.3452571631</v>
       </c>
-      <c r="L2" t="n">
-        <v>326292.3452571632</v>
-      </c>
-      <c r="M2" t="n">
-        <v>326292.345257163</v>
-      </c>
       <c r="N2" t="n">
-        <v>326292.345257163</v>
+        <v>326292.3452571631</v>
       </c>
       <c r="O2" t="n">
-        <v>326292.3452571633</v>
+        <v>326292.3452571628</v>
       </c>
       <c r="P2" t="n">
-        <v>326292.3452571628</v>
+        <v>326292.3452571631</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>246444.3402780504</v>
+        <v>261936.5316977451</v>
       </c>
       <c r="C3" t="n">
-        <v>309322.1803465875</v>
+        <v>276628.6396550475</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17009.55206423259</v>
       </c>
       <c r="E3" t="n">
-        <v>184057.5967969422</v>
+        <v>184057.5967969423</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>70771.13658715878</v>
       </c>
       <c r="J3" t="n">
-        <v>99247.6634828172</v>
+        <v>102728.1192491924</v>
       </c>
       <c r="K3" t="n">
-        <v>3423.575314857163</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59878.09215518081</v>
+        <v>288966.8144898048</v>
       </c>
       <c r="C4" t="n">
-        <v>62379.4955545386</v>
+        <v>210975.8474543771</v>
       </c>
       <c r="D4" t="n">
-        <v>62379.4955545386</v>
+        <v>205909.8635325273</v>
       </c>
       <c r="E4" t="n">
-        <v>42070.66996223802</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="F4" t="n">
         <v>42070.66996223803</v>
@@ -26444,22 +26444,22 @@
         <v>56875.79859469587</v>
       </c>
       <c r="K4" t="n">
+        <v>42973.69544955128</v>
+      </c>
+      <c r="L4" t="n">
         <v>42070.66996223803</v>
-      </c>
-      <c r="L4" t="n">
-        <v>42070.66996223804</v>
       </c>
       <c r="M4" t="n">
         <v>42070.66996223803</v>
       </c>
       <c r="N4" t="n">
-        <v>42070.66996223804</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="O4" t="n">
-        <v>42070.66996223804</v>
+        <v>42070.66996223803</v>
       </c>
       <c r="P4" t="n">
-        <v>42070.66996223804</v>
+        <v>42070.66996223803</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59389.95430584683</v>
+        <v>60448.36258502994</v>
       </c>
       <c r="C5" t="n">
-        <v>81623.75293431574</v>
+        <v>80332.17907069589</v>
       </c>
       <c r="D5" t="n">
         <v>81623.75293431572</v>
@@ -26496,22 +26496,22 @@
         <v>69171.54328360151</v>
       </c>
       <c r="K5" t="n">
-        <v>52990.47783747559</v>
+        <v>53977.42735155825</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138893.239582057</v>
+        <v>-159778.7353472243</v>
       </c>
       <c r="C6" t="n">
-        <v>-140060.5424862537</v>
+        <v>-116363.6927547648</v>
       </c>
       <c r="D6" t="n">
-        <v>169261.6378603335</v>
+        <v>147029.8048942801</v>
       </c>
       <c r="E6" t="n">
-        <v>47173.60066050706</v>
+        <v>41479.02665286186</v>
       </c>
       <c r="F6" t="n">
-        <v>231231.1974574493</v>
+        <v>225536.6234498044</v>
       </c>
       <c r="G6" t="n">
-        <v>231231.1974574494</v>
+        <v>225536.623449804</v>
       </c>
       <c r="H6" t="n">
-        <v>231231.1974574492</v>
+        <v>225536.6234498043</v>
       </c>
       <c r="I6" t="n">
-        <v>174690.7427972002</v>
+        <v>171051.4813352594</v>
       </c>
       <c r="J6" t="n">
-        <v>146214.2159015416</v>
+        <v>139094.4986732257</v>
       </c>
       <c r="K6" t="n">
-        <v>227807.6221425923</v>
+        <v>226529.9730153576</v>
       </c>
       <c r="L6" t="n">
-        <v>231231.1974574495</v>
+        <v>225536.6234498041</v>
       </c>
       <c r="M6" t="n">
-        <v>231231.1974574493</v>
+        <v>225536.6234498043</v>
       </c>
       <c r="N6" t="n">
-        <v>231231.1974574494</v>
+        <v>225536.6234498044</v>
       </c>
       <c r="O6" t="n">
-        <v>231231.1974574496</v>
+        <v>225536.623449804</v>
       </c>
       <c r="P6" t="n">
-        <v>231231.1974574492</v>
+        <v>225536.6234498043</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.8301897156749</v>
+        <v>135.2811550940412</v>
       </c>
       <c r="C3" t="n">
-        <v>364.3786277160532</v>
+        <v>350.4050337005864</v>
       </c>
       <c r="D3" t="n">
-        <v>364.3786277160532</v>
+        <v>364.3786277160531</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.3232922704789</v>
+        <v>392.6255494075631</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451609</v>
+        <v>642.5287719740642</v>
       </c>
       <c r="D4" t="n">
         <v>658.7614942451606</v>
@@ -26813,25 +26813,25 @@
         <v>924.8974390827582</v>
       </c>
       <c r="J4" t="n">
-        <v>924.8974390827582</v>
+        <v>924.8974390827581</v>
       </c>
       <c r="K4" t="n">
-        <v>658.7614942451607</v>
+        <v>674.994216516257</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.8301897156749</v>
+        <v>135.2811550940412</v>
       </c>
       <c r="C3" t="n">
-        <v>240.5484380003783</v>
+        <v>215.1238786065452</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.97359401546674</v>
       </c>
       <c r="E3" t="n">
         <v>229.0974726220119</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>379.3232922704789</v>
+        <v>392.6255494075631</v>
       </c>
       <c r="C4" t="n">
-        <v>279.4382019746819</v>
+        <v>249.9032225665011</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16.23272227109634</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>266.1359448375975</v>
       </c>
       <c r="J4" t="n">
-        <v>379.3232922704789</v>
+        <v>392.625549407563</v>
       </c>
       <c r="K4" t="n">
-        <v>13.3022571370845</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>379.3232922704789</v>
+        <v>392.6255494075631</v>
       </c>
       <c r="K4" t="n">
-        <v>279.4382019746819</v>
+        <v>249.9032225665011</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.23272227109634</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>52.73539974848859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>333.9051613937295</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>115.7068873535072</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>196.627228091952</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>220.715173156396</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.0525350560272</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>109.4251696750146</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>79.37816995058279</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.0914187610276</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>166.2783060866372</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.9918666049025</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>135.8783155622343</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>89.61813056427502</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.7470297345187</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>160.0582385782269</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>148.114244418224</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>76.11194170410953</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.73458883249417</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>166.3245291952821</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>219.765221408853</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>226.9032592169012</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3057230133669</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>325.0483275373305</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>156.1683918347603</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>61.38216237051867</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>176.9201511723675</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.9294253027271</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>50.56974042591881</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.9562755175465</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.92758748535609</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3591014288347</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.6092032786007</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>136.4481822800199</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>48.6854104922554</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>33.25088316290584</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>148.8818619233482</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>213.0046890270702</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.2457473653425</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>197.9398118884039</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>95.50881048309788</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.683518135681</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2284658114856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>51.49609968143134</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>12.48909538436743</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3339031445446</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.3851676237297</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.6904011488205</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>31.14087046657036</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>147.7488554315367</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.5655516544858</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.1380819688299</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>224.1728715949141</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4978098079022104</v>
+        <v>0.5438438395740345</v>
       </c>
       <c r="H2" t="n">
-        <v>5.098194695178513</v>
+        <v>5.569640722037581</v>
       </c>
       <c r="I2" t="n">
-        <v>19.19181261914999</v>
+        <v>20.96653962517798</v>
       </c>
       <c r="J2" t="n">
-        <v>42.25098518344027</v>
+        <v>46.15806607904675</v>
       </c>
       <c r="K2" t="n">
-        <v>63.32327435194085</v>
+        <v>69.17897580821564</v>
       </c>
       <c r="L2" t="n">
-        <v>78.55812126052814</v>
+        <v>85.82263671357951</v>
       </c>
       <c r="M2" t="n">
-        <v>87.41104643180907</v>
+        <v>95.49421959560425</v>
       </c>
       <c r="N2" t="n">
-        <v>88.82544854851123</v>
+        <v>97.03941590479398</v>
       </c>
       <c r="O2" t="n">
-        <v>83.87535227118362</v>
+        <v>91.63156872502967</v>
       </c>
       <c r="P2" t="n">
-        <v>71.58567263859779</v>
+        <v>78.20542393554568</v>
       </c>
       <c r="Q2" t="n">
-        <v>53.75785889309986</v>
+        <v>58.72901643080055</v>
       </c>
       <c r="R2" t="n">
-        <v>31.27054534563725</v>
+        <v>34.16223058764247</v>
       </c>
       <c r="S2" t="n">
-        <v>11.34384099757163</v>
+        <v>12.39284149429332</v>
       </c>
       <c r="T2" t="n">
-        <v>2.179162434091927</v>
+        <v>2.380676407735337</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03982478463217683</v>
+        <v>0.04350750716592275</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2663517288223952</v>
+        <v>0.2909821071834093</v>
       </c>
       <c r="H3" t="n">
-        <v>2.572396959942606</v>
+        <v>2.810274561481874</v>
       </c>
       <c r="I3" t="n">
-        <v>9.170443294981588</v>
+        <v>10.0184629008323</v>
       </c>
       <c r="J3" t="n">
-        <v>25.16439732703164</v>
+        <v>27.49142794227114</v>
       </c>
       <c r="K3" t="n">
-        <v>43.00996315813212</v>
+        <v>46.98722912355957</v>
       </c>
       <c r="L3" t="n">
-        <v>57.83220322523102</v>
+        <v>63.18012814085386</v>
       </c>
       <c r="M3" t="n">
-        <v>67.48745339504283</v>
+        <v>73.72822952625242</v>
       </c>
       <c r="N3" t="n">
-        <v>69.27364547122461</v>
+        <v>75.67959637661838</v>
       </c>
       <c r="O3" t="n">
-        <v>63.37185190100206</v>
+        <v>69.23204547534388</v>
       </c>
       <c r="P3" t="n">
-        <v>50.86149811170807</v>
+        <v>55.5648200989091</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.99956454231135</v>
+        <v>37.14361073449976</v>
       </c>
       <c r="R3" t="n">
-        <v>16.53717137372731</v>
+        <v>18.06641539161554</v>
       </c>
       <c r="S3" t="n">
-        <v>4.947366541942293</v>
+        <v>5.404865017200604</v>
       </c>
       <c r="T3" t="n">
-        <v>1.073584380648162</v>
+        <v>1.172862089919092</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01752314005410495</v>
+        <v>0.01914355968311904</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2233003421102334</v>
+        <v>0.2439496239400742</v>
       </c>
       <c r="H4" t="n">
-        <v>1.985343041670986</v>
+        <v>2.168933929212661</v>
       </c>
       <c r="I4" t="n">
-        <v>6.71525028818775</v>
+        <v>7.336230509034234</v>
       </c>
       <c r="J4" t="n">
-        <v>15.7873341871935</v>
+        <v>17.24723841256325</v>
       </c>
       <c r="K4" t="n">
-        <v>25.94343974698894</v>
+        <v>28.34251085412862</v>
       </c>
       <c r="L4" t="n">
-        <v>33.19867086246144</v>
+        <v>36.26865590832704</v>
       </c>
       <c r="M4" t="n">
-        <v>35.00334362733414</v>
+        <v>38.24021241453363</v>
       </c>
       <c r="N4" t="n">
-        <v>34.17104235219603</v>
+        <v>37.33094563439338</v>
       </c>
       <c r="O4" t="n">
-        <v>31.56248835572647</v>
+        <v>34.4811704820025</v>
       </c>
       <c r="P4" t="n">
-        <v>27.00716137667768</v>
+        <v>29.50459815362496</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.69835864706691</v>
+        <v>20.42745441920022</v>
       </c>
       <c r="R4" t="n">
-        <v>10.04039538252013</v>
+        <v>10.96886218188733</v>
       </c>
       <c r="S4" t="n">
-        <v>3.89151596204834</v>
+        <v>4.251376628119292</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9541014617437246</v>
+        <v>1.042330211380317</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0121800186605582</v>
+        <v>0.01330634312400406</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.464838704386142</v>
+        <v>1.408663452062658</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00177938129458</v>
+        <v>14.4264745784367</v>
       </c>
       <c r="I5" t="n">
-        <v>56.47319415084681</v>
+        <v>54.30749773564567</v>
       </c>
       <c r="J5" t="n">
-        <v>124.3263539863935</v>
+        <v>119.5585496645031</v>
       </c>
       <c r="K5" t="n">
-        <v>186.3329763430589</v>
+        <v>179.1872735903154</v>
       </c>
       <c r="L5" t="n">
-        <v>231.1625338424164</v>
+        <v>222.2976577113781</v>
       </c>
       <c r="M5" t="n">
-        <v>257.2128591515434</v>
+        <v>247.3489763769973</v>
       </c>
       <c r="N5" t="n">
-        <v>261.3748321203806</v>
+        <v>251.3513414101704</v>
       </c>
       <c r="O5" t="n">
-        <v>246.8088422536408</v>
+        <v>237.3439442087223</v>
       </c>
       <c r="P5" t="n">
-        <v>210.6456367391079</v>
+        <v>202.5675652359254</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.1861006382791</v>
+        <v>152.1198053589314</v>
       </c>
       <c r="R5" t="n">
-        <v>92.0156742643961</v>
+        <v>88.48695557063101</v>
       </c>
       <c r="S5" t="n">
-        <v>33.38001197619925</v>
+        <v>32.09991841387784</v>
       </c>
       <c r="T5" t="n">
-        <v>6.412331428450342</v>
+        <v>6.166424261404288</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1171870963508914</v>
+        <v>0.1126930761650126</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.783757803011888</v>
+        <v>0.7537013932427707</v>
       </c>
       <c r="H6" t="n">
-        <v>7.569450360667446</v>
+        <v>7.279168718949919</v>
       </c>
       <c r="I6" t="n">
-        <v>26.98464365633036</v>
+        <v>25.949806741034</v>
       </c>
       <c r="J6" t="n">
-        <v>74.04792471350474</v>
+        <v>71.20825312211635</v>
       </c>
       <c r="K6" t="n">
-        <v>126.5596975153012</v>
+        <v>121.706246469382</v>
       </c>
       <c r="L6" t="n">
-        <v>170.1751317460681</v>
+        <v>163.6490678617692</v>
       </c>
       <c r="M6" t="n">
-        <v>198.5863521052489</v>
+        <v>190.9707433668196</v>
       </c>
       <c r="N6" t="n">
-        <v>203.8423419333419</v>
+        <v>196.0251706925573</v>
       </c>
       <c r="O6" t="n">
-        <v>186.4759190350258</v>
+        <v>179.3247345580727</v>
       </c>
       <c r="P6" t="n">
-        <v>149.6633650330333</v>
+        <v>143.9239090307182</v>
       </c>
       <c r="Q6" t="n">
-        <v>100.0459960476228</v>
+        <v>96.20932170586667</v>
       </c>
       <c r="R6" t="n">
-        <v>48.6617344712118</v>
+        <v>46.7956005383538</v>
       </c>
       <c r="S6" t="n">
-        <v>14.55795743752344</v>
+        <v>13.99967280869795</v>
       </c>
       <c r="T6" t="n">
-        <v>3.159093951613705</v>
+        <v>3.037945528026781</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05156301335604528</v>
+        <v>0.0495856179764981</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6570762139141942</v>
+        <v>0.6318779296240081</v>
       </c>
       <c r="H7" t="n">
-        <v>5.84200488370984</v>
+        <v>5.617969228838913</v>
       </c>
       <c r="I7" t="n">
-        <v>19.76007377843777</v>
+        <v>19.00229264723836</v>
       </c>
       <c r="J7" t="n">
-        <v>46.45528832373353</v>
+        <v>44.67376962441737</v>
       </c>
       <c r="K7" t="n">
-        <v>76.34030921657636</v>
+        <v>73.41272673268021</v>
       </c>
       <c r="L7" t="n">
-        <v>97.68931274866122</v>
+        <v>93.94301510064574</v>
       </c>
       <c r="M7" t="n">
-        <v>102.9996832411132</v>
+        <v>99.04973764097065</v>
       </c>
       <c r="N7" t="n">
-        <v>100.5505809892513</v>
+        <v>96.6945562669176</v>
       </c>
       <c r="O7" t="n">
-        <v>92.87473612670814</v>
+        <v>89.3130731799462</v>
       </c>
       <c r="P7" t="n">
-        <v>79.4703813628585</v>
+        <v>76.42276341561637</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.02117278512403</v>
+        <v>52.91116008878854</v>
       </c>
       <c r="R7" t="n">
-        <v>29.54453594563276</v>
+        <v>28.41152945382131</v>
       </c>
       <c r="S7" t="n">
-        <v>11.45104638248645</v>
+        <v>11.01190900990203</v>
       </c>
       <c r="T7" t="n">
-        <v>2.807507459451556</v>
+        <v>2.699842062938943</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03584052075895609</v>
+        <v>0.0344660688885823</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,22 +31521,22 @@
         <v>15.00177938129458</v>
       </c>
       <c r="I8" t="n">
-        <v>56.47319415084681</v>
+        <v>56.4731941508468</v>
       </c>
       <c r="J8" t="n">
-        <v>124.3263539863935</v>
+        <v>124.3263539863934</v>
       </c>
       <c r="K8" t="n">
         <v>186.3329763430589</v>
       </c>
       <c r="L8" t="n">
-        <v>231.1625338424164</v>
+        <v>231.1625338424163</v>
       </c>
       <c r="M8" t="n">
-        <v>257.2128591515434</v>
+        <v>257.2128591515433</v>
       </c>
       <c r="N8" t="n">
-        <v>261.3748321203806</v>
+        <v>261.3748321203805</v>
       </c>
       <c r="O8" t="n">
         <v>246.8088422536408</v>
@@ -31548,16 +31548,16 @@
         <v>158.1861006382791</v>
       </c>
       <c r="R8" t="n">
-        <v>92.0156742643961</v>
+        <v>92.01567426439608</v>
       </c>
       <c r="S8" t="n">
         <v>33.38001197619925</v>
       </c>
       <c r="T8" t="n">
-        <v>6.412331428450342</v>
+        <v>6.41233142845034</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1171870963508914</v>
+        <v>0.1171870963508913</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.783757803011888</v>
+        <v>0.7837578030118879</v>
       </c>
       <c r="H9" t="n">
-        <v>7.569450360667446</v>
+        <v>7.569450360667445</v>
       </c>
       <c r="I9" t="n">
         <v>26.98464365633036</v>
@@ -31609,7 +31609,7 @@
         <v>126.5596975153012</v>
       </c>
       <c r="L9" t="n">
-        <v>170.1751317460681</v>
+        <v>170.175131746068</v>
       </c>
       <c r="M9" t="n">
         <v>198.5863521052489</v>
@@ -31621,22 +31621,22 @@
         <v>186.4759190350258</v>
       </c>
       <c r="P9" t="n">
-        <v>149.6633650330333</v>
+        <v>149.6633650330332</v>
       </c>
       <c r="Q9" t="n">
         <v>100.0459960476228</v>
       </c>
       <c r="R9" t="n">
-        <v>48.6617344712118</v>
+        <v>48.66173447121179</v>
       </c>
       <c r="S9" t="n">
-        <v>14.55795743752344</v>
+        <v>14.55795743752343</v>
       </c>
       <c r="T9" t="n">
         <v>3.159093951613705</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05156301335604528</v>
+        <v>0.05156301335604527</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6570762139141942</v>
+        <v>0.6570762139141941</v>
       </c>
       <c r="H10" t="n">
-        <v>5.84200488370984</v>
+        <v>5.842004883709839</v>
       </c>
       <c r="I10" t="n">
         <v>19.76007377843777</v>
       </c>
       <c r="J10" t="n">
-        <v>46.45528832373353</v>
+        <v>46.45528832373352</v>
       </c>
       <c r="K10" t="n">
         <v>76.34030921657636</v>
       </c>
       <c r="L10" t="n">
-        <v>97.68931274866122</v>
+        <v>97.68931274866119</v>
       </c>
       <c r="M10" t="n">
         <v>102.9996832411132</v>
       </c>
       <c r="N10" t="n">
-        <v>100.5505809892513</v>
+        <v>100.5505809892512</v>
       </c>
       <c r="O10" t="n">
-        <v>92.87473612670814</v>
+        <v>92.87473612670813</v>
       </c>
       <c r="P10" t="n">
         <v>79.4703813628585</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.02117278512403</v>
+        <v>55.02117278512402</v>
       </c>
       <c r="R10" t="n">
         <v>29.54453594563276</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>30.30169582882775</v>
+        <v>34.20877672443423</v>
       </c>
       <c r="K2" t="n">
-        <v>167.378835878125</v>
+        <v>173.2345373343998</v>
       </c>
       <c r="L2" t="n">
-        <v>260.4529208409913</v>
+        <v>267.7174362940427</v>
       </c>
       <c r="M2" t="n">
-        <v>306.5783466973688</v>
+        <v>314.661519861164</v>
       </c>
       <c r="N2" t="n">
-        <v>296.7593093639045</v>
+        <v>304.9732767201872</v>
       </c>
       <c r="O2" t="n">
-        <v>234.5773221122423</v>
+        <v>242.3335385660883</v>
       </c>
       <c r="P2" t="n">
-        <v>162.1513850548109</v>
+        <v>168.7711363517588</v>
       </c>
       <c r="Q2" t="n">
-        <v>43.76715967855506</v>
+        <v>48.73831721625574</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>24.41780600077379</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>169.6337611963517</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>209.8238861872886</v>
+        <v>295.4660936644389</v>
       </c>
       <c r="M3" t="n">
-        <v>379.3232922704789</v>
+        <v>392.6255494075631</v>
       </c>
       <c r="N3" t="n">
-        <v>379.3232922704789</v>
+        <v>305.9955943641837</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>320.4981203076289</v>
       </c>
       <c r="P3" t="n">
-        <v>235.349859337315</v>
+        <v>240.053181324516</v>
       </c>
       <c r="Q3" t="n">
-        <v>104.0950781921389</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.673947921106084</v>
+        <v>6.073019028245763</v>
       </c>
       <c r="L4" t="n">
-        <v>60.78869612277758</v>
+        <v>63.85868116864318</v>
       </c>
       <c r="M4" t="n">
-        <v>74.58722058917473</v>
+        <v>77.82408937637422</v>
       </c>
       <c r="N4" t="n">
-        <v>78.30321473142462</v>
+        <v>81.46311801362197</v>
       </c>
       <c r="O4" t="n">
-        <v>56.14761626976614</v>
+        <v>59.06629839604218</v>
       </c>
       <c r="P4" t="n">
-        <v>24.28572064157117</v>
+        <v>26.78315741851845</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>112.3770646317809</v>
+        <v>107.6092603098906</v>
       </c>
       <c r="K5" t="n">
-        <v>290.3885378692431</v>
+        <v>283.2428351164996</v>
       </c>
       <c r="L5" t="n">
-        <v>413.0573334228795</v>
+        <v>404.1924572918413</v>
       </c>
       <c r="M5" t="n">
-        <v>476.3801594171032</v>
+        <v>466.5162766425571</v>
       </c>
       <c r="N5" t="n">
-        <v>469.3086929357738</v>
+        <v>459.2852022255636</v>
       </c>
       <c r="O5" t="n">
-        <v>397.5108120946995</v>
+        <v>388.0459140497809</v>
       </c>
       <c r="P5" t="n">
-        <v>301.211349155321</v>
+        <v>293.1332776521385</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.1954014237343</v>
+        <v>142.1291061443866</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>189.9326377306888</v>
+        <v>164.3437748973484</v>
       </c>
       <c r="L6" t="n">
-        <v>402.4610972696531</v>
+        <v>395.9350333853541</v>
       </c>
       <c r="M6" t="n">
-        <v>522.1573819332306</v>
+        <v>514.5417731948012</v>
       </c>
       <c r="N6" t="n">
-        <v>551.8430041935621</v>
+        <v>544.0258329527775</v>
       </c>
       <c r="O6" t="n">
-        <v>437.7419938673109</v>
+        <v>430.5908093903578</v>
       </c>
       <c r="P6" t="n">
-        <v>334.1517262586402</v>
+        <v>328.4122702563251</v>
       </c>
       <c r="Q6" t="n">
-        <v>170.1415096974503</v>
+        <v>166.3048353556943</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>54.07081739069351</v>
+        <v>51.14323490679736</v>
       </c>
       <c r="L7" t="n">
-        <v>125.2793380089774</v>
+        <v>121.5330403609619</v>
       </c>
       <c r="M7" t="n">
-        <v>142.5835602029538</v>
+        <v>138.6336146028112</v>
       </c>
       <c r="N7" t="n">
-        <v>144.6827533684798</v>
+        <v>140.8267286461462</v>
       </c>
       <c r="O7" t="n">
-        <v>117.4598640407478</v>
+        <v>113.8982010939859</v>
       </c>
       <c r="P7" t="n">
-        <v>76.74894062775199</v>
+        <v>73.70132268050986</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>413.0573334228795</v>
       </c>
       <c r="M8" t="n">
-        <v>476.3801594171032</v>
+        <v>476.3801594171031</v>
       </c>
       <c r="N8" t="n">
         <v>469.3086929357738</v>
       </c>
       <c r="O8" t="n">
-        <v>397.5108120946995</v>
+        <v>397.5108120946994</v>
       </c>
       <c r="P8" t="n">
         <v>301.211349155321</v>
@@ -35254,25 +35254,25 @@
         <v>73.30133338724688</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1834955535209</v>
+        <v>253.1834955535208</v>
       </c>
       <c r="L9" t="n">
-        <v>402.4610972696531</v>
+        <v>402.461097269653</v>
       </c>
       <c r="M9" t="n">
-        <v>522.1573819332306</v>
+        <v>522.1573819332305</v>
       </c>
       <c r="N9" t="n">
-        <v>415.2908129834822</v>
+        <v>551.8430041935621</v>
       </c>
       <c r="O9" t="n">
-        <v>437.7419938673109</v>
+        <v>437.7419938673108</v>
       </c>
       <c r="P9" t="n">
         <v>334.1517262586402</v>
       </c>
       <c r="Q9" t="n">
-        <v>170.1415096974503</v>
+        <v>33.58931848737061</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,10 +35336,10 @@
         <v>54.07081739069351</v>
       </c>
       <c r="L10" t="n">
-        <v>125.2793380089774</v>
+        <v>125.2793380089773</v>
       </c>
       <c r="M10" t="n">
-        <v>142.5835602029538</v>
+        <v>142.5835602029537</v>
       </c>
       <c r="N10" t="n">
         <v>144.6827533684798</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040863</v>
+        <v>225.4472311281837</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>439.3161260532724</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
         <v>247.6524856312129</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
@@ -35497,19 +35497,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2575351090121</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>658.7614942451606</v>
+        <v>615.2468359045143</v>
       </c>
       <c r="O12" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>204.4542921442495</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q14" t="n">
         <v>35.33749497130819</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.13215440577617</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>607.2090238437818</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233105</v>
+        <v>385.7577316459225</v>
       </c>
       <c r="P17" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040863</v>
@@ -36132,7 +36132,7 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>410.7784365939666</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
@@ -36141,7 +36141,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>80.72213165382477</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451606</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N24" t="n">
-        <v>680.0057497502855</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q24" t="n">
-        <v>38.88789890065112</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>15.92129162592693</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N27" t="n">
-        <v>680.0057497502855</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K29" t="n">
-        <v>83.39712583292157</v>
+        <v>248.9518873645695</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N29" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>313.9380096558278</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P29" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q29" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>320.3116379989735</v>
       </c>
       <c r="M30" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451607</v>
+        <v>674.994216516257</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>146.953049683879</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K32" t="n">
         <v>83.39712583292157</v>
@@ -37083,13 +37083,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O32" t="n">
-        <v>171.8879043605652</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P32" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q32" t="n">
-        <v>220.605975754402</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>68.29072693268387</v>
+        <v>266.2193316313461</v>
       </c>
       <c r="L33" t="n">
         <v>138.615755571408</v>
@@ -37159,16 +37159,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.5097310692981</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K35" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M35" t="n">
-        <v>512.5502348463787</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37326,7 +37326,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>37.16554713105197</v>
+        <v>8.862918322875897</v>
       </c>
       <c r="K36" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M36" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,10 +37554,10 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>607.2090238437822</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P38" t="n">
         <v>111.8528537874005</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>60.13215440577663</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L41" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O41" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>433.6515619588832</v>
+        <v>210.7858894014898</v>
       </c>
       <c r="Q41" t="n">
-        <v>67.90388275499302</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>8.862918322875897</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L42" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>578.7040994736967</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K44" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517163</v>
+        <v>335.531557994323</v>
       </c>
       <c r="M44" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>607.2090238437822</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
         <v>35.33749497130819</v>
@@ -38098,7 +38098,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
@@ -38110,13 +38110,13 @@
         <v>200.663375406732</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>79.90967444578735</v>
+        <v>209.3067567099384</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_7_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>965463.0783258694</v>
+        <v>1007942.069499525</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3301584.065976685</v>
+        <v>3314032.342450612</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6409890.106263976</v>
+        <v>8701380.847399997</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9731460.163993154</v>
+        <v>8667096.481561285</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="G2" t="n">
-        <v>362.0234939270724</v>
+        <v>30.99594801149993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>189.5093499452279</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3021454006706</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>177.494223422914</v>
       </c>
       <c r="U3" t="n">
-        <v>90.0439229590574</v>
+        <v>225.9238589409207</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.21384961766228</v>
+        <v>124.0927875755838</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.7676790163485</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.8940740630724</v>
+        <v>413.8378988107489</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.683518135681</v>
       </c>
       <c r="U5" t="n">
-        <v>200.6632194057527</v>
+        <v>71.1740291902982</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5898157699679</v>
+        <v>72.57456429440094</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.665993875829</v>
       </c>
       <c r="I6" t="n">
-        <v>63.44682611038108</v>
+        <v>62.41198919508471</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.43464612893324</v>
+        <v>51.49609968143133</v>
       </c>
       <c r="S6" t="n">
-        <v>157.6834982951399</v>
+        <v>157.1252136663144</v>
       </c>
       <c r="T6" t="n">
-        <v>197.1267831667948</v>
+        <v>197.0056347432079</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8917964629983</v>
+        <v>225.8898190676188</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.5655516544858</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.1380819688299</v>
       </c>
       <c r="U7" t="n">
-        <v>88.34475139919837</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>209.9712170708604</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>311.3672352586136</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.8378988107489</v>
       </c>
       <c r="H8" t="n">
-        <v>324.4730227344726</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>154.0026954195591</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>57.8534436767536</v>
+        <v>57.85344367675359</v>
       </c>
       <c r="S8" t="n">
         <v>175.6400576100461</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.683518135681</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2284658114856</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>293.4811968034556</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>132.5801170090166</v>
       </c>
       <c r="G9" t="n">
         <v>136.5597593601987</v>
@@ -1232,7 +1232,7 @@
         <v>104.665993875829</v>
       </c>
       <c r="I9" t="n">
-        <v>62.41198919508472</v>
+        <v>62.41198919508471</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>144.6361182819469</v>
+        <v>157.1252136663144</v>
       </c>
       <c r="T9" t="n">
         <v>197.0056347432079</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.07628358503487</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.3851676237297</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>135.6904011488205</v>
       </c>
       <c r="J10" t="n">
-        <v>46.90389179293926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>62.11031724081786</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>289.5498313341314</v>
+        <v>133.6124711576475</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>19.59299030330406</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>147.3181964444663</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>17.61472164985845</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>284.2295502446914</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>12.30194165700275</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>147.1283960476616</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>332.9940145448207</v>
       </c>
     </row>
     <row r="18">
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.8691675412672</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>193.7787769293047</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.84784312001302</v>
+        <v>107.5759848528684</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
         <v>251.1547862223006</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>56.08889633518815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>39.56894789968884</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>2.496950171832232</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
@@ -2371,19 +2371,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>75.37827285528043</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.1991556951765</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>19.59299030330406</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>22.31349960378263</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>28.35435780800754</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>47.34481428273551</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>99.22633580452191</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>291.1914330254777</v>
       </c>
       <c r="G29" t="n">
         <v>412.9169039459368</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>218.610313899599</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>15.6687678342077</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>153.7734887588951</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H32" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>0.6684412661228588</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>17.51732156909081</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2.454476553030551</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>100.9308781458036</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>306.1974712109182</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>263.7394182836353</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>16.39856530802292</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,10 +3483,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>206.4537874170351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>180.0188334367348</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>33.58093968429691</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>95.10391318383961</v>
       </c>
       <c r="W40" t="n">
-        <v>104.7842799263185</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>359.5437653327807</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>362.2640748783305</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>118.4960408938903</v>
@@ -3799,10 +3799,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.260654658097</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>58.90660471921867</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>364.3319398511408</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>321.7501835455639</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>22.79825004194892</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>96.68236899921457</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595.4594274011018</v>
+        <v>1186.230281738347</v>
       </c>
       <c r="C2" t="n">
-        <v>595.4594274011018</v>
+        <v>1186.230281738347</v>
       </c>
       <c r="D2" t="n">
-        <v>595.4594274011018</v>
+        <v>827.964583131597</v>
       </c>
       <c r="E2" t="n">
-        <v>595.4594274011018</v>
+        <v>444.8097424543449</v>
       </c>
       <c r="F2" t="n">
-        <v>588.5139266518984</v>
+        <v>61.65490177709285</v>
       </c>
       <c r="G2" t="n">
-        <v>222.8336297558656</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="H2" t="n">
-        <v>222.8336297558656</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="I2" t="n">
-        <v>31.41004395260505</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="J2" t="n">
-        <v>65.27673290979499</v>
+        <v>60.34454225217803</v>
       </c>
       <c r="K2" t="n">
-        <v>236.7789248708509</v>
+        <v>226.0495897715221</v>
       </c>
       <c r="L2" t="n">
-        <v>501.8191868019532</v>
+        <v>483.8979814041039</v>
       </c>
       <c r="M2" t="n">
-        <v>813.3340914645055</v>
+        <v>787.4105446344993</v>
       </c>
       <c r="N2" t="n">
-        <v>1115.257635417491</v>
+        <v>1081.202260904765</v>
       </c>
       <c r="O2" t="n">
-        <v>1355.167838597918</v>
+        <v>1313.433809795886</v>
       </c>
       <c r="P2" t="n">
-        <v>1522.251263586159</v>
+        <v>1473.963681000148</v>
       </c>
       <c r="Q2" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="R2" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="S2" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="T2" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="U2" t="n">
-        <v>1316.661646720484</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="V2" t="n">
-        <v>985.5987593769136</v>
+        <v>1186.230281738347</v>
       </c>
       <c r="W2" t="n">
-        <v>985.5987593769136</v>
+        <v>1186.230281738347</v>
       </c>
       <c r="X2" t="n">
-        <v>985.5987593769136</v>
+        <v>1186.230281738347</v>
       </c>
       <c r="Y2" t="n">
-        <v>595.4594274011018</v>
+        <v>1186.230281738347</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.5694958735538</v>
+        <v>204.7988926627654</v>
       </c>
       <c r="C3" t="n">
-        <v>486.1164665924268</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1820569311756</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="E3" t="n">
-        <v>177.9446019257201</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="F3" t="n">
-        <v>31.41004395260505</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="G3" t="n">
-        <v>31.41004395260505</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="H3" t="n">
-        <v>31.41004395260505</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="I3" t="n">
-        <v>31.41004395260505</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="J3" t="n">
-        <v>31.41004395260505</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="K3" t="n">
-        <v>31.41004395260505</v>
+        <v>198.2832869660268</v>
       </c>
       <c r="L3" t="n">
-        <v>323.9214766803995</v>
+        <v>485.5002740273549</v>
       </c>
       <c r="M3" t="n">
-        <v>712.6207705938871</v>
+        <v>494.2210741140292</v>
       </c>
       <c r="N3" t="n">
-        <v>1015.556409014429</v>
+        <v>869.751133461804</v>
       </c>
       <c r="O3" t="n">
-        <v>1332.849548118982</v>
+        <v>1181.242680927759</v>
       </c>
       <c r="P3" t="n">
-        <v>1570.502197630253</v>
+        <v>1414.239041671701</v>
       </c>
       <c r="Q3" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="R3" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="S3" t="n">
-        <v>1570.502197630253</v>
+        <v>1517.293169081918</v>
       </c>
       <c r="T3" t="n">
-        <v>1570.502197630253</v>
+        <v>1338.006074715338</v>
       </c>
       <c r="U3" t="n">
-        <v>1479.548740095851</v>
+        <v>1109.800156593196</v>
       </c>
       <c r="V3" t="n">
-        <v>1244.396631864108</v>
+        <v>874.6480483614537</v>
       </c>
       <c r="W3" t="n">
-        <v>1244.396631864108</v>
+        <v>620.4106916332521</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.545131658576</v>
+        <v>412.5591914277193</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7848328936218</v>
+        <v>204.7988926627654</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1258.584517862821</v>
+        <v>199.8081654183541</v>
       </c>
       <c r="C4" t="n">
-        <v>1258.584517862821</v>
+        <v>199.8081654183541</v>
       </c>
       <c r="D4" t="n">
-        <v>1258.584517862821</v>
+        <v>199.8081654183541</v>
       </c>
       <c r="E4" t="n">
-        <v>1258.584517862821</v>
+        <v>199.8081654183541</v>
       </c>
       <c r="F4" t="n">
-        <v>1258.584517862821</v>
+        <v>199.8081654183541</v>
       </c>
       <c r="G4" t="n">
-        <v>1258.584517862821</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="H4" t="n">
-        <v>1258.584517862821</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="I4" t="n">
-        <v>1258.584517862821</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="J4" t="n">
-        <v>1258.584517862821</v>
+        <v>30.34586338163837</v>
       </c>
       <c r="K4" t="n">
-        <v>1264.596806700785</v>
+        <v>33.9830718235335</v>
       </c>
       <c r="L4" t="n">
-        <v>1327.816901057741</v>
+        <v>94.16388098508345</v>
       </c>
       <c r="M4" t="n">
-        <v>1404.862749540352</v>
+        <v>168.0052293683666</v>
       </c>
       <c r="N4" t="n">
-        <v>1485.511236373837</v>
+        <v>245.5254119524771</v>
       </c>
       <c r="O4" t="n">
-        <v>1543.986871785919</v>
+        <v>301.1115520595457</v>
       </c>
       <c r="P4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="Q4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="R4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="S4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="T4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="U4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="V4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="W4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="X4" t="n">
-        <v>1570.502197630253</v>
+        <v>325.1544154947013</v>
       </c>
       <c r="Y4" t="n">
-        <v>1349.709618486723</v>
+        <v>325.1544154947013</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.516980038459</v>
+        <v>1214.772950351425</v>
       </c>
       <c r="C5" t="n">
-        <v>1624.516980038459</v>
+        <v>1214.772950351425</v>
       </c>
       <c r="D5" t="n">
-        <v>1266.251281431709</v>
+        <v>856.5072517446742</v>
       </c>
       <c r="E5" t="n">
-        <v>880.4630288334645</v>
+        <v>470.71899914643</v>
       </c>
       <c r="F5" t="n">
-        <v>469.4771240438569</v>
+        <v>470.71899914643</v>
       </c>
       <c r="G5" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="H5" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="I5" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="J5" t="n">
-        <v>157.9354694647168</v>
+        <v>163.9542135250763</v>
       </c>
       <c r="K5" t="n">
-        <v>438.3458762300515</v>
+        <v>451.4388660156269</v>
       </c>
       <c r="L5" t="n">
-        <v>838.4964089489744</v>
+        <v>860.3656261042779</v>
       </c>
       <c r="M5" t="n">
-        <v>1300.347522825106</v>
+        <v>1331.98198392721</v>
       </c>
       <c r="N5" t="n">
-        <v>1755.039873028414</v>
+        <v>1796.597589933626</v>
       </c>
       <c r="O5" t="n">
-        <v>2139.205327937697</v>
+        <v>2190.133293907379</v>
       </c>
       <c r="P5" t="n">
-        <v>2429.407272813314</v>
+        <v>2488.332529571147</v>
       </c>
       <c r="Q5" t="n">
-        <v>2570.115087896257</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R5" t="n">
-        <v>2570.115087896257</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2570.115087896257</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2570.115087896257</v>
+        <v>2416.173736439551</v>
       </c>
       <c r="U5" t="n">
-        <v>2367.424967284385</v>
+        <v>2344.280777661472</v>
       </c>
       <c r="V5" t="n">
-        <v>2367.424967284385</v>
+        <v>2344.280777661472</v>
       </c>
       <c r="W5" t="n">
-        <v>2014.656312014271</v>
+        <v>1991.512122391358</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.656312014271</v>
+        <v>1991.512122391358</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.516980038459</v>
+        <v>1601.372790415546</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>882.6189676994285</v>
+        <v>923.9336516275462</v>
       </c>
       <c r="C6" t="n">
-        <v>708.1659384183015</v>
+        <v>749.4806223464192</v>
       </c>
       <c r="D6" t="n">
-        <v>559.2315287570502</v>
+        <v>600.5462126851679</v>
       </c>
       <c r="E6" t="n">
-        <v>399.9940737515947</v>
+        <v>441.3087576797124</v>
       </c>
       <c r="F6" t="n">
-        <v>253.4595157784796</v>
+        <v>294.7741997065974</v>
       </c>
       <c r="G6" t="n">
-        <v>115.4900048997242</v>
+        <v>221.4665590051823</v>
       </c>
       <c r="H6" t="n">
-        <v>115.4900048997242</v>
+        <v>115.7433328679813</v>
       </c>
       <c r="I6" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="J6" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="K6" t="n">
-        <v>214.1026389063001</v>
+        <v>303.3525801375985</v>
       </c>
       <c r="L6" t="n">
-        <v>606.0783219578007</v>
+        <v>701.789066434555</v>
       </c>
       <c r="M6" t="n">
-        <v>1115.474677420654</v>
+        <v>1218.724874548453</v>
       </c>
       <c r="N6" t="n">
-        <v>1654.060252043903</v>
+        <v>1765.04944870008</v>
       </c>
       <c r="O6" t="n">
-        <v>2080.345153340358</v>
+        <v>2198.414022628717</v>
       </c>
       <c r="P6" t="n">
-        <v>2405.473300894119</v>
+        <v>2529.224231624771</v>
       </c>
       <c r="Q6" t="n">
-        <v>2570.115087896257</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2542.403324129657</v>
+        <v>2583.029714676167</v>
       </c>
       <c r="S6" t="n">
-        <v>2383.127063225476</v>
+        <v>2424.317377639486</v>
       </c>
       <c r="T6" t="n">
-        <v>2184.009100430734</v>
+        <v>2225.321786989781</v>
       </c>
       <c r="U6" t="n">
-        <v>1955.835568649927</v>
+        <v>1997.150252578045</v>
       </c>
       <c r="V6" t="n">
-        <v>1720.683460418185</v>
+        <v>1761.998144346303</v>
       </c>
       <c r="W6" t="n">
-        <v>1466.446103689983</v>
+        <v>1507.760787618101</v>
       </c>
       <c r="X6" t="n">
-        <v>1258.59460348445</v>
+        <v>1299.909287412568</v>
       </c>
       <c r="Y6" t="n">
-        <v>1050.834304719496</v>
+        <v>1092.148988647614</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="C7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="D7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="E7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="F7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="G7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="H7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="I7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="J7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="K7" t="n">
-        <v>102.0341043156545</v>
+        <v>106.2310287563994</v>
       </c>
       <c r="L7" t="n">
-        <v>222.3518142730068</v>
+        <v>230.257573385287</v>
       </c>
       <c r="M7" t="n">
-        <v>359.59909272979</v>
+        <v>371.4152979862113</v>
       </c>
       <c r="N7" t="n">
-        <v>499.0175540894747</v>
+        <v>514.6512238210063</v>
       </c>
       <c r="O7" t="n">
-        <v>611.7767731725207</v>
+        <v>630.9364892213466</v>
       </c>
       <c r="P7" t="n">
-        <v>684.7410826262255</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="Q7" t="n">
-        <v>684.7410826262255</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="R7" t="n">
-        <v>684.7410826262255</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="S7" t="n">
-        <v>684.7410826262255</v>
+        <v>492.2052620039465</v>
       </c>
       <c r="T7" t="n">
-        <v>684.7410826262255</v>
+        <v>264.7930579950274</v>
       </c>
       <c r="U7" t="n">
-        <v>595.5039600007726</v>
+        <v>264.7930579950274</v>
       </c>
       <c r="V7" t="n">
-        <v>340.8194717948858</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="W7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="X7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.40230175792514</v>
+        <v>52.70091953961287</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2012.594115414703</v>
+        <v>1239.970602542788</v>
       </c>
       <c r="C8" t="n">
-        <v>2012.594115414703</v>
+        <v>1239.970602542788</v>
       </c>
       <c r="D8" t="n">
-        <v>1654.328416807952</v>
+        <v>881.7049039360376</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.540164209708</v>
+        <v>881.7049039360376</v>
       </c>
       <c r="F8" t="n">
-        <v>954.0278053626237</v>
+        <v>470.71899914643</v>
       </c>
       <c r="G8" t="n">
-        <v>536.0097257558066</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>208.2591977411877</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>163.9542135250758</v>
+        <v>163.954213525076</v>
       </c>
       <c r="K8" t="n">
         <v>451.4388660156264</v>
@@ -4813,7 +4813,7 @@
         <v>860.3656261042772</v>
       </c>
       <c r="M8" t="n">
-        <v>1331.981983927209</v>
+        <v>1331.98198392721</v>
       </c>
       <c r="N8" t="n">
         <v>1796.597589933625</v>
@@ -4834,22 +4834,22 @@
         <v>2399.193955478825</v>
       </c>
       <c r="T8" t="n">
-        <v>2399.193955478825</v>
+        <v>2180.321714937732</v>
       </c>
       <c r="U8" t="n">
-        <v>2399.193955478825</v>
+        <v>1926.555587855424</v>
       </c>
       <c r="V8" t="n">
-        <v>2399.193955478825</v>
+        <v>1630.1099345186</v>
       </c>
       <c r="W8" t="n">
-        <v>2399.193955478825</v>
+        <v>1630.1099345186</v>
       </c>
       <c r="X8" t="n">
-        <v>2399.193955478825</v>
+        <v>1630.1099345186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2399.193955478825</v>
+        <v>1239.970602542788</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.5651617950188</v>
+        <v>975.9499139320214</v>
       </c>
       <c r="C9" t="n">
-        <v>814.1121325138918</v>
+        <v>801.4968846508945</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1777228526405</v>
+        <v>652.5624749896432</v>
       </c>
       <c r="E9" t="n">
-        <v>505.9402678471849</v>
+        <v>493.3250199841877</v>
       </c>
       <c r="F9" t="n">
         <v>359.4057098740699</v>
@@ -4883,25 +4883,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>125.2692395929873</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K9" t="n">
-        <v>375.9209001909729</v>
+        <v>303.3525801375985</v>
       </c>
       <c r="L9" t="n">
-        <v>774.3573864879295</v>
+        <v>701.789066434555</v>
       </c>
       <c r="M9" t="n">
-        <v>1291.293194601828</v>
+        <v>1218.724874548453</v>
       </c>
       <c r="N9" t="n">
-        <v>1837.617768753454</v>
+        <v>1702.431099455475</v>
       </c>
       <c r="O9" t="n">
-        <v>2270.982342682092</v>
+        <v>2135.795673384113</v>
       </c>
       <c r="P9" t="n">
-        <v>2601.792551678146</v>
+        <v>2466.605882380167</v>
       </c>
       <c r="Q9" t="n">
         <v>2635.045976980643</v>
@@ -4910,25 +4910,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.948887806959</v>
+        <v>2476.333639943961</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.953297157254</v>
+        <v>2277.338049294257</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.781762745518</v>
+        <v>2049.16651488252</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.629654513775</v>
+        <v>1814.014406650778</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.392297785573</v>
+        <v>1559.777049922576</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.540797580041</v>
+        <v>1351.925549717043</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.780498815087</v>
+        <v>1144.16525095209</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="C10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="D10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="E10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="F10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="G10" t="n">
-        <v>100.0785880173293</v>
+        <v>347.7267465825929</v>
       </c>
       <c r="H10" t="n">
-        <v>100.0785880173293</v>
+        <v>189.7619308010477</v>
       </c>
       <c r="I10" t="n">
-        <v>100.0785880173293</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4971,7 +4971,7 @@
         <v>230.257573385287</v>
       </c>
       <c r="M10" t="n">
-        <v>371.4152979862112</v>
+        <v>371.4152979862113</v>
       </c>
       <c r="N10" t="n">
         <v>514.6512238210063</v>
@@ -4995,19 +4995,19 @@
         <v>706.9179404428211</v>
       </c>
       <c r="U10" t="n">
-        <v>644.1802462601768</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="V10" t="n">
-        <v>389.4957580542899</v>
+        <v>706.9179404428211</v>
       </c>
       <c r="W10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="X10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.0785880173293</v>
+        <v>417.5007704058605</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1483.94050291251</v>
+        <v>2113.484044838089</v>
       </c>
       <c r="C11" t="n">
-        <v>1114.977985972098</v>
+        <v>1744.521527897677</v>
       </c>
       <c r="D11" t="n">
-        <v>756.7122873653476</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E11" t="n">
-        <v>370.9240347671034</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F11" t="n">
-        <v>370.9240347671034</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G11" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
@@ -5044,22 +5044,22 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K11" t="n">
-        <v>297.1279283498981</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L11" t="n">
-        <v>849.9411865960973</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M11" t="n">
-        <v>1481.658997579409</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N11" t="n">
-        <v>2108.966665639256</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O11" t="n">
-        <v>2279.135690956215</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P11" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5071,22 +5071,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T11" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U11" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V11" t="n">
-        <v>2166.554411993505</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W11" t="n">
-        <v>1874.079834888322</v>
+        <v>2500.083884902211</v>
       </c>
       <c r="X11" t="n">
-        <v>1874.079834888322</v>
+        <v>2500.083884902211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1483.94050291251</v>
+        <v>2500.083884902211</v>
       </c>
     </row>
     <row r="12">
@@ -5108,40 +5108,40 @@
         <v>483.4977100183844</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452694</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961285</v>
+        <v>61.47520867925954</v>
       </c>
       <c r="K12" t="n">
-        <v>382.1293238454227</v>
+        <v>390.9036129850694</v>
       </c>
       <c r="L12" t="n">
-        <v>886.4908637115414</v>
+        <v>528.1332110007634</v>
       </c>
       <c r="M12" t="n">
-        <v>1527.036213178646</v>
+        <v>1168.678560467868</v>
       </c>
       <c r="N12" t="n">
-        <v>2136.130580724115</v>
+        <v>1820.852439770577</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920175</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R12" t="n">
         <v>2613.934077382829</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>219.3817663337899</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="C13" t="n">
-        <v>219.3817663337899</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="D13" t="n">
-        <v>219.3817663337899</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="E13" t="n">
-        <v>199.5908670375232</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G13" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H13" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I13" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J13" t="n">
         <v>52.70091953961285</v>
@@ -5229,22 +5229,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>1052.635600998958</v>
+        <v>903.8293419641432</v>
       </c>
       <c r="U13" t="n">
-        <v>763.4834245766374</v>
+        <v>614.677165541823</v>
       </c>
       <c r="V13" t="n">
-        <v>508.7989363707505</v>
+        <v>359.9926773359361</v>
       </c>
       <c r="W13" t="n">
-        <v>219.3817663337899</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="X13" t="n">
-        <v>219.3817663337899</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.3817663337899</v>
+        <v>70.57550729897547</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1218.437593867876</v>
+        <v>1018.260224823852</v>
       </c>
       <c r="C14" t="n">
-        <v>849.4750769274647</v>
+        <v>1018.260224823852</v>
       </c>
       <c r="D14" t="n">
-        <v>849.4750769274647</v>
+        <v>1018.260224823852</v>
       </c>
       <c r="E14" t="n">
-        <v>463.6868243292204</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F14" t="n">
-        <v>52.70091953961285</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I14" t="n">
         <v>52.70091953961285</v>
@@ -5284,13 +5284,13 @@
         <v>156.4983241075885</v>
       </c>
       <c r="L14" t="n">
-        <v>709.3115823537878</v>
+        <v>683.1408478992852</v>
       </c>
       <c r="M14" t="n">
-        <v>1341.029393337099</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N14" t="n">
-        <v>1968.337061396946</v>
+        <v>1942.166326942443</v>
       </c>
       <c r="O14" t="n">
         <v>2489.327531709521</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V14" t="n">
-        <v>2347.945421177924</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W14" t="n">
-        <v>1995.17676590781</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X14" t="n">
-        <v>1995.17676590781</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y14" t="n">
-        <v>1605.037433931998</v>
+        <v>1404.860064887974</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K15" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L15" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M15" t="n">
-        <v>1184.647451923042</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686615</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O15" t="n">
-        <v>1980.364752439338</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P15" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="E16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="F16" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="G16" t="n">
-        <v>52.70091953961285</v>
+        <v>206.9555626398478</v>
       </c>
       <c r="H16" t="n">
         <v>52.70091953961285</v>
@@ -5466,22 +5466,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>885.9547542047806</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>596.8025777824604</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V16" t="n">
-        <v>342.1180895765735</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y16" t="n">
-        <v>52.70091953961285</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1362.457193970465</v>
+        <v>947.747370509825</v>
       </c>
       <c r="C17" t="n">
-        <v>1213.84265250818</v>
+        <v>947.747370509825</v>
       </c>
       <c r="D17" t="n">
-        <v>855.5769539014296</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="E17" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F17" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H17" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.621189819594</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M17" t="n">
-        <v>1384.320602645002</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N17" t="n">
-        <v>1578.654815536984</v>
+        <v>1844.222621684495</v>
       </c>
       <c r="O17" t="n">
-        <v>1960.554969866447</v>
+        <v>2391.383826451573</v>
       </c>
       <c r="P17" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q17" t="n">
         <v>2635.045976980643</v>
@@ -5545,22 +5545,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V17" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W17" t="n">
-        <v>2126.062284207356</v>
+        <v>1657.570719220219</v>
       </c>
       <c r="X17" t="n">
-        <v>1752.596525946276</v>
+        <v>1284.104960959139</v>
       </c>
       <c r="Y17" t="n">
-        <v>1362.457193970465</v>
+        <v>947.747370509825</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662179</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850909</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238395</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E18" t="n">
-        <v>483.4977100183839</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F18" t="n">
-        <v>336.9631520452689</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G18" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K18" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L18" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M18" t="n">
-        <v>1265.215628536193</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N18" t="n">
-        <v>1917.389507838902</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O18" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P18" t="n">
-        <v>2575.515144118924</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q18" t="n">
         <v>2635.045976980643</v>
@@ -5624,13 +5624,13 @@
         <v>2464.467288245464</v>
       </c>
       <c r="T18" t="n">
-        <v>2267.477992405551</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U18" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V18" t="n">
-        <v>1804.187096684974</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
         <v>1549.949739956773</v>
@@ -5639,7 +5639,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.70091953961285</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="C19" t="n">
-        <v>52.70091953961285</v>
+        <v>339.8627534428437</v>
       </c>
       <c r="D19" t="n">
-        <v>52.70091953961285</v>
+        <v>339.8627534428437</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961285</v>
+        <v>339.8627534428437</v>
       </c>
       <c r="F19" t="n">
-        <v>52.70091953961285</v>
+        <v>192.9728059449333</v>
       </c>
       <c r="G19" t="n">
         <v>52.70091953961285</v>
@@ -5703,22 +5703,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>827.0064043113226</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>537.8542278890025</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V19" t="n">
-        <v>342.1180895765735</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W19" t="n">
-        <v>52.70091953961285</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="X19" t="n">
-        <v>52.70091953961285</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.70091953961285</v>
+        <v>508.7989363707505</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1509.138155103873</v>
+        <v>1217.845220914155</v>
       </c>
       <c r="C20" t="n">
-        <v>1140.175638163461</v>
+        <v>848.882703973743</v>
       </c>
       <c r="D20" t="n">
-        <v>781.9099395567109</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="E20" t="n">
-        <v>781.9099395567109</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="F20" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="G20" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H20" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J20" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K20" t="n">
-        <v>644.8079315733946</v>
+        <v>423.5656054180344</v>
       </c>
       <c r="L20" t="n">
-        <v>1197.621189819594</v>
+        <v>976.3788636642336</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.320602645002</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N20" t="n">
-        <v>1578.654815536984</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O20" t="n">
-        <v>2125.816020304062</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
-        <v>2555.131066643356</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5782,22 +5782,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U20" t="n">
-        <v>2225.139236222622</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V20" t="n">
-        <v>1894.076348879051</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W20" t="n">
-        <v>1541.307693608937</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X20" t="n">
-        <v>1541.307693608937</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y20" t="n">
-        <v>1541.307693608937</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C21" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D21" t="n">
         <v>642.7351650238404</v>
@@ -5822,7 +5822,7 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G21" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H21" t="n">
         <v>98.60577654929637</v>
@@ -5837,13 +5837,13 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M21" t="n">
-        <v>1184.647451923042</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N21" t="n">
-        <v>1430.928743686615</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O21" t="n">
         <v>1980.364752439338</v>
@@ -5870,10 +5870,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W21" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X21" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y21" t="n">
         <v>1134.337940986287</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109.3563703832372</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C22" t="n">
-        <v>109.3563703832372</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D22" t="n">
-        <v>109.3563703832372</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
         <v>52.70091953961285</v>
@@ -5937,25 +5937,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S22" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T22" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U22" t="n">
-        <v>619.566119563728</v>
+        <v>787.0377700692127</v>
       </c>
       <c r="V22" t="n">
-        <v>619.566119563728</v>
+        <v>787.0377700692127</v>
       </c>
       <c r="W22" t="n">
-        <v>330.1489495267674</v>
+        <v>497.620600032252</v>
       </c>
       <c r="X22" t="n">
-        <v>330.1489495267674</v>
+        <v>497.620600032252</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.3563703832372</v>
+        <v>497.620600032252</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2084.035518712175</v>
+        <v>1624.924349099407</v>
       </c>
       <c r="C23" t="n">
-        <v>2084.035518712175</v>
+        <v>1255.961832158995</v>
       </c>
       <c r="D23" t="n">
-        <v>1725.769820105425</v>
+        <v>897.6961335522446</v>
       </c>
       <c r="E23" t="n">
-        <v>1339.98156750718</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="F23" t="n">
-        <v>928.9956627175729</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="G23" t="n">
         <v>511.9078809540003</v>
@@ -5989,16 +5989,16 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J23" t="n">
-        <v>262.6316941403568</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K23" t="n">
-        <v>666.0988071604022</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L23" t="n">
         <v>1218.912065406601</v>
       </c>
       <c r="M23" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N23" t="n">
         <v>2477.93754444976</v>
@@ -6019,22 +6019,22 @@
         <v>3543.374718827861</v>
       </c>
       <c r="T23" t="n">
-        <v>3543.374718827861</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U23" t="n">
-        <v>3289.683015573012</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V23" t="n">
-        <v>3289.683015573012</v>
+        <v>2743.820266497152</v>
       </c>
       <c r="W23" t="n">
-        <v>2936.914360302897</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X23" t="n">
-        <v>2860.774690752109</v>
+        <v>2017.585852965958</v>
       </c>
       <c r="Y23" t="n">
-        <v>2470.635358776297</v>
+        <v>1627.446520990146</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M24" t="n">
-        <v>1205.93832751005</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N24" t="n">
         <v>1452.219619273623</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="C25" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="D25" t="n">
-        <v>73.99179512662066</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="E25" t="n">
-        <v>73.99179512662066</v>
+        <v>220.881742624531</v>
       </c>
       <c r="F25" t="n">
         <v>73.99179512662066</v>
@@ -6174,25 +6174,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S25" t="n">
-        <v>866.4861918383708</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T25" t="n">
-        <v>866.4861918383708</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U25" t="n">
-        <v>866.4861918383708</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V25" t="n">
-        <v>611.801703632484</v>
+        <v>530.0898119577583</v>
       </c>
       <c r="W25" t="n">
-        <v>322.3845335955234</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="X25" t="n">
-        <v>94.39498269750601</v>
+        <v>240.6726419207977</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.39498269750601</v>
+        <v>240.6726419207977</v>
       </c>
     </row>
     <row r="26">
@@ -6202,58 +6202,58 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1240.846680926024</v>
+        <v>1240.846680926025</v>
       </c>
       <c r="C26" t="n">
-        <v>871.8841639856125</v>
+        <v>871.884163985613</v>
       </c>
       <c r="D26" t="n">
-        <v>513.6184653788621</v>
+        <v>513.6184653788625</v>
       </c>
       <c r="E26" t="n">
-        <v>513.6184653788621</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="F26" t="n">
-        <v>102.6325605892545</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G26" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H26" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I26" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J26" t="n">
-        <v>262.6316941403568</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K26" t="n">
-        <v>666.0988071604022</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L26" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389913</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N26" t="n">
         <v>2477.93754444976</v>
       </c>
       <c r="O26" t="n">
-        <v>3025.098749216837</v>
+        <v>3025.098749216838</v>
       </c>
       <c r="P26" t="n">
-        <v>3454.413795556131</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q26" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R26" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S26" t="n">
-        <v>3543.37471882786</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T26" t="n">
         <v>3328.574857095572</v>
@@ -6265,7 +6265,7 @@
         <v>2743.820266497152</v>
       </c>
       <c r="W26" t="n">
-        <v>2391.051611227037</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X26" t="n">
         <v>2017.585852965958</v>
@@ -6293,7 +6293,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G27" t="n">
         <v>220.8126299914996</v>
@@ -6302,7 +6302,7 @@
         <v>119.8966521363042</v>
       </c>
       <c r="I27" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J27" t="n">
         <v>192.6510469835163</v>
@@ -6314,7 +6314,7 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M27" t="n">
-        <v>1205.93832751005</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N27" t="n">
         <v>1452.219619273623</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>540.6283731259662</v>
+        <v>269.7279334390497</v>
       </c>
       <c r="C28" t="n">
-        <v>540.6283731259662</v>
+        <v>269.7279334390497</v>
       </c>
       <c r="D28" t="n">
-        <v>390.5117337136304</v>
+        <v>269.7279334390497</v>
       </c>
       <c r="E28" t="n">
-        <v>242.5986401312373</v>
+        <v>121.8148398566565</v>
       </c>
       <c r="F28" t="n">
-        <v>242.5986401312373</v>
+        <v>121.8148398566565</v>
       </c>
       <c r="G28" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H28" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I28" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J28" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K28" t="n">
         <v>175.0397247222305</v>
@@ -6411,25 +6411,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S28" t="n">
-        <v>866.4861918383708</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T28" t="n">
-        <v>640.8569951507358</v>
+        <v>848.2972798983304</v>
       </c>
       <c r="U28" t="n">
-        <v>640.8569951507358</v>
+        <v>559.1451034760103</v>
       </c>
       <c r="V28" t="n">
-        <v>540.6283731259662</v>
+        <v>559.1451034760103</v>
       </c>
       <c r="W28" t="n">
-        <v>540.6283731259662</v>
+        <v>269.7279334390497</v>
       </c>
       <c r="X28" t="n">
-        <v>540.6283731259662</v>
+        <v>269.7279334390497</v>
       </c>
       <c r="Y28" t="n">
-        <v>540.6283731259662</v>
+        <v>269.7279334390497</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1215.141270289868</v>
+        <v>1518.672231473637</v>
       </c>
       <c r="C29" t="n">
-        <v>1215.141270289868</v>
+        <v>1149.709714533225</v>
       </c>
       <c r="D29" t="n">
-        <v>856.8755716831174</v>
+        <v>1149.709714533225</v>
       </c>
       <c r="E29" t="n">
-        <v>471.0873190848731</v>
+        <v>763.9214619349812</v>
       </c>
       <c r="F29" t="n">
-        <v>471.0873190848731</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G29" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H29" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I29" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J29" t="n">
-        <v>75.23378731468385</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K29" t="n">
-        <v>321.6961558056076</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L29" t="n">
-        <v>874.5094140518069</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M29" t="n">
-        <v>1061.208826877215</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N29" t="n">
-        <v>1688.516494937061</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O29" t="n">
-        <v>2235.677699704138</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P29" t="n">
-        <v>2664.992746043433</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q29" t="n">
-        <v>2699.976866065028</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R29" t="n">
-        <v>2699.976866065028</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2543.761828561856</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2543.761828561856</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U29" t="n">
-        <v>2543.761828561856</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V29" t="n">
-        <v>2212.698941218285</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W29" t="n">
-        <v>1991.880442329801</v>
+        <v>2282.277321710529</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.880442329801</v>
+        <v>1908.811563449449</v>
       </c>
       <c r="Y29" t="n">
-        <v>1601.74111035399</v>
+        <v>1518.672231473637</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>967.4212217479063</v>
+        <v>966.1226039662192</v>
       </c>
       <c r="C30" t="n">
-        <v>792.9681924667793</v>
+        <v>791.6695746850922</v>
       </c>
       <c r="D30" t="n">
-        <v>644.0337828055281</v>
+        <v>642.735165023841</v>
       </c>
       <c r="E30" t="n">
-        <v>484.7963278000726</v>
+        <v>483.4977100183855</v>
       </c>
       <c r="F30" t="n">
-        <v>338.2617698269576</v>
+        <v>336.9631520452705</v>
       </c>
       <c r="G30" t="n">
-        <v>200.8203721861795</v>
+        <v>199.5217544044924</v>
       </c>
       <c r="H30" t="n">
-        <v>99.90439433098408</v>
+        <v>98.605776549297</v>
       </c>
       <c r="I30" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961349</v>
       </c>
       <c r="J30" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K30" t="n">
-        <v>121.6073569846576</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L30" t="n">
-        <v>438.7158786036414</v>
+        <v>346.1860297752926</v>
       </c>
       <c r="M30" t="n">
-        <v>1079.261228070746</v>
+        <v>986.7313792423972</v>
       </c>
       <c r="N30" t="n">
-        <v>1747.50550242184</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O30" t="n">
-        <v>2296.941511174563</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P30" t="n">
-        <v>2405.631138701862</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q30" t="n">
-        <v>2636.34459476233</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R30" t="n">
-        <v>2615.232695164517</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S30" t="n">
-        <v>2465.765906027152</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T30" t="n">
-        <v>2268.776610187239</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U30" t="n">
-        <v>2040.637822698405</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V30" t="n">
-        <v>1805.485714466663</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W30" t="n">
-        <v>1551.248357738461</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X30" t="n">
-        <v>1343.396857532928</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y30" t="n">
-        <v>1135.636558767974</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>536.7924914603077</v>
+        <v>200.614013122006</v>
       </c>
       <c r="C31" t="n">
-        <v>367.8563085324008</v>
+        <v>200.614013122006</v>
       </c>
       <c r="D31" t="n">
-        <v>217.7396691200651</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E31" t="n">
-        <v>69.82657553767197</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F31" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G31" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H31" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I31" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J31" t="n">
-        <v>53.99953732130056</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K31" t="n">
-        <v>155.0474669169104</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L31" t="n">
-        <v>339.8804618177288</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M31" t="n">
-        <v>545.1500625369667</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N31" t="n">
-        <v>750.973427373071</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O31" t="n">
-        <v>925.0683227616698</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P31" t="n">
-        <v>1050.515899360285</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q31" t="n">
-        <v>1053.934218780645</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R31" t="n">
-        <v>1053.934218780645</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S31" t="n">
-        <v>1053.934218780645</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T31" t="n">
-        <v>1053.934218780645</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U31" t="n">
-        <v>764.782042358325</v>
+        <v>671.6796479892064</v>
       </c>
       <c r="V31" t="n">
-        <v>764.782042358325</v>
+        <v>671.6796479892064</v>
       </c>
       <c r="W31" t="n">
-        <v>764.782042358325</v>
+        <v>382.2624779522457</v>
       </c>
       <c r="X31" t="n">
-        <v>536.7924914603077</v>
+        <v>382.2624779522457</v>
       </c>
       <c r="Y31" t="n">
-        <v>536.7924914603077</v>
+        <v>382.2624779522457</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1173.80006912892</v>
+        <v>1249.737123033205</v>
       </c>
       <c r="C32" t="n">
-        <v>1173.80006912892</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D32" t="n">
-        <v>1173.80006912892</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E32" t="n">
-        <v>788.0118165306759</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F32" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G32" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H32" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I32" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J32" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K32" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L32" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M32" t="n">
-        <v>1341.029393337099</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N32" t="n">
-        <v>1968.337061396946</v>
+        <v>1856.267564674535</v>
       </c>
       <c r="O32" t="n">
-        <v>2489.327531709521</v>
+        <v>2403.428769441613</v>
       </c>
       <c r="P32" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U32" t="n">
-        <v>2634.370783782539</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V32" t="n">
-        <v>2303.307896438968</v>
+        <v>1992.64511027913</v>
       </c>
       <c r="W32" t="n">
-        <v>1950.539241168854</v>
+        <v>1639.876455009016</v>
       </c>
       <c r="X32" t="n">
-        <v>1950.539241168854</v>
+        <v>1639.876455009016</v>
       </c>
       <c r="Y32" t="n">
-        <v>1560.399909193042</v>
+        <v>1249.737123033205</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J33" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K33" t="n">
-        <v>316.2580578546455</v>
+        <v>157.1026308627114</v>
       </c>
       <c r="L33" t="n">
-        <v>453.4876558703395</v>
+        <v>661.4641707288299</v>
       </c>
       <c r="M33" t="n">
-        <v>1094.033005337444</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.206884640153</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O33" t="n">
-        <v>2295.642893392876</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P33" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q33" t="n">
         <v>2635.045976980643</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>522.4523551423747</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="C34" t="n">
-        <v>522.4523551423747</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="D34" t="n">
-        <v>522.4523551423747</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E34" t="n">
-        <v>522.4523551423747</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F34" t="n">
-        <v>375.5624076444644</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G34" t="n">
-        <v>206.9555626398478</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J34" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K34" t="n">
         <v>153.7488491352227</v>
@@ -6885,25 +6885,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>845.195316251363</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U34" t="n">
-        <v>743.2449342859048</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V34" t="n">
-        <v>743.2449342859048</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W34" t="n">
-        <v>743.2449342859048</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X34" t="n">
-        <v>743.2449342859048</v>
+        <v>55.18018878509827</v>
       </c>
       <c r="Y34" t="n">
-        <v>522.4523551423747</v>
+        <v>55.18018878509827</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1484.841046679629</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="C35" t="n">
-        <v>1115.878529739218</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="D35" t="n">
-        <v>1115.878529739218</v>
+        <v>1584.785973918528</v>
       </c>
       <c r="E35" t="n">
-        <v>730.0902771409733</v>
+        <v>1198.997721320284</v>
       </c>
       <c r="F35" t="n">
-        <v>319.1043723513657</v>
+        <v>788.0118165306759</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I35" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K35" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>683.1408478992852</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M35" t="n">
-        <v>1314.858658882597</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N35" t="n">
-        <v>1942.166326942443</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O35" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P35" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T35" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U35" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V35" t="n">
-        <v>2635.045976980643</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W35" t="n">
-        <v>2635.045976980643</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X35" t="n">
-        <v>2261.580218719563</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="Y35" t="n">
-        <v>1871.440886743751</v>
+        <v>1894.076348879051</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C36" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D36" t="n">
         <v>642.7351650238404</v>
@@ -7007,31 +7007,31 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G36" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H36" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I36" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J36" t="n">
-        <v>61.47520867925999</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K36" t="n">
-        <v>390.9036129850699</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L36" t="n">
-        <v>528.1332110007638</v>
+        <v>453.4876558703397</v>
       </c>
       <c r="M36" t="n">
-        <v>1168.678560467868</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N36" t="n">
-        <v>1820.852439770578</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439338</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7040,7 +7040,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R36" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S36" t="n">
         <v>2464.467288245464</v>
@@ -7055,10 +7055,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W36" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X36" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y36" t="n">
         <v>1134.337940986287</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>347.5039606199163</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="C37" t="n">
-        <v>347.5039606199163</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="D37" t="n">
-        <v>347.5039606199163</v>
+        <v>69.2651269214542</v>
       </c>
       <c r="E37" t="n">
-        <v>199.5908670375232</v>
+        <v>69.2651269214542</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961285</v>
+        <v>69.2651269214542</v>
       </c>
       <c r="G37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J37" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K37" t="n">
         <v>153.7488491352227</v>
@@ -7122,25 +7122,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>556.0431398290427</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V37" t="n">
-        <v>347.5039606199163</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W37" t="n">
-        <v>347.5039606199163</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X37" t="n">
-        <v>347.5039606199163</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y37" t="n">
-        <v>347.5039606199163</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1132.072391409515</v>
+        <v>1448.400064182689</v>
       </c>
       <c r="C38" t="n">
-        <v>763.1098744691033</v>
+        <v>1448.400064182689</v>
       </c>
       <c r="D38" t="n">
-        <v>404.8441758623528</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E38" t="n">
-        <v>404.8441758623528</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8441758623528</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>404.8441758623528</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H38" t="n">
-        <v>86.62106063486226</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I38" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
         <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L38" t="n">
-        <v>709.3115823537878</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M38" t="n">
-        <v>1341.029393337099</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N38" t="n">
-        <v>1968.337061396946</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O38" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P38" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V38" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W38" t="n">
-        <v>2282.277321710528</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.811563449448</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="Y38" t="n">
-        <v>1518.672231473637</v>
+        <v>1834.99990424681</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D39" t="n">
         <v>642.7351650238404</v>
@@ -7244,25 +7244,25 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H39" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I39" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K39" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L39" t="n">
-        <v>1005.150115568437</v>
+        <v>257.5383372186639</v>
       </c>
       <c r="M39" t="n">
-        <v>1232.27200203395</v>
+        <v>778.7548643839061</v>
       </c>
       <c r="N39" t="n">
         <v>1430.928743686615</v>
@@ -7292,10 +7292,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X39" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y39" t="n">
         <v>1134.337940986287</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C40" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D40" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E40" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F40" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J40" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K40" t="n">
         <v>153.7488491352227</v>
@@ -7359,25 +7359,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T40" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U40" t="n">
-        <v>763.4834245766374</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V40" t="n">
-        <v>508.7989363707505</v>
+        <v>234.3493843698526</v>
       </c>
       <c r="W40" t="n">
-        <v>402.9562293744692</v>
+        <v>234.3493843698526</v>
       </c>
       <c r="X40" t="n">
-        <v>402.9562293744692</v>
+        <v>234.3493843698526</v>
       </c>
       <c r="Y40" t="n">
-        <v>402.9562293744692</v>
+        <v>234.3493843698526</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1994.754433661672</v>
+        <v>1310.922891047987</v>
       </c>
       <c r="C41" t="n">
-        <v>1625.79191672126</v>
+        <v>947.747370509825</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.52621811451</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="E41" t="n">
-        <v>901.6029101566</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="F41" t="n">
-        <v>490.6170053669925</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G41" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H41" t="n">
         <v>172.393890139502</v>
       </c>
       <c r="I41" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
         <v>73.93516953299616</v>
@@ -7420,16 +7420,16 @@
         <v>1030.215540799241</v>
       </c>
       <c r="M41" t="n">
-        <v>1216.914953624649</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N41" t="n">
-        <v>1844.222621684495</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O41" t="n">
-        <v>2391.383826451573</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P41" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7447,16 +7447,16 @@
         <v>2381.354273725794</v>
       </c>
       <c r="V41" t="n">
-        <v>2381.354273725794</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W41" t="n">
-        <v>2381.354273725794</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X41" t="n">
-        <v>2381.354273725794</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2381.354273725794</v>
+        <v>1697.522731112109</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I42" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>61.47520867925999</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K42" t="n">
-        <v>390.9036129850699</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L42" t="n">
-        <v>528.1332110007638</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M42" t="n">
-        <v>1168.678560467868</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N42" t="n">
-        <v>1820.852439770578</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O42" t="n">
-        <v>1980.364752439338</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P42" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q42" t="n">
         <v>2635.045976980643</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J43" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K43" t="n">
         <v>153.7488491352227</v>
@@ -7599,22 +7599,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>885.9547542047806</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U43" t="n">
-        <v>596.8025777824604</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V43" t="n">
-        <v>342.1180895765735</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W43" t="n">
-        <v>52.70091953961285</v>
+        <v>449.2973154422468</v>
       </c>
       <c r="X43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1174.475262327024</v>
+        <v>1249.737123033205</v>
       </c>
       <c r="C44" t="n">
-        <v>1174.475262327024</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.475262327024</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E44" t="n">
-        <v>788.6870097287799</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F44" t="n">
-        <v>377.7011049391724</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
         <v>73.93516953299616</v>
@@ -7654,19 +7654,19 @@
         <v>477.4022825530416</v>
       </c>
       <c r="L44" t="n">
-        <v>809.5785249674213</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M44" t="n">
-        <v>996.277937792829</v>
+        <v>1661.933351782553</v>
       </c>
       <c r="N44" t="n">
-        <v>1623.585605852676</v>
+        <v>2000.577785302794</v>
       </c>
       <c r="O44" t="n">
         <v>2170.746810619753</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959047</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7681,19 +7681,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.045976980643</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V44" t="n">
-        <v>2303.983089637072</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W44" t="n">
-        <v>1951.214434366958</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X44" t="n">
-        <v>1951.214434366958</v>
+        <v>2007.888515464714</v>
       </c>
       <c r="Y44" t="n">
-        <v>1561.075102391146</v>
+        <v>1617.749183488902</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K45" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L45" t="n">
-        <v>1005.150115568437</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M45" t="n">
-        <v>1645.695465035541</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N45" t="n">
-        <v>1844.352206688206</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O45" t="n">
-        <v>2003.864519356967</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P45" t="n">
-        <v>2427.832287837804</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q45" t="n">
         <v>2635.045976980643</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.3026479628311</v>
+        <v>75.72945493552086</v>
       </c>
       <c r="C46" t="n">
-        <v>447.3664650349242</v>
+        <v>75.72945493552086</v>
       </c>
       <c r="D46" t="n">
-        <v>297.2498256225884</v>
+        <v>75.72945493552086</v>
       </c>
       <c r="E46" t="n">
-        <v>297.2498256225884</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F46" t="n">
-        <v>150.3598781246781</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
-        <v>150.3598781246781</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
         <v>153.7488491352227</v>
@@ -7833,25 +7833,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T46" t="n">
-        <v>1052.635600998958</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U46" t="n">
-        <v>1052.635600998958</v>
+        <v>330.4139431414077</v>
       </c>
       <c r="V46" t="n">
-        <v>797.9511127930708</v>
+        <v>75.72945493552086</v>
       </c>
       <c r="W46" t="n">
-        <v>797.9511127930708</v>
+        <v>75.72945493552086</v>
       </c>
       <c r="X46" t="n">
-        <v>797.9511127930708</v>
+        <v>75.72945493552086</v>
       </c>
       <c r="Y46" t="n">
-        <v>797.9511127930708</v>
+        <v>75.72945493552086</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.34619872439555</v>
+        <v>101.6732293396349</v>
       </c>
       <c r="K3" t="n">
-        <v>90.85420985079944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>461.031353803329</v>
+        <v>83.45546950341398</v>
       </c>
       <c r="N3" t="n">
-        <v>361.6577100708986</v>
+        <v>441.391358882588</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.8381633515218</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>55.62937354455035</v>
+        <v>52.78970195316195</v>
       </c>
       <c r="K6" t="n">
-        <v>180.4789674023255</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>146.8264299130172</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>52.78970195316195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>416.0915165207205</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>73.52509652576938</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>142.0501052952622</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8701,16 +8701,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>410.9118391044057</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,25 +8768,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>15.09612350480402</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>414.5834604977823</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>391.2261292428723</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>48.10560617263525</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>112.5650977678448</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9175,16 +9175,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>213.8698272853573</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>98.93303561408925</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N18" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>37.16554713105241</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>269.7649306166119</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9412,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.38463668251659</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>347.103207002824</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N24" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9962,10 +9962,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N27" t="n">
-        <v>48.10560617263477</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10114,22 +10114,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>165.5547615316479</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10196,22 +10196,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>181.6958824275655</v>
+        <v>89.54312379457448</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>474.330841109525</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10360,19 +10360,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>86.76642653324123</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,16 +10430,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K33" t="n">
-        <v>197.9286046986622</v>
+        <v>37.16554713105198</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>391.2261292428723</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.09612350480427</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>197.9286046986625</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,22 +10825,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>214.4812518545909</v>
       </c>
       <c r="O38" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>48.10560617263505</v>
+        <v>345.1708998087248</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11068,16 +11068,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>86.76642653324137</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>98.93303561408925</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>15.09612350480427</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>458.0981188384286</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105188</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,16 +11302,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>194.7955419930571</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>145.767899624504</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,16 +11387,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105188</v>
       </c>
       <c r="Q45" t="n">
-        <v>186.3401494352142</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.607077801782225</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>27.55275347123188</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>383.8089796957329</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>334.3766074205886</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>191.2840769512558</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.5985725955123</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>197.6762285886737</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>220.9166871300394</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3058281232043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.0771654343882</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>109.6630472765538</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>80.22618955643345</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>83.62066277891574</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>166.7358045618955</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>21.59692089125943</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.73919260635353</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>160.2418294657686</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>148.7352246390705</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>77.5718459294792</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>67.46368460462739</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>167.2529959946493</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>220.1250820749239</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>226.9914879665378</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3068493378303</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,7 +22786,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -22795,16 +22795,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>324.4730227344726</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>154.0026954195591</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>57.85344367675359</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>175.6400576100461</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>180.0544366211874</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>63.9851950657978</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3339031445446</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.3851676237297</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>135.6904011488205</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>46.90389179293925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>31.14087046657036</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>147.7488554315367</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22998,19 +22998,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2831888357319</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>42.1664262529676</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>324.4730227344726</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>154.0026954195591</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,13 +23080,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>34.27106166667932</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23111,7 +23111,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12.48909538436726</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>51.49609968143133</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23178,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>98.25761955950969</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>46.90389179293925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>31.14087046657036</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>147.7488554315367</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.5655516544858</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.1380819688299</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2831888357319</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>59.69113738328161</v>
+        <v>215.6284975597655</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>126.8409723432651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.9207765545704</v>
@@ -23439,7 +23439,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>76.05470827629236</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>364.3156484224033</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
@@ -23554,7 +23554,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>43.52270822544347</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>133.1191063659285</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.266557879417</v>
@@ -23706,7 +23706,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452337</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>218.1444957233459</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23752,7 +23752,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>53.24392411123284</v>
       </c>
     </row>
     <row r="18">
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>28.05160901330319</v>
       </c>
       <c r="H19" t="n">
         <v>152.7120966692326</v>
@@ -23943,16 +23943,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>58.35886639452332</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>350.8859985434676</v>
+        <v>275.1578568106122</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>90.34506631138103</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.9207765545704</v>
@@ -24177,13 +24177,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>246.6917067584081</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>380.2368914916484</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>294.3528278231886</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>159.6328244867608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>126.8409723432651</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.9207765545704</v>
@@ -24414,13 +24414,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>359.6168704684791</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>384.5625461379292</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>119.5759622718349</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24651,19 +24651,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>152.9113075193061</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>115.6846127162337</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
         <v>212.651863114966</v>
@@ -24739,13 +24739,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>130.630654817814</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>129.7522801887235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24891,19 +24891,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T31" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>132.4871658992019</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
         <v>118.4960408938903</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.4863449561778</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>310.2349369010441</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.1609964651818</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I34" t="n">
         <v>123.266557879417</v>
@@ -25125,25 +25125,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>185.3297765122934</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>48.48557040976476</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>149.1774856623015</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938903</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>150.5222112465475</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25362,7 +25362,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T37" t="n">
         <v>223.3729047207587</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.68385590679287</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>174.6642081839482</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>84.91510120959339</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H40" t="n">
         <v>152.7120966692326</v>
@@ -25599,19 +25599,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>157.0337301399884</v>
       </c>
       <c r="W40" t="n">
-        <v>181.7387184102725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>5.729126438226842</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>19.66629519393126</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25839,7 +25839,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
-        <v>58.35886639452337</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>227.6163936173723</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>18.40190181233976</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>91.16672040037292</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>315.0408840752156</v>
@@ -25921,16 +25921,16 @@
         <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>123.6357126046203</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>56.02972767001798</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
         <v>123.266557879417</v>
@@ -26073,13 +26073,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1044951.450420513</v>
+        <v>554470.6511393695</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1046995.70071835</v>
+        <v>745365.3880353286</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1047128.487110604</v>
+        <v>745365.3880353284</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753467.5376000437</v>
+        <v>753467.5376000439</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>866801.8458033663</v>
+        <v>866801.8458033665</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>866801.8458033664</v>
+        <v>866801.8458033665</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760380.2616590732</v>
+        <v>753467.5376000437</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753467.5376000437</v>
+        <v>753467.5376000439</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753467.5376000437</v>
+        <v>753467.5376000438</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>226819.1471570213</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253557</v>
+        <v>313264.8863491879</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253557</v>
+        <v>313264.8863491879</v>
       </c>
       <c r="E2" t="n">
-        <v>326292.3452571629</v>
+        <v>326292.3452571628</v>
       </c>
       <c r="F2" t="n">
-        <v>326292.3452571631</v>
+        <v>326292.345257163</v>
       </c>
       <c r="G2" t="n">
         <v>326292.3452571628</v>
       </c>
       <c r="H2" t="n">
-        <v>326292.345257163</v>
+        <v>326292.3452571628</v>
       </c>
       <c r="I2" t="n">
-        <v>371509.2212626564</v>
+        <v>371509.2212626565</v>
       </c>
       <c r="J2" t="n">
         <v>371509.2212626564</v>
       </c>
       <c r="K2" t="n">
-        <v>329050.3078864188</v>
+        <v>326292.3452571631</v>
       </c>
       <c r="L2" t="n">
+        <v>326292.3452571628</v>
+      </c>
+      <c r="M2" t="n">
+        <v>326292.345257163</v>
+      </c>
+      <c r="N2" t="n">
         <v>326292.3452571629</v>
       </c>
-      <c r="M2" t="n">
-        <v>326292.3452571631</v>
-      </c>
-      <c r="N2" t="n">
-        <v>326292.3452571631</v>
-      </c>
       <c r="O2" t="n">
-        <v>326292.3452571628</v>
+        <v>326292.3452571629</v>
       </c>
       <c r="P2" t="n">
-        <v>326292.3452571631</v>
+        <v>326292.3452571629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>261936.5316977451</v>
+        <v>246444.3402780511</v>
       </c>
       <c r="C3" t="n">
-        <v>276628.6396550475</v>
+        <v>309322.1803465868</v>
       </c>
       <c r="D3" t="n">
-        <v>17009.55206423259</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>184057.5967969423</v>
+        <v>184057.5967969422</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>70771.13658715878</v>
       </c>
       <c r="J3" t="n">
-        <v>102728.1192491924</v>
+        <v>99247.66348281736</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3423.575314857002</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>288966.8144898048</v>
+        <v>59878.09215518081</v>
       </c>
       <c r="C4" t="n">
-        <v>210975.8474543771</v>
+        <v>62379.4955545386</v>
       </c>
       <c r="D4" t="n">
-        <v>205909.8635325273</v>
+        <v>62379.4955545386</v>
       </c>
       <c r="E4" t="n">
         <v>42070.66996223803</v>
@@ -26444,19 +26444,19 @@
         <v>56875.79859469587</v>
       </c>
       <c r="K4" t="n">
-        <v>42973.69544955128</v>
+        <v>42070.66996223804</v>
       </c>
       <c r="L4" t="n">
         <v>42070.66996223803</v>
       </c>
       <c r="M4" t="n">
-        <v>42070.66996223803</v>
+        <v>42070.66996223804</v>
       </c>
       <c r="N4" t="n">
         <v>42070.66996223803</v>
       </c>
       <c r="O4" t="n">
-        <v>42070.66996223803</v>
+        <v>42070.66996223804</v>
       </c>
       <c r="P4" t="n">
         <v>42070.66996223803</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60448.36258502994</v>
+        <v>59389.95430584688</v>
       </c>
       <c r="C5" t="n">
-        <v>80332.17907069589</v>
+        <v>81623.75293431574</v>
       </c>
       <c r="D5" t="n">
         <v>81623.75293431572</v>
@@ -26496,22 +26496,22 @@
         <v>69171.54328360151</v>
       </c>
       <c r="K5" t="n">
-        <v>53977.42735155825</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="L5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="M5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="N5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="O5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-159778.7353472243</v>
+        <v>-139914.8478832772</v>
       </c>
       <c r="C6" t="n">
-        <v>-116363.6927547648</v>
+        <v>-140689.2156093267</v>
       </c>
       <c r="D6" t="n">
-        <v>147029.8048942801</v>
+        <v>168632.9647372601</v>
       </c>
       <c r="E6" t="n">
-        <v>41479.02665286186</v>
+        <v>46604.14325974249</v>
       </c>
       <c r="F6" t="n">
-        <v>225536.6234498044</v>
+        <v>230661.7400566848</v>
       </c>
       <c r="G6" t="n">
-        <v>225536.623449804</v>
+        <v>230661.7400566846</v>
       </c>
       <c r="H6" t="n">
-        <v>225536.6234498043</v>
+        <v>230661.7400566846</v>
       </c>
       <c r="I6" t="n">
-        <v>171051.4813352594</v>
+        <v>174326.8166510063</v>
       </c>
       <c r="J6" t="n">
-        <v>139094.4986732257</v>
+        <v>145850.2897553476</v>
       </c>
       <c r="K6" t="n">
-        <v>226529.9730153576</v>
+        <v>227238.1647418279</v>
       </c>
       <c r="L6" t="n">
-        <v>225536.6234498041</v>
+        <v>230661.7400566846</v>
       </c>
       <c r="M6" t="n">
-        <v>225536.6234498043</v>
+        <v>230661.7400566848</v>
       </c>
       <c r="N6" t="n">
-        <v>225536.6234498044</v>
+        <v>230661.7400566848</v>
       </c>
       <c r="O6" t="n">
-        <v>225536.623449804</v>
+        <v>230661.7400566848</v>
       </c>
       <c r="P6" t="n">
-        <v>225536.6234498043</v>
+        <v>230661.7400566847</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.2811550940412</v>
+        <v>123.8301897156755</v>
       </c>
       <c r="C3" t="n">
-        <v>350.4050337005864</v>
+        <v>364.3786277160532</v>
       </c>
       <c r="D3" t="n">
-        <v>364.3786277160531</v>
+        <v>364.3786277160532</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392.6255494075631</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="C4" t="n">
-        <v>642.5287719740642</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="D4" t="n">
         <v>658.7614942451606</v>
@@ -26813,25 +26813,25 @@
         <v>924.8974390827582</v>
       </c>
       <c r="J4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="K4" t="n">
-        <v>674.994216516257</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="L4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="M4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="N4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="P4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135.2811550940412</v>
+        <v>123.8301897156755</v>
       </c>
       <c r="C3" t="n">
-        <v>215.1238786065452</v>
+        <v>240.5484380003777</v>
       </c>
       <c r="D3" t="n">
-        <v>13.97359401546674</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>229.0974726220119</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>392.6255494075631</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9032225665011</v>
+        <v>279.4382019746813</v>
       </c>
       <c r="D4" t="n">
-        <v>16.23272227109634</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>266.1359448375975</v>
       </c>
       <c r="J4" t="n">
-        <v>392.625549407563</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13.30225713708387</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>392.6255494075631</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="K4" t="n">
-        <v>249.9032225665011</v>
+        <v>279.4382019746813</v>
       </c>
       <c r="L4" t="n">
-        <v>16.23272227109634</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>52.73539974848859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>333.9051613937295</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>115.7068873535072</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>196.627228091952</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>220.715173156396</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.0525350560272</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>109.4251696750146</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>79.37816995058279</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.0914187610276</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>166.2783060866372</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.9918666049025</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>135.8783155622343</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.61813056427502</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.7470297345187</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>160.0582385782269</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.114244418224</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>76.11194170410953</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.73458883249417</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>166.3245291952821</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>219.765221408853</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>226.9032592169012</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3057230133669</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>325.0483275373305</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>156.1683918347603</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>61.38216237051867</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>176.9201511723675</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.9294253027271</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>50.56974042591881</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.9562755175465</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.92758748535609</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3591014288347</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.6092032786007</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>136.4481822800199</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>48.6854104922554</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.25088316290584</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>148.8818619233482</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>213.0046890270702</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.2457473653425</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>197.9398118884039</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>95.50881048309788</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.683518135681</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2284658114856</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>51.49609968143134</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>12.48909538436743</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3339031445446</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.3851676237297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>135.6904011488205</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.14087046657036</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>147.7488554315367</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.5655516544858</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.1380819688299</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>224.1728715949141</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5438438395740345</v>
+        <v>0.4978098079022126</v>
       </c>
       <c r="H2" t="n">
-        <v>5.569640722037581</v>
+        <v>5.098194695178536</v>
       </c>
       <c r="I2" t="n">
-        <v>20.96653962517798</v>
+        <v>19.19181261915007</v>
       </c>
       <c r="J2" t="n">
-        <v>46.15806607904675</v>
+        <v>42.25098518344046</v>
       </c>
       <c r="K2" t="n">
-        <v>69.17897580821564</v>
+        <v>63.32327435194112</v>
       </c>
       <c r="L2" t="n">
-        <v>85.82263671357951</v>
+        <v>78.55812126052848</v>
       </c>
       <c r="M2" t="n">
-        <v>95.49421959560425</v>
+        <v>87.41104643180945</v>
       </c>
       <c r="N2" t="n">
-        <v>97.03941590479398</v>
+        <v>88.82544854851162</v>
       </c>
       <c r="O2" t="n">
-        <v>91.63156872502967</v>
+        <v>83.87535227118398</v>
       </c>
       <c r="P2" t="n">
-        <v>78.20542393554568</v>
+        <v>71.5856726385981</v>
       </c>
       <c r="Q2" t="n">
-        <v>58.72901643080055</v>
+        <v>53.7578588931001</v>
       </c>
       <c r="R2" t="n">
-        <v>34.16223058764247</v>
+        <v>31.27054534563739</v>
       </c>
       <c r="S2" t="n">
-        <v>12.39284149429332</v>
+        <v>11.34384099757168</v>
       </c>
       <c r="T2" t="n">
-        <v>2.380676407735337</v>
+        <v>2.179162434091937</v>
       </c>
       <c r="U2" t="n">
-        <v>0.04350750716592275</v>
+        <v>0.039824784632177</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2909821071834093</v>
+        <v>0.2663517288223963</v>
       </c>
       <c r="H3" t="n">
-        <v>2.810274561481874</v>
+        <v>2.572396959942617</v>
       </c>
       <c r="I3" t="n">
-        <v>10.0184629008323</v>
+        <v>9.170443294981629</v>
       </c>
       <c r="J3" t="n">
-        <v>27.49142794227114</v>
+        <v>25.16439732703175</v>
       </c>
       <c r="K3" t="n">
-        <v>46.98722912355957</v>
+        <v>43.0099631581323</v>
       </c>
       <c r="L3" t="n">
-        <v>63.18012814085386</v>
+        <v>57.83220322523128</v>
       </c>
       <c r="M3" t="n">
-        <v>73.72822952625242</v>
+        <v>67.48745339504312</v>
       </c>
       <c r="N3" t="n">
-        <v>75.67959637661838</v>
+        <v>69.27364547122491</v>
       </c>
       <c r="O3" t="n">
-        <v>69.23204547534388</v>
+        <v>63.37185190100234</v>
       </c>
       <c r="P3" t="n">
-        <v>55.5648200989091</v>
+        <v>50.86149811170829</v>
       </c>
       <c r="Q3" t="n">
-        <v>37.14361073449976</v>
+        <v>33.9995645423115</v>
       </c>
       <c r="R3" t="n">
-        <v>18.06641539161554</v>
+        <v>16.53717137372739</v>
       </c>
       <c r="S3" t="n">
-        <v>5.404865017200604</v>
+        <v>4.947366541942314</v>
       </c>
       <c r="T3" t="n">
-        <v>1.172862089919092</v>
+        <v>1.073584380648167</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01914355968311904</v>
+        <v>0.01752314005410503</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2439496239400742</v>
+        <v>0.2233003421102344</v>
       </c>
       <c r="H4" t="n">
-        <v>2.168933929212661</v>
+        <v>1.985343041670995</v>
       </c>
       <c r="I4" t="n">
-        <v>7.336230509034234</v>
+        <v>6.71525028818778</v>
       </c>
       <c r="J4" t="n">
-        <v>17.24723841256325</v>
+        <v>15.78733418719357</v>
       </c>
       <c r="K4" t="n">
-        <v>28.34251085412862</v>
+        <v>25.94343974698905</v>
       </c>
       <c r="L4" t="n">
-        <v>36.26865590832704</v>
+        <v>33.19867086246159</v>
       </c>
       <c r="M4" t="n">
-        <v>38.24021241453363</v>
+        <v>35.00334362733429</v>
       </c>
       <c r="N4" t="n">
-        <v>37.33094563439338</v>
+        <v>34.17104235219617</v>
       </c>
       <c r="O4" t="n">
-        <v>34.4811704820025</v>
+        <v>31.5624883557266</v>
       </c>
       <c r="P4" t="n">
-        <v>29.50459815362496</v>
+        <v>27.0071613766778</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.42745441920022</v>
+        <v>18.698358647067</v>
       </c>
       <c r="R4" t="n">
-        <v>10.96886218188733</v>
+        <v>10.04039538252018</v>
       </c>
       <c r="S4" t="n">
-        <v>4.251376628119292</v>
+        <v>3.891515962048357</v>
       </c>
       <c r="T4" t="n">
-        <v>1.042330211380317</v>
+        <v>0.9541014617437287</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01330634312400406</v>
+        <v>0.01218001866055826</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.408663452062658</v>
+        <v>1.464838704386142</v>
       </c>
       <c r="H5" t="n">
-        <v>14.4264745784367</v>
+        <v>15.00177938129458</v>
       </c>
       <c r="I5" t="n">
-        <v>54.30749773564567</v>
+        <v>56.47319415084681</v>
       </c>
       <c r="J5" t="n">
-        <v>119.5585496645031</v>
+        <v>124.3263539863935</v>
       </c>
       <c r="K5" t="n">
-        <v>179.1872735903154</v>
+        <v>186.3329763430589</v>
       </c>
       <c r="L5" t="n">
-        <v>222.2976577113781</v>
+        <v>231.1625338424164</v>
       </c>
       <c r="M5" t="n">
-        <v>247.3489763769973</v>
+        <v>257.2128591515434</v>
       </c>
       <c r="N5" t="n">
-        <v>251.3513414101704</v>
+        <v>261.3748321203806</v>
       </c>
       <c r="O5" t="n">
-        <v>237.3439442087223</v>
+        <v>246.8088422536408</v>
       </c>
       <c r="P5" t="n">
-        <v>202.5675652359254</v>
+        <v>210.6456367391079</v>
       </c>
       <c r="Q5" t="n">
-        <v>152.1198053589314</v>
+        <v>158.1861006382791</v>
       </c>
       <c r="R5" t="n">
-        <v>88.48695557063101</v>
+        <v>92.0156742643961</v>
       </c>
       <c r="S5" t="n">
-        <v>32.09991841387784</v>
+        <v>33.38001197619925</v>
       </c>
       <c r="T5" t="n">
-        <v>6.166424261404288</v>
+        <v>6.412331428450342</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1126930761650126</v>
+        <v>0.1171870963508914</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7537013932427707</v>
+        <v>0.783757803011888</v>
       </c>
       <c r="H6" t="n">
-        <v>7.279168718949919</v>
+        <v>7.569450360667446</v>
       </c>
       <c r="I6" t="n">
-        <v>25.949806741034</v>
+        <v>26.98464365633036</v>
       </c>
       <c r="J6" t="n">
-        <v>71.20825312211635</v>
+        <v>74.04792471350474</v>
       </c>
       <c r="K6" t="n">
-        <v>121.706246469382</v>
+        <v>126.5596975153012</v>
       </c>
       <c r="L6" t="n">
-        <v>163.6490678617692</v>
+        <v>170.1751317460681</v>
       </c>
       <c r="M6" t="n">
-        <v>190.9707433668196</v>
+        <v>198.5863521052489</v>
       </c>
       <c r="N6" t="n">
-        <v>196.0251706925573</v>
+        <v>203.8423419333419</v>
       </c>
       <c r="O6" t="n">
-        <v>179.3247345580727</v>
+        <v>186.4759190350258</v>
       </c>
       <c r="P6" t="n">
-        <v>143.9239090307182</v>
+        <v>149.6633650330333</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.20932170586667</v>
+        <v>100.0459960476228</v>
       </c>
       <c r="R6" t="n">
-        <v>46.7956005383538</v>
+        <v>48.6617344712118</v>
       </c>
       <c r="S6" t="n">
-        <v>13.99967280869795</v>
+        <v>14.55795743752344</v>
       </c>
       <c r="T6" t="n">
-        <v>3.037945528026781</v>
+        <v>3.159093951613705</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0495856179764981</v>
+        <v>0.05156301335604528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6318779296240081</v>
+        <v>0.6570762139141942</v>
       </c>
       <c r="H7" t="n">
-        <v>5.617969228838913</v>
+        <v>5.84200488370984</v>
       </c>
       <c r="I7" t="n">
-        <v>19.00229264723836</v>
+        <v>19.76007377843777</v>
       </c>
       <c r="J7" t="n">
-        <v>44.67376962441737</v>
+        <v>46.45528832373353</v>
       </c>
       <c r="K7" t="n">
-        <v>73.41272673268021</v>
+        <v>76.34030921657636</v>
       </c>
       <c r="L7" t="n">
-        <v>93.94301510064574</v>
+        <v>97.68931274866122</v>
       </c>
       <c r="M7" t="n">
-        <v>99.04973764097065</v>
+        <v>102.9996832411132</v>
       </c>
       <c r="N7" t="n">
-        <v>96.6945562669176</v>
+        <v>100.5505809892513</v>
       </c>
       <c r="O7" t="n">
-        <v>89.3130731799462</v>
+        <v>92.87473612670814</v>
       </c>
       <c r="P7" t="n">
-        <v>76.42276341561637</v>
+        <v>79.4703813628585</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.91116008878854</v>
+        <v>55.02117278512403</v>
       </c>
       <c r="R7" t="n">
-        <v>28.41152945382131</v>
+        <v>29.54453594563276</v>
       </c>
       <c r="S7" t="n">
-        <v>11.01190900990203</v>
+        <v>11.45104638248645</v>
       </c>
       <c r="T7" t="n">
-        <v>2.699842062938943</v>
+        <v>2.807507459451556</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0344660688885823</v>
+        <v>0.03584052075895609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,22 +31521,22 @@
         <v>15.00177938129458</v>
       </c>
       <c r="I8" t="n">
-        <v>56.4731941508468</v>
+        <v>56.47319415084681</v>
       </c>
       <c r="J8" t="n">
-        <v>124.3263539863934</v>
+        <v>124.3263539863935</v>
       </c>
       <c r="K8" t="n">
         <v>186.3329763430589</v>
       </c>
       <c r="L8" t="n">
-        <v>231.1625338424163</v>
+        <v>231.1625338424164</v>
       </c>
       <c r="M8" t="n">
-        <v>257.2128591515433</v>
+        <v>257.2128591515434</v>
       </c>
       <c r="N8" t="n">
-        <v>261.3748321203805</v>
+        <v>261.3748321203806</v>
       </c>
       <c r="O8" t="n">
         <v>246.8088422536408</v>
@@ -31548,16 +31548,16 @@
         <v>158.1861006382791</v>
       </c>
       <c r="R8" t="n">
-        <v>92.01567426439608</v>
+        <v>92.0156742643961</v>
       </c>
       <c r="S8" t="n">
         <v>33.38001197619925</v>
       </c>
       <c r="T8" t="n">
-        <v>6.41233142845034</v>
+        <v>6.412331428450342</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1171870963508913</v>
+        <v>0.1171870963508914</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,10 +31594,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7837578030118879</v>
+        <v>0.783757803011888</v>
       </c>
       <c r="H9" t="n">
-        <v>7.569450360667445</v>
+        <v>7.569450360667446</v>
       </c>
       <c r="I9" t="n">
         <v>26.98464365633036</v>
@@ -31609,7 +31609,7 @@
         <v>126.5596975153012</v>
       </c>
       <c r="L9" t="n">
-        <v>170.175131746068</v>
+        <v>170.1751317460681</v>
       </c>
       <c r="M9" t="n">
         <v>198.5863521052489</v>
@@ -31621,22 +31621,22 @@
         <v>186.4759190350258</v>
       </c>
       <c r="P9" t="n">
-        <v>149.6633650330332</v>
+        <v>149.6633650330333</v>
       </c>
       <c r="Q9" t="n">
         <v>100.0459960476228</v>
       </c>
       <c r="R9" t="n">
-        <v>48.66173447121179</v>
+        <v>48.6617344712118</v>
       </c>
       <c r="S9" t="n">
-        <v>14.55795743752343</v>
+        <v>14.55795743752344</v>
       </c>
       <c r="T9" t="n">
         <v>3.159093951613705</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05156301335604527</v>
+        <v>0.05156301335604528</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6570762139141941</v>
+        <v>0.6570762139141942</v>
       </c>
       <c r="H10" t="n">
-        <v>5.842004883709839</v>
+        <v>5.84200488370984</v>
       </c>
       <c r="I10" t="n">
         <v>19.76007377843777</v>
       </c>
       <c r="J10" t="n">
-        <v>46.45528832373352</v>
+        <v>46.45528832373353</v>
       </c>
       <c r="K10" t="n">
         <v>76.34030921657636</v>
       </c>
       <c r="L10" t="n">
-        <v>97.68931274866119</v>
+        <v>97.68931274866122</v>
       </c>
       <c r="M10" t="n">
         <v>102.9996832411132</v>
       </c>
       <c r="N10" t="n">
-        <v>100.5505809892512</v>
+        <v>100.5505809892513</v>
       </c>
       <c r="O10" t="n">
-        <v>92.87473612670813</v>
+        <v>92.87473612670814</v>
       </c>
       <c r="P10" t="n">
         <v>79.4703813628585</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.02117278512402</v>
+        <v>55.02117278512403</v>
       </c>
       <c r="R10" t="n">
         <v>29.54453594563276</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.20877672443423</v>
+        <v>30.30169582882794</v>
       </c>
       <c r="K2" t="n">
-        <v>173.2345373343998</v>
+        <v>167.3788358781253</v>
       </c>
       <c r="L2" t="n">
-        <v>267.7174362940427</v>
+        <v>260.4529208409917</v>
       </c>
       <c r="M2" t="n">
-        <v>314.661519861164</v>
+        <v>306.5783466973692</v>
       </c>
       <c r="N2" t="n">
-        <v>304.9732767201872</v>
+        <v>296.7593093639049</v>
       </c>
       <c r="O2" t="n">
-        <v>242.3335385660883</v>
+        <v>234.5773221122426</v>
       </c>
       <c r="P2" t="n">
-        <v>168.7711363517588</v>
+        <v>162.1513850548112</v>
       </c>
       <c r="Q2" t="n">
-        <v>48.73831721625574</v>
+        <v>43.76715967855529</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>169.6337611963519</v>
       </c>
       <c r="L3" t="n">
-        <v>295.4660936644389</v>
+        <v>290.1181687488163</v>
       </c>
       <c r="M3" t="n">
-        <v>392.6255494075631</v>
+        <v>8.808888976438775</v>
       </c>
       <c r="N3" t="n">
-        <v>305.9955943641837</v>
+        <v>379.3232922704796</v>
       </c>
       <c r="O3" t="n">
-        <v>320.4981203076289</v>
+        <v>314.6379267332874</v>
       </c>
       <c r="P3" t="n">
-        <v>240.053181324516</v>
+        <v>235.3498593373152</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>104.0950781921391</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>6.073019028245763</v>
+        <v>3.673947921106198</v>
       </c>
       <c r="L4" t="n">
-        <v>63.85868116864318</v>
+        <v>60.78869612277773</v>
       </c>
       <c r="M4" t="n">
-        <v>77.82408937637422</v>
+        <v>74.58722058917488</v>
       </c>
       <c r="N4" t="n">
-        <v>81.46311801362197</v>
+        <v>78.30321473142476</v>
       </c>
       <c r="O4" t="n">
-        <v>59.06629839604218</v>
+        <v>56.14761626976627</v>
       </c>
       <c r="P4" t="n">
-        <v>26.78315741851845</v>
+        <v>24.28572064157128</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>107.6092603098906</v>
+        <v>112.3770646317809</v>
       </c>
       <c r="K5" t="n">
-        <v>283.2428351164996</v>
+        <v>290.3885378692431</v>
       </c>
       <c r="L5" t="n">
-        <v>404.1924572918413</v>
+        <v>413.0573334228795</v>
       </c>
       <c r="M5" t="n">
-        <v>466.5162766425571</v>
+        <v>476.3801594171032</v>
       </c>
       <c r="N5" t="n">
-        <v>459.2852022255636</v>
+        <v>469.3086929357738</v>
       </c>
       <c r="O5" t="n">
-        <v>388.0459140497809</v>
+        <v>397.5108120946995</v>
       </c>
       <c r="P5" t="n">
-        <v>293.1332776521385</v>
+        <v>301.211349155321</v>
       </c>
       <c r="Q5" t="n">
-        <v>142.1291061443866</v>
+        <v>148.1954014237343</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>164.3437748973484</v>
+        <v>253.1834955535209</v>
       </c>
       <c r="L6" t="n">
-        <v>395.9350333853541</v>
+        <v>402.4610972696531</v>
       </c>
       <c r="M6" t="n">
-        <v>514.5417731948012</v>
+        <v>522.1573819332306</v>
       </c>
       <c r="N6" t="n">
-        <v>544.0258329527775</v>
+        <v>551.8430041935621</v>
       </c>
       <c r="O6" t="n">
-        <v>430.5908093903578</v>
+        <v>437.7419938673109</v>
       </c>
       <c r="P6" t="n">
-        <v>328.4122702563251</v>
+        <v>334.1517262586402</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.3048353556943</v>
+        <v>106.8906518746185</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>51.14323490679736</v>
+        <v>54.07081739069351</v>
       </c>
       <c r="L7" t="n">
-        <v>121.5330403609619</v>
+        <v>125.2793380089774</v>
       </c>
       <c r="M7" t="n">
-        <v>138.6336146028112</v>
+        <v>142.5835602029538</v>
       </c>
       <c r="N7" t="n">
-        <v>140.8267286461462</v>
+        <v>144.6827533684798</v>
       </c>
       <c r="O7" t="n">
-        <v>113.8982010939859</v>
+        <v>117.4598640407478</v>
       </c>
       <c r="P7" t="n">
-        <v>73.70132268050986</v>
+        <v>76.74894062775199</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>413.0573334228795</v>
       </c>
       <c r="M8" t="n">
-        <v>476.3801594171031</v>
+        <v>476.3801594171032</v>
       </c>
       <c r="N8" t="n">
         <v>469.3086929357738</v>
       </c>
       <c r="O8" t="n">
-        <v>397.5108120946994</v>
+        <v>397.5108120946995</v>
       </c>
       <c r="P8" t="n">
         <v>301.211349155321</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>73.30133338724688</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>253.1834955535208</v>
+        <v>253.1834955535209</v>
       </c>
       <c r="L9" t="n">
-        <v>402.461097269653</v>
+        <v>402.4610972696531</v>
       </c>
       <c r="M9" t="n">
-        <v>522.1573819332305</v>
+        <v>522.1573819332306</v>
       </c>
       <c r="N9" t="n">
-        <v>551.8430041935621</v>
+        <v>488.5921463707291</v>
       </c>
       <c r="O9" t="n">
-        <v>437.7419938673108</v>
+        <v>437.7419938673109</v>
       </c>
       <c r="P9" t="n">
         <v>334.1517262586402</v>
       </c>
       <c r="Q9" t="n">
-        <v>33.58931848737061</v>
+        <v>170.1415096974503</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,10 +35336,10 @@
         <v>54.07081739069351</v>
       </c>
       <c r="L10" t="n">
-        <v>125.2793380089773</v>
+        <v>125.2793380089774</v>
       </c>
       <c r="M10" t="n">
-        <v>142.5835602029537</v>
+        <v>142.5835602029538</v>
       </c>
       <c r="N10" t="n">
         <v>144.6827533684798</v>
@@ -35412,7 +35412,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K11" t="n">
-        <v>225.4472311281837</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L11" t="n">
         <v>558.3972305517163</v>
@@ -35421,16 +35421,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>607.2090238437818</v>
       </c>
       <c r="O11" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8.862918322875652</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M12" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N12" t="n">
-        <v>615.2468359045143</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O12" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
         <v>233.0438950105733</v>
@@ -35652,7 +35652,7 @@
         <v>83.39712583292157</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>531.9621452441381</v>
       </c>
       <c r="M14" t="n">
         <v>638.0987989730422</v>
@@ -35661,7 +35661,7 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O14" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
         <v>111.8528537874005</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N15" t="n">
-        <v>248.7689815793672</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>273.6886459181081</v>
       </c>
       <c r="P15" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
@@ -35895,16 +35895,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>385.7577316459225</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588832</v>
+        <v>210.7858894014898</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N18" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.13215440577663</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040863</v>
+        <v>353.1620564495335</v>
       </c>
       <c r="L20" t="n">
         <v>558.3972305517163</v>
@@ -36132,16 +36132,16 @@
         <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.72213165382477</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36205,16 +36205,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M21" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>554.9858674269929</v>
+        <v>508.2267551530873</v>
       </c>
       <c r="P21" t="n">
         <v>428.2502711927643</v>
@@ -36445,10 +36445,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N24" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269929</v>
@@ -36682,10 +36682,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N27" t="n">
-        <v>248.7689815793668</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
@@ -36834,22 +36834,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K29" t="n">
-        <v>248.9518873645695</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L29" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M29" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N29" t="n">
         <v>633.6441091513602</v>
       </c>
       <c r="O29" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P29" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q29" t="n">
         <v>35.33749497130819</v>
@@ -36916,22 +36916,22 @@
         <v>68.29072693268387</v>
       </c>
       <c r="L30" t="n">
-        <v>320.3116379989735</v>
+        <v>228.1588793659825</v>
       </c>
       <c r="M30" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N30" t="n">
-        <v>674.994216516257</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P30" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q30" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K32" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
         <v>558.3972305517163</v>
@@ -37080,13 +37080,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N32" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O32" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
-        <v>111.8528537874005</v>
+        <v>198.6192803206418</v>
       </c>
       <c r="Q32" t="n">
         <v>35.33749497130819</v>
@@ -37150,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>266.2193316313461</v>
+        <v>105.4562740637358</v>
       </c>
       <c r="L33" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N33" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
@@ -37168,7 +37168,7 @@
         <v>109.7875025528271</v>
       </c>
       <c r="Q33" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K35" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>531.9621452441381</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M35" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.862918322875897</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L36" t="n">
-        <v>138.615755571408</v>
+        <v>336.5443602700706</v>
       </c>
       <c r="M36" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37545,22 +37545,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N38" t="n">
-        <v>633.6441091513602</v>
+        <v>410.7784365939671</v>
       </c>
       <c r="O38" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P38" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q38" t="n">
         <v>35.33749497130819</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L39" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M39" t="n">
-        <v>229.4160469348621</v>
+        <v>526.4813405709518</v>
       </c>
       <c r="N39" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
@@ -37788,16 +37788,16 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6441091513602</v>
+        <v>283.0636112726175</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>210.7858894014898</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q41" t="n">
         <v>35.33749497130819</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>8.862918322875897</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L42" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O42" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P42" t="n">
-        <v>428.2502711927643</v>
+        <v>146.953049683879</v>
       </c>
       <c r="Q42" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>335.531557994323</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513602</v>
+        <v>342.0650843638801</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P44" t="n">
         <v>433.6515619588832</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748672</v>
@@ -38107,16 +38107,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N45" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O45" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927643</v>
+        <v>146.953049683879</v>
       </c>
       <c r="Q45" t="n">
-        <v>209.3067567099384</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
